--- a/lib/deals/Deals.xlsx
+++ b/lib/deals/Deals.xlsx
@@ -6,13 +6,12 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet 1" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="393">
   <si>
     <t>Deal</t>
   </si>
@@ -1154,7 +1153,7 @@
     <t xml:space="preserve">I. William Berger </t>
   </si>
   <si>
-    <t>Leslie Berger Grandchildren's Trust u/a dated 9/11/1990</t>
+    <t>Leslie Berger Grandchildrens Trust u/a dated 9/11/1990</t>
   </si>
   <si>
     <t>Danielle B. Pariser Trust UA of Gail C. Berger dtd 4/9/2009</t>
@@ -1191,9 +1190,6 @@
   </si>
   <si>
     <t>Matthew McCulloch</t>
-  </si>
-  <si>
-    <t>Table 1</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1200,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="&quot; &quot;&quot;$&quot;* #,##0.00&quot; &quot;;&quot; &quot;&quot;$&quot;* (#,##0.00);&quot; &quot;&quot;$&quot;* &quot;-&quot;??&quot; &quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1230,13 +1226,8 @@
       <color indexed="8"/>
       <name val="Calibri "/>
     </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1255,20 +1246,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1308,7 +1287,9 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1333,7 +1314,9 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -1384,155 +1367,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1557,12 +1398,6 @@
     <xf numFmtId="59" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
@@ -1574,6 +1409,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
@@ -1591,39 +1432,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1646,10 +1454,6 @@
       <rgbColor rgb="ffe7e6e6"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2756,13 +2560,13 @@
       <c r="C2" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="7">
+        <v>300000</v>
+      </c>
+      <c r="E2" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="E2" s="7">
-        <v>42400</v>
-      </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" ht="17" customHeight="1">
       <c r="A3" t="s" s="5">
@@ -2774,13 +2578,13 @@
       <c r="C3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" s="7">
+        <v>7500</v>
+      </c>
+      <c r="E3" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="E3" s="7">
-        <v>42400</v>
-      </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" ht="17" customHeight="1">
       <c r="A4" t="s" s="5">
@@ -2792,13 +2596,13 @@
       <c r="C4" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="6">
+      <c r="D4" s="7">
+        <v>89500</v>
+      </c>
+      <c r="E4" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="E4" s="7">
-        <v>42400</v>
-      </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" ht="17" customHeight="1">
       <c r="A5" t="s" s="5">
@@ -2810,13 +2614,13 @@
       <c r="C5" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" s="7">
+        <v>76150</v>
+      </c>
+      <c r="E5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="E5" s="7">
-        <v>21200</v>
-      </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" ht="17" customHeight="1">
       <c r="A6" t="s" s="5">
@@ -2828,13 +2632,13 @@
       <c r="C6" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="D6" t="s" s="6">
+      <c r="D6" s="7">
+        <v>76150</v>
+      </c>
+      <c r="E6" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="E6" s="7">
-        <v>84800</v>
-      </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" ht="17" customHeight="1">
       <c r="A7" t="s" s="5">
@@ -2846,13 +2650,13 @@
       <c r="C7" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D7" t="s" s="6">
+      <c r="D7" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E7" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="E7" s="7">
-        <v>84800</v>
-      </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" ht="17" customHeight="1">
       <c r="A8" t="s" s="5">
@@ -2864,13 +2668,13 @@
       <c r="C8" t="s" s="6">
         <v>25</v>
       </c>
-      <c r="D8" t="s" s="6">
+      <c r="D8" s="7">
+        <v>20000</v>
+      </c>
+      <c r="E8" t="s" s="6">
         <v>26</v>
       </c>
-      <c r="E8" s="7">
-        <v>42400</v>
-      </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" ht="17" customHeight="1">
       <c r="A9" t="s" s="5">
@@ -2882,13 +2686,13 @@
       <c r="C9" t="s" s="6">
         <v>28</v>
       </c>
-      <c r="D9" t="s" s="6">
+      <c r="D9" s="7">
+        <v>20000</v>
+      </c>
+      <c r="E9" t="s" s="6">
         <v>29</v>
       </c>
-      <c r="E9" s="7">
-        <v>2500</v>
-      </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" ht="17" customHeight="1">
       <c r="A10" t="s" s="5">
@@ -2900,13 +2704,13 @@
       <c r="C10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D10" t="s" s="6">
+      <c r="D10" s="7">
+        <v>20000</v>
+      </c>
+      <c r="E10" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="E10" s="7">
-        <v>84800</v>
-      </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" ht="17" customHeight="1">
       <c r="A11" t="s" s="5">
@@ -2918,13 +2722,13 @@
       <c r="C11" t="s" s="6">
         <v>33</v>
       </c>
-      <c r="D11" t="s" s="6">
+      <c r="D11" s="7">
+        <v>22900</v>
+      </c>
+      <c r="E11" t="s" s="6">
         <v>34</v>
       </c>
-      <c r="E11" s="7">
-        <v>50900</v>
-      </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" ht="17" customHeight="1">
       <c r="A12" t="s" s="5">
@@ -2936,13 +2740,13 @@
       <c r="C12" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="D12" t="s" s="6">
+      <c r="D12" s="7">
+        <v>84800</v>
+      </c>
+      <c r="E12" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="E12" s="7">
-        <v>29700</v>
-      </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" ht="17" customHeight="1">
       <c r="A13" t="s" s="5">
@@ -2954,13 +2758,13 @@
       <c r="C13" t="s" s="6">
         <v>39</v>
       </c>
-      <c r="D13" t="s" s="6">
+      <c r="D13" s="7">
+        <v>19100</v>
+      </c>
+      <c r="E13" t="s" s="6">
         <v>40</v>
       </c>
-      <c r="E13" s="7">
-        <v>21200</v>
-      </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" ht="17" customHeight="1">
       <c r="A14" t="s" s="5">
@@ -2972,13 +2776,13 @@
       <c r="C14" t="s" s="6">
         <v>42</v>
       </c>
-      <c r="D14" t="s" s="6">
+      <c r="D14" s="7">
+        <v>500000</v>
+      </c>
+      <c r="E14" t="s" s="6">
         <v>43</v>
       </c>
-      <c r="E14" s="7">
-        <v>84800</v>
-      </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" ht="17" customHeight="1">
       <c r="A15" t="s" s="5">
@@ -2990,13 +2794,13 @@
       <c r="C15" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="D15" t="s" s="6">
+      <c r="D15" s="7">
+        <v>21200</v>
+      </c>
+      <c r="E15" t="s" s="6">
         <v>46</v>
       </c>
-      <c r="E15" s="7">
-        <v>21200</v>
-      </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" ht="17" customHeight="1">
       <c r="A16" t="s" s="5">
@@ -3008,13 +2812,13 @@
       <c r="C16" t="s" s="6">
         <v>48</v>
       </c>
-      <c r="D16" t="s" s="6">
+      <c r="D16" s="7">
+        <v>100000</v>
+      </c>
+      <c r="E16" t="s" s="6">
         <v>49</v>
       </c>
-      <c r="E16" s="7">
-        <v>101700</v>
-      </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" ht="17" customHeight="1">
       <c r="A17" t="s" s="5">
@@ -3026,13 +2830,13 @@
       <c r="C17" t="s" s="6">
         <v>48</v>
       </c>
-      <c r="D17" t="s" s="6">
+      <c r="D17" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E17" t="s" s="6">
         <v>50</v>
       </c>
-      <c r="E17" s="7">
-        <v>152600</v>
-      </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" ht="17" customHeight="1">
       <c r="A18" t="s" s="5">
@@ -3044,13 +2848,13 @@
       <c r="C18" t="s" s="6">
         <v>48</v>
       </c>
-      <c r="D18" t="s" s="6">
+      <c r="D18" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E18" t="s" s="6">
         <v>51</v>
       </c>
-      <c r="E18" s="7">
-        <v>84800</v>
-      </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" ht="17" customHeight="1">
       <c r="A19" t="s" s="5">
@@ -3062,13 +2866,13 @@
       <c r="C19" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="D19" t="s" s="6">
+      <c r="D19" s="7">
+        <v>63500</v>
+      </c>
+      <c r="E19" t="s" s="6">
         <v>54</v>
       </c>
-      <c r="E19" s="7">
-        <v>25000</v>
-      </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" ht="17" customHeight="1">
       <c r="A20" t="s" s="5">
@@ -3080,13 +2884,13 @@
       <c r="C20" t="s" s="6">
         <v>56</v>
       </c>
-      <c r="D20" t="s" s="6">
+      <c r="D20" s="7">
+        <v>29600</v>
+      </c>
+      <c r="E20" t="s" s="6">
         <v>57</v>
       </c>
-      <c r="E20" s="7">
-        <v>84800</v>
-      </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" ht="17" customHeight="1">
       <c r="A21" t="s" s="5">
@@ -3098,13 +2902,13 @@
       <c r="C21" t="s" s="6">
         <v>59</v>
       </c>
-      <c r="D21" t="s" s="6">
+      <c r="D21" s="7">
+        <v>2500</v>
+      </c>
+      <c r="E21" t="s" s="6">
         <v>60</v>
       </c>
-      <c r="E21" s="7">
-        <v>83000</v>
-      </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" ht="17" customHeight="1">
       <c r="A22" t="s" s="5">
@@ -3116,16 +2920,16 @@
       <c r="C22" t="s" s="6">
         <v>62</v>
       </c>
-      <c r="D22" t="s" s="6">
+      <c r="D22" s="7">
+        <v>63500</v>
+      </c>
+      <c r="E22" t="s" s="6">
         <v>63</v>
       </c>
-      <c r="E22" s="7">
-        <v>42400</v>
-      </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" ht="17" customHeight="1">
-      <c r="A23" t="s" s="10">
+      <c r="A23" t="s" s="8">
         <v>6</v>
       </c>
       <c r="B23" t="s" s="6">
@@ -3134,13 +2938,13 @@
       <c r="C23" t="s" s="6">
         <v>65</v>
       </c>
-      <c r="D23" t="s" s="6">
+      <c r="D23" s="7">
+        <v>25000</v>
+      </c>
+      <c r="E23" t="s" s="6">
         <v>66</v>
       </c>
-      <c r="E23" s="7">
-        <v>100000</v>
-      </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" ht="17" customHeight="1">
       <c r="A24" t="s" s="5">
@@ -3152,13 +2956,13 @@
       <c r="C24" t="s" s="6">
         <v>67</v>
       </c>
-      <c r="D24" t="s" s="6">
+      <c r="D24" s="7">
+        <v>16900</v>
+      </c>
+      <c r="E24" t="s" s="6">
         <v>68</v>
       </c>
-      <c r="E24" s="7">
-        <v>25000</v>
-      </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" ht="17" customHeight="1">
       <c r="A25" t="s" s="5">
@@ -3170,13 +2974,13 @@
       <c r="C25" t="s" s="6">
         <v>69</v>
       </c>
-      <c r="D25" t="s" s="6">
+      <c r="D25" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E25" t="s" s="6">
         <v>70</v>
       </c>
-      <c r="E25" s="7">
-        <v>40000</v>
-      </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" ht="17" customHeight="1">
       <c r="A26" t="s" s="5">
@@ -3188,13 +2992,13 @@
       <c r="C26" t="s" s="6">
         <v>72</v>
       </c>
-      <c r="D26" t="s" s="6">
+      <c r="D26" s="7">
+        <v>25400</v>
+      </c>
+      <c r="E26" t="s" s="6">
         <v>73</v>
       </c>
-      <c r="E26" s="7">
-        <v>25400</v>
-      </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" ht="17" customHeight="1">
       <c r="A27" t="s" s="5">
@@ -3206,13 +3010,13 @@
       <c r="C27" t="s" s="6">
         <v>75</v>
       </c>
-      <c r="D27" t="s" s="6">
+      <c r="D27" s="7">
+        <v>100000</v>
+      </c>
+      <c r="E27" t="s" s="6">
         <v>76</v>
       </c>
-      <c r="E27" s="7">
-        <v>42400</v>
-      </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" ht="17" customHeight="1">
       <c r="A28" t="s" s="5">
@@ -3224,13 +3028,13 @@
       <c r="C28" t="s" s="6">
         <v>78</v>
       </c>
-      <c r="D28" t="s" s="6">
+      <c r="D28" s="7">
+        <v>75000</v>
+      </c>
+      <c r="E28" t="s" s="6">
         <v>79</v>
       </c>
-      <c r="E28" s="7">
-        <v>200000</v>
-      </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" ht="17" customHeight="1">
       <c r="A29" t="s" s="5">
@@ -3242,13 +3046,13 @@
       <c r="C29" t="s" s="6">
         <v>81</v>
       </c>
-      <c r="D29" t="s" s="6">
+      <c r="D29" s="7">
+        <v>75000</v>
+      </c>
+      <c r="E29" t="s" s="6">
         <v>82</v>
       </c>
-      <c r="E29" s="7">
-        <v>27048.02</v>
-      </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" ht="17" customHeight="1">
       <c r="A30" t="s" s="5">
@@ -3260,13 +3064,13 @@
       <c r="C30" t="s" s="6">
         <v>84</v>
       </c>
-      <c r="D30" t="s" s="6">
+      <c r="D30" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E30" t="s" s="6">
         <v>85</v>
       </c>
-      <c r="E30" s="7">
-        <v>42400</v>
-      </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" ht="17" customHeight="1">
       <c r="A31" t="s" s="5">
@@ -3278,13 +3082,13 @@
       <c r="C31" t="s" s="6">
         <v>87</v>
       </c>
-      <c r="D31" t="s" s="6">
+      <c r="D31" s="7">
+        <v>7500</v>
+      </c>
+      <c r="E31" t="s" s="6">
         <v>88</v>
       </c>
-      <c r="E31" s="7">
-        <v>42400</v>
-      </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" ht="17" customHeight="1">
       <c r="A32" t="s" s="5">
@@ -3296,13 +3100,13 @@
       <c r="C32" t="s" s="6">
         <v>90</v>
       </c>
-      <c r="D32" t="s" s="6">
+      <c r="D32" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E32" t="s" s="6">
         <v>91</v>
       </c>
-      <c r="E32" s="7">
-        <v>300000</v>
-      </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" ht="17" customHeight="1">
       <c r="A33" t="s" s="5">
@@ -3314,13 +3118,13 @@
       <c r="C33" t="s" s="6">
         <v>90</v>
       </c>
-      <c r="D33" t="s" s="6">
+      <c r="D33" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E33" t="s" s="6">
         <v>92</v>
       </c>
-      <c r="E33" s="7">
-        <v>300000</v>
-      </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" ht="17" customHeight="1">
       <c r="A34" t="s" s="5">
@@ -3332,13 +3136,13 @@
       <c r="C34" t="s" s="6">
         <v>90</v>
       </c>
-      <c r="D34" t="s" s="6">
+      <c r="D34" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E34" t="s" s="6">
         <v>93</v>
       </c>
-      <c r="E34" s="7">
-        <v>300000</v>
-      </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" ht="17" customHeight="1">
       <c r="A35" t="s" s="5">
@@ -3350,13 +3154,13 @@
       <c r="C35" t="s" s="6">
         <v>95</v>
       </c>
-      <c r="D35" t="s" s="6">
+      <c r="D35" s="7">
+        <v>8500</v>
+      </c>
+      <c r="E35" t="s" s="6">
         <v>96</v>
       </c>
-      <c r="E35" s="7">
-        <v>42400</v>
-      </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" ht="17" customHeight="1">
       <c r="A36" t="s" s="5">
@@ -3368,16 +3172,16 @@
       <c r="C36" t="s" s="6">
         <v>98</v>
       </c>
-      <c r="D36" t="s" s="6">
+      <c r="D36" s="7">
+        <v>59536.31</v>
+      </c>
+      <c r="E36" t="s" s="6">
         <v>99</v>
       </c>
-      <c r="E36" s="7">
-        <v>35000</v>
-      </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" ht="17" customHeight="1">
-      <c r="A37" t="s" s="10">
+      <c r="A37" t="s" s="8">
         <v>6</v>
       </c>
       <c r="B37" t="s" s="6">
@@ -3386,16 +3190,16 @@
       <c r="C37" t="s" s="6">
         <v>101</v>
       </c>
-      <c r="D37" t="s" s="6">
+      <c r="D37" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E37" t="s" s="6">
         <v>102</v>
       </c>
-      <c r="E37" s="7">
-        <v>84800</v>
-      </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" ht="17" customHeight="1">
-      <c r="A38" t="s" s="10">
+      <c r="A38" t="s" s="8">
         <v>6</v>
       </c>
       <c r="B38" t="s" s="6">
@@ -3404,16 +3208,16 @@
       <c r="C38" t="s" s="6">
         <v>103</v>
       </c>
-      <c r="D38" t="s" s="6">
+      <c r="D38" s="7">
+        <v>21200</v>
+      </c>
+      <c r="E38" t="s" s="6">
         <v>104</v>
       </c>
-      <c r="E38" s="7">
-        <v>84800</v>
-      </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" ht="17" customHeight="1">
-      <c r="A39" t="s" s="10">
+      <c r="A39" t="s" s="8">
         <v>6</v>
       </c>
       <c r="B39" t="s" s="6">
@@ -3422,16 +3226,16 @@
       <c r="C39" t="s" s="6">
         <v>105</v>
       </c>
-      <c r="D39" t="s" s="6">
+      <c r="D39" s="7">
+        <v>21200</v>
+      </c>
+      <c r="E39" t="s" s="6">
         <v>106</v>
       </c>
-      <c r="E39" s="7">
-        <v>42400</v>
-      </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" ht="17" customHeight="1">
-      <c r="A40" t="s" s="10">
+      <c r="A40" t="s" s="8">
         <v>6</v>
       </c>
       <c r="B40" t="s" s="6">
@@ -3440,16 +3244,16 @@
       <c r="C40" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D40" t="s" s="6">
+      <c r="D40" s="7">
+        <v>2500</v>
+      </c>
+      <c r="E40" t="s" s="6">
         <v>108</v>
       </c>
-      <c r="E40" s="7">
-        <v>7500</v>
-      </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" ht="17" customHeight="1">
-      <c r="A41" t="s" s="10">
+      <c r="A41" t="s" s="8">
         <v>6</v>
       </c>
       <c r="B41" t="s" s="6">
@@ -3458,13 +3262,13 @@
       <c r="C41" t="s" s="6">
         <v>110</v>
       </c>
-      <c r="D41" t="s" s="6">
+      <c r="D41" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E41" t="s" s="6">
         <v>111</v>
       </c>
-      <c r="E41" s="7">
-        <v>5000</v>
-      </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" ht="17" customHeight="1">
       <c r="A42" t="s" s="5">
@@ -3476,13 +3280,13 @@
       <c r="C42" t="s" s="6">
         <v>113</v>
       </c>
-      <c r="D42" t="s" s="6">
+      <c r="D42" s="7">
+        <v>33900</v>
+      </c>
+      <c r="E42" t="s" s="6">
         <v>114</v>
       </c>
-      <c r="E42" s="7">
-        <v>42400</v>
-      </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" ht="17" customHeight="1">
       <c r="A43" t="s" s="5">
@@ -3494,13 +3298,13 @@
       <c r="C43" t="s" s="6">
         <v>116</v>
       </c>
-      <c r="D43" t="s" s="6">
+      <c r="D43" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E43" t="s" s="6">
         <v>117</v>
       </c>
-      <c r="E43" s="7">
-        <v>200000</v>
-      </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" ht="17" customHeight="1">
       <c r="A44" t="s" s="5">
@@ -3512,16 +3316,16 @@
       <c r="C44" t="s" s="6">
         <v>118</v>
       </c>
-      <c r="D44" t="s" s="6">
+      <c r="D44" s="7">
+        <v>29763.69</v>
+      </c>
+      <c r="E44" t="s" s="6">
         <v>119</v>
       </c>
-      <c r="E44" s="7">
-        <v>200000</v>
-      </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" ht="17" customHeight="1">
-      <c r="A45" t="s" s="10">
+      <c r="A45" t="s" s="8">
         <v>6</v>
       </c>
       <c r="B45" t="s" s="6">
@@ -3530,13 +3334,13 @@
       <c r="C45" t="s" s="6">
         <v>121</v>
       </c>
-      <c r="D45" t="s" s="6">
+      <c r="D45" s="7">
+        <v>211700</v>
+      </c>
+      <c r="E45" t="s" s="6">
         <v>122</v>
       </c>
-      <c r="E45" s="7">
-        <v>21200</v>
-      </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" ht="17" customHeight="1">
       <c r="A46" t="s" s="5">
@@ -3548,16 +3352,16 @@
       <c r="C46" t="s" s="6">
         <v>113</v>
       </c>
-      <c r="D46" t="s" s="6">
+      <c r="D46" s="7">
+        <v>70000</v>
+      </c>
+      <c r="E46" t="s" s="6">
         <v>124</v>
       </c>
-      <c r="E46" s="7">
-        <v>33900</v>
-      </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" ht="17" customHeight="1">
-      <c r="A47" t="s" s="10">
+      <c r="A47" t="s" s="8">
         <v>6</v>
       </c>
       <c r="B47" t="s" s="6">
@@ -3566,13 +3370,13 @@
       <c r="C47" t="s" s="6">
         <v>126</v>
       </c>
-      <c r="D47" t="s" s="6">
+      <c r="D47" s="7">
+        <v>8500</v>
+      </c>
+      <c r="E47" t="s" s="6">
         <v>127</v>
       </c>
-      <c r="E47" s="7">
-        <v>12700</v>
-      </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" ht="17" customHeight="1">
       <c r="A48" t="s" s="5">
@@ -3584,13 +3388,13 @@
       <c r="C48" t="s" s="6">
         <v>129</v>
       </c>
-      <c r="D48" t="s" s="6">
+      <c r="D48" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E48" t="s" s="6">
         <v>130</v>
       </c>
-      <c r="E48" s="7">
-        <v>50900</v>
-      </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" ht="17" customHeight="1">
       <c r="A49" t="s" s="5">
@@ -3602,13 +3406,13 @@
       <c r="C49" t="s" s="6">
         <v>132</v>
       </c>
-      <c r="D49" t="s" s="6">
+      <c r="D49" s="7">
+        <v>12700</v>
+      </c>
+      <c r="E49" t="s" s="6">
         <v>133</v>
       </c>
-      <c r="E49" s="7">
-        <v>27048.02</v>
-      </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="7"/>
     </row>
     <row r="50" ht="17" customHeight="1">
       <c r="A50" t="s" s="5">
@@ -3620,13 +3424,13 @@
       <c r="C50" t="s" s="6">
         <v>135</v>
       </c>
-      <c r="D50" t="s" s="6">
+      <c r="D50" s="7">
+        <v>21200</v>
+      </c>
+      <c r="E50" t="s" s="6">
         <v>136</v>
       </c>
-      <c r="E50" s="7">
-        <v>33900</v>
-      </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" ht="17" customHeight="1">
       <c r="A51" t="s" s="5">
@@ -3638,13 +3442,13 @@
       <c r="C51" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D51" t="s" s="6">
+      <c r="D51" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E51" t="s" s="6">
         <v>138</v>
       </c>
-      <c r="E51" s="7">
-        <v>50000</v>
-      </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" ht="17" customHeight="1">
       <c r="A52" t="s" s="5">
@@ -3656,13 +3460,13 @@
       <c r="C52" t="s" s="6">
         <v>140</v>
       </c>
-      <c r="D52" t="s" s="6">
+      <c r="D52" s="7">
+        <v>84700</v>
+      </c>
+      <c r="E52" t="s" s="6">
         <v>141</v>
       </c>
-      <c r="E52" s="7">
-        <v>42400</v>
-      </c>
-      <c r="F52" s="9"/>
+      <c r="F52" s="7"/>
     </row>
     <row r="53" ht="17" customHeight="1">
       <c r="A53" t="s" s="5">
@@ -3674,13 +3478,13 @@
       <c r="C53" t="s" s="6">
         <v>143</v>
       </c>
-      <c r="D53" t="s" s="6">
+      <c r="D53" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E53" t="s" s="6">
         <v>144</v>
       </c>
-      <c r="E53" s="7">
-        <v>169600</v>
-      </c>
-      <c r="F53" s="9"/>
+      <c r="F53" s="7"/>
     </row>
     <row r="54" ht="17" customHeight="1">
       <c r="A54" t="s" s="5">
@@ -3692,13 +3496,13 @@
       <c r="C54" t="s" s="6">
         <v>146</v>
       </c>
-      <c r="D54" t="s" s="6">
+      <c r="D54" s="7">
+        <v>16900</v>
+      </c>
+      <c r="E54" t="s" s="6">
         <v>147</v>
       </c>
-      <c r="E54" s="7">
-        <v>2500</v>
-      </c>
-      <c r="F54" s="9"/>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" ht="17" customHeight="1">
       <c r="A55" t="s" s="5">
@@ -3710,13 +3514,13 @@
       <c r="C55" t="s" s="6">
         <v>149</v>
       </c>
-      <c r="D55" t="s" s="6">
+      <c r="D55" s="7">
+        <v>169400</v>
+      </c>
+      <c r="E55" t="s" s="6">
         <v>150</v>
       </c>
-      <c r="E55" s="7">
-        <v>63600</v>
-      </c>
-      <c r="F55" s="9"/>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" ht="17" customHeight="1">
       <c r="A56" t="s" s="5">
@@ -3728,13 +3532,13 @@
       <c r="C56" t="s" s="6">
         <v>151</v>
       </c>
-      <c r="D56" t="s" s="6">
+      <c r="D56" s="7">
+        <v>84700</v>
+      </c>
+      <c r="E56" t="s" s="6">
         <v>152</v>
       </c>
-      <c r="E56" s="7">
-        <v>21200</v>
-      </c>
-      <c r="F56" s="9"/>
+      <c r="F56" s="7"/>
     </row>
     <row r="57" ht="17" customHeight="1">
       <c r="A57" t="s" s="5">
@@ -3746,13 +3550,13 @@
       <c r="C57" t="s" s="6">
         <v>154</v>
       </c>
-      <c r="D57" t="s" s="6">
+      <c r="D57" s="7">
+        <v>29600</v>
+      </c>
+      <c r="E57" t="s" s="6">
         <v>155</v>
       </c>
-      <c r="E57" s="7">
-        <v>21200</v>
-      </c>
-      <c r="F57" s="9"/>
+      <c r="F57" s="7"/>
     </row>
     <row r="58" ht="17" customHeight="1">
       <c r="A58" t="s" s="5">
@@ -3764,13 +3568,13 @@
       <c r="C58" t="s" s="6">
         <v>157</v>
       </c>
-      <c r="D58" t="s" s="6">
+      <c r="D58" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E58" t="s" s="6">
         <v>158</v>
       </c>
-      <c r="E58" s="7">
-        <v>50000</v>
-      </c>
-      <c r="F58" s="9"/>
+      <c r="F58" s="7"/>
     </row>
     <row r="59" ht="17" customHeight="1">
       <c r="A59" t="s" s="5">
@@ -3782,13 +3586,13 @@
       <c r="C59" t="s" s="6">
         <v>160</v>
       </c>
-      <c r="D59" t="s" s="6">
+      <c r="D59" s="7">
+        <v>21200</v>
+      </c>
+      <c r="E59" t="s" s="6">
         <v>161</v>
       </c>
-      <c r="E59" s="7">
-        <v>20300</v>
-      </c>
-      <c r="F59" s="9"/>
+      <c r="F59" s="7"/>
     </row>
     <row r="60" ht="17" customHeight="1">
       <c r="A60" t="s" s="5">
@@ -3800,13 +3604,13 @@
       <c r="C60" t="s" s="6">
         <v>163</v>
       </c>
-      <c r="D60" t="s" s="6">
+      <c r="D60" s="7">
+        <v>84700</v>
+      </c>
+      <c r="E60" t="s" s="6">
         <v>164</v>
       </c>
-      <c r="E60" s="7">
-        <v>27043.96</v>
-      </c>
-      <c r="F60" s="9"/>
+      <c r="F60" s="7"/>
     </row>
     <row r="61" ht="17" customHeight="1">
       <c r="A61" t="s" s="5">
@@ -3818,13 +3622,13 @@
       <c r="C61" t="s" s="6">
         <v>166</v>
       </c>
-      <c r="D61" t="s" s="6">
+      <c r="D61" s="7">
+        <v>220000</v>
+      </c>
+      <c r="E61" t="s" s="6">
         <v>167</v>
       </c>
-      <c r="E61" s="7">
-        <v>63600</v>
-      </c>
-      <c r="F61" s="9"/>
+      <c r="F61" s="7"/>
     </row>
     <row r="62" ht="17" customHeight="1">
       <c r="A62" t="s" s="5">
@@ -3836,16 +3640,16 @@
       <c r="C62" t="s" s="6">
         <v>169</v>
       </c>
-      <c r="D62" t="s" s="6">
+      <c r="D62" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E62" t="s" s="6">
         <v>170</v>
       </c>
-      <c r="E62" s="7">
-        <v>59300</v>
-      </c>
-      <c r="F62" s="9"/>
+      <c r="F62" s="7"/>
     </row>
     <row r="63" ht="17" customHeight="1">
-      <c r="A63" t="s" s="10">
+      <c r="A63" t="s" s="8">
         <v>6</v>
       </c>
       <c r="B63" t="s" s="6">
@@ -3854,13 +3658,13 @@
       <c r="C63" t="s" s="6">
         <v>172</v>
       </c>
-      <c r="D63" t="s" s="6">
+      <c r="D63" s="7">
+        <v>7500</v>
+      </c>
+      <c r="E63" t="s" s="6">
         <v>173</v>
       </c>
-      <c r="E63" s="7">
-        <v>84800</v>
-      </c>
-      <c r="F63" s="9"/>
+      <c r="F63" s="7"/>
     </row>
     <row r="64" ht="17" customHeight="1">
       <c r="A64" t="s" s="5">
@@ -3872,13 +3676,13 @@
       <c r="C64" t="s" s="6">
         <v>175</v>
       </c>
-      <c r="D64" t="s" s="6">
+      <c r="D64" s="7">
+        <v>84700</v>
+      </c>
+      <c r="E64" t="s" s="6">
         <v>176</v>
       </c>
-      <c r="E64" s="7">
-        <v>42400</v>
-      </c>
-      <c r="F64" s="9"/>
+      <c r="F64" s="7"/>
     </row>
     <row r="65" ht="17" customHeight="1">
       <c r="A65" t="s" s="5">
@@ -3890,13 +3694,13 @@
       <c r="C65" t="s" s="6">
         <v>178</v>
       </c>
-      <c r="D65" t="s" s="6">
+      <c r="D65" s="7">
+        <v>84700</v>
+      </c>
+      <c r="E65" t="s" s="6">
         <v>179</v>
       </c>
-      <c r="E65" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F65" s="9"/>
+      <c r="F65" s="7"/>
     </row>
     <row r="66" ht="17" customHeight="1">
       <c r="A66" t="s" s="5">
@@ -3908,13 +3712,13 @@
       <c r="C66" t="s" s="6">
         <v>181</v>
       </c>
-      <c r="D66" t="s" s="6">
+      <c r="D66" s="7">
+        <v>21200</v>
+      </c>
+      <c r="E66" t="s" s="6">
         <v>182</v>
       </c>
-      <c r="E66" s="7">
-        <v>42400</v>
-      </c>
-      <c r="F66" s="9"/>
+      <c r="F66" s="7"/>
     </row>
     <row r="67" ht="17" customHeight="1">
       <c r="A67" t="s" s="5">
@@ -3926,13 +3730,13 @@
       <c r="C67" t="s" s="6">
         <v>184</v>
       </c>
-      <c r="D67" t="s" s="6">
+      <c r="D67" s="7">
+        <v>21200</v>
+      </c>
+      <c r="E67" t="s" s="6">
         <v>185</v>
       </c>
-      <c r="E67" s="7">
-        <v>12700</v>
-      </c>
-      <c r="F67" s="9"/>
+      <c r="F67" s="7"/>
     </row>
     <row r="68" ht="17" customHeight="1">
       <c r="A68" t="s" s="5">
@@ -3944,13 +3748,13 @@
       <c r="C68" t="s" s="6">
         <v>103</v>
       </c>
-      <c r="D68" t="s" s="6">
+      <c r="D68" s="7">
+        <v>2500</v>
+      </c>
+      <c r="E68" t="s" s="6">
         <v>187</v>
       </c>
-      <c r="E68" s="7">
-        <v>42400</v>
-      </c>
-      <c r="F68" s="9"/>
+      <c r="F68" s="7"/>
     </row>
     <row r="69" ht="17" customHeight="1">
       <c r="A69" t="s" s="5">
@@ -3962,13 +3766,13 @@
       <c r="C69" t="s" s="6">
         <v>189</v>
       </c>
-      <c r="D69" t="s" s="6">
+      <c r="D69" s="7">
+        <v>7500</v>
+      </c>
+      <c r="E69" t="s" s="6">
         <v>190</v>
       </c>
-      <c r="E69" s="7">
-        <v>17000</v>
-      </c>
-      <c r="F69" s="9"/>
+      <c r="F69" s="7"/>
     </row>
     <row r="70" ht="17" customHeight="1">
       <c r="A70" t="s" s="5">
@@ -3980,13 +3784,13 @@
       <c r="C70" t="s" s="6">
         <v>192</v>
       </c>
-      <c r="D70" t="s" s="6">
+      <c r="D70" s="7">
+        <v>29600</v>
+      </c>
+      <c r="E70" t="s" s="6">
         <v>193</v>
       </c>
-      <c r="E70" s="7">
-        <v>17000</v>
-      </c>
-      <c r="F70" s="9"/>
+      <c r="F70" s="7"/>
     </row>
     <row r="71" ht="17" customHeight="1">
       <c r="A71" t="s" s="5">
@@ -3998,13 +3802,13 @@
       <c r="C71" t="s" s="6">
         <v>195</v>
       </c>
-      <c r="D71" t="s" s="6">
+      <c r="D71" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E71" t="s" s="6">
         <v>196</v>
       </c>
-      <c r="E71" s="7">
-        <v>190800</v>
-      </c>
-      <c r="F71" s="9"/>
+      <c r="F71" s="7"/>
     </row>
     <row r="72" ht="17" customHeight="1">
       <c r="A72" t="s" s="5">
@@ -4016,13 +3820,13 @@
       <c r="C72" t="s" s="6">
         <v>198</v>
       </c>
-      <c r="D72" t="s" s="6">
+      <c r="D72" s="7">
+        <v>779111</v>
+      </c>
+      <c r="E72" t="s" s="6">
         <v>199</v>
       </c>
-      <c r="E72" s="7">
-        <v>33900</v>
-      </c>
-      <c r="F72" s="9"/>
+      <c r="F72" s="7"/>
     </row>
     <row r="73" ht="17" customHeight="1">
       <c r="A73" t="s" s="5">
@@ -4034,11 +3838,11 @@
       <c r="C73" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D73" t="s" s="6">
+      <c r="D73" s="7">
+        <v>1025779</v>
+      </c>
+      <c r="E73" t="s" s="6">
         <v>201</v>
-      </c>
-      <c r="E73" s="11">
-        <v>21200</v>
       </c>
       <c r="F73" s="9"/>
     </row>
@@ -4052,11 +3856,11 @@
       <c r="C74" t="s" s="6">
         <v>203</v>
       </c>
-      <c r="D74" t="s" s="6">
+      <c r="D74" s="7">
+        <v>389555</v>
+      </c>
+      <c r="E74" t="s" s="6">
         <v>204</v>
-      </c>
-      <c r="E74" s="11">
-        <v>7500</v>
       </c>
       <c r="F74" s="9"/>
     </row>
@@ -4070,13 +3874,13 @@
       <c r="C75" t="s" s="6">
         <v>206</v>
       </c>
-      <c r="D75" t="s" s="6">
+      <c r="D75" s="7">
+        <v>389555</v>
+      </c>
+      <c r="E75" t="s" s="6">
         <v>207</v>
       </c>
-      <c r="E75" s="7">
-        <v>42400</v>
-      </c>
-      <c r="F75" s="9"/>
+      <c r="F75" s="7"/>
     </row>
     <row r="76" ht="17" customHeight="1">
       <c r="A76" t="s" s="5">
@@ -4088,13 +3892,13 @@
       <c r="C76" t="s" s="6">
         <v>48</v>
       </c>
-      <c r="D76" t="s" s="6">
+      <c r="D76" s="7">
+        <v>2500</v>
+      </c>
+      <c r="E76" t="s" s="6">
         <v>209</v>
       </c>
-      <c r="E76" s="7">
-        <v>21200</v>
-      </c>
-      <c r="F76" s="9"/>
+      <c r="F76" s="7"/>
     </row>
     <row r="77" ht="17" customHeight="1">
       <c r="A77" t="s" s="5">
@@ -4106,13 +3910,13 @@
       <c r="C77" t="s" s="6">
         <v>211</v>
       </c>
-      <c r="D77" t="s" s="6">
+      <c r="D77" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E77" t="s" s="6">
         <v>212</v>
       </c>
-      <c r="E77" s="7">
-        <v>42400</v>
-      </c>
-      <c r="F77" s="9"/>
+      <c r="F77" s="7"/>
     </row>
     <row r="78" ht="17" customHeight="1">
       <c r="A78" t="s" s="5">
@@ -4124,13 +3928,13 @@
       <c r="C78" t="s" s="6">
         <v>214</v>
       </c>
-      <c r="D78" t="s" s="6">
+      <c r="D78" s="7">
+        <v>7500</v>
+      </c>
+      <c r="E78" t="s" s="6">
         <v>215</v>
       </c>
-      <c r="E78" s="7">
-        <v>84800</v>
-      </c>
-      <c r="F78" s="9"/>
+      <c r="F78" s="7"/>
     </row>
     <row r="79" ht="17" customHeight="1">
       <c r="A79" t="s" s="5">
@@ -4142,13 +3946,13 @@
       <c r="C79" t="s" s="6">
         <v>217</v>
       </c>
-      <c r="D79" t="s" s="6">
+      <c r="D79" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E79" t="s" s="6">
         <v>218</v>
       </c>
-      <c r="E79" s="7">
-        <v>42400</v>
-      </c>
-      <c r="F79" s="9"/>
+      <c r="F79" s="7"/>
     </row>
     <row r="80" ht="17" customHeight="1">
       <c r="A80" t="s" s="5">
@@ -4160,16 +3964,16 @@
       <c r="C80" t="s" s="6">
         <v>220</v>
       </c>
-      <c r="D80" t="s" s="6">
+      <c r="D80" s="7">
+        <v>66169.98</v>
+      </c>
+      <c r="E80" t="s" s="6">
         <v>221</v>
       </c>
-      <c r="E80" s="7">
-        <v>84800</v>
-      </c>
-      <c r="F80" s="9"/>
+      <c r="F80" s="7"/>
     </row>
     <row r="81" ht="17" customHeight="1">
-      <c r="A81" t="s" s="10">
+      <c r="A81" t="s" s="8">
         <v>6</v>
       </c>
       <c r="B81" t="s" s="6">
@@ -4178,13 +3982,13 @@
       <c r="C81" t="s" s="6">
         <v>220</v>
       </c>
-      <c r="D81" t="s" s="6">
+      <c r="D81" s="7">
+        <v>2500</v>
+      </c>
+      <c r="E81" t="s" s="6">
         <v>223</v>
       </c>
-      <c r="E81" s="7">
-        <v>25400</v>
-      </c>
-      <c r="F81" s="9"/>
+      <c r="F81" s="7"/>
     </row>
     <row r="82" ht="17" customHeight="1">
       <c r="A82" t="s" s="5">
@@ -4196,13 +4000,13 @@
       <c r="C82" t="s" s="6">
         <v>225</v>
       </c>
-      <c r="D82" t="s" s="6">
+      <c r="D82" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E82" t="s" s="6">
         <v>226</v>
       </c>
-      <c r="E82" s="7">
-        <v>63600</v>
-      </c>
-      <c r="F82" s="9"/>
+      <c r="F82" s="7"/>
     </row>
     <row r="83" ht="17" customHeight="1">
       <c r="A83" t="s" s="5">
@@ -4214,13 +4018,13 @@
       <c r="C83" t="s" s="6">
         <v>228</v>
       </c>
-      <c r="D83" t="s" s="6">
+      <c r="D83" s="7">
+        <v>33080.02</v>
+      </c>
+      <c r="E83" t="s" s="6">
         <v>229</v>
       </c>
-      <c r="E83" s="7">
-        <v>7500</v>
-      </c>
-      <c r="F83" s="9"/>
+      <c r="F83" s="7"/>
     </row>
     <row r="84" ht="17" customHeight="1">
       <c r="A84" t="s" s="5">
@@ -4232,13 +4036,13 @@
       <c r="C84" t="s" s="6">
         <v>225</v>
       </c>
-      <c r="D84" t="s" s="6">
+      <c r="D84" s="7">
+        <v>2000</v>
+      </c>
+      <c r="E84" t="s" s="6">
         <v>231</v>
       </c>
-      <c r="E84" s="7">
-        <v>42400</v>
-      </c>
-      <c r="F84" s="9"/>
+      <c r="F84" s="7"/>
     </row>
     <row r="85" ht="17" customHeight="1">
       <c r="A85" t="s" s="5">
@@ -4250,16 +4054,16 @@
       <c r="C85" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D85" t="s" s="6">
+      <c r="D85" s="7">
+        <v>3750</v>
+      </c>
+      <c r="E85" t="s" s="6">
         <v>232</v>
       </c>
-      <c r="E85" s="7">
-        <v>42400</v>
-      </c>
-      <c r="F85" s="9"/>
+      <c r="F85" s="7"/>
     </row>
     <row r="86" ht="17" customHeight="1">
-      <c r="A86" t="s" s="10">
+      <c r="A86" t="s" s="8">
         <v>6</v>
       </c>
       <c r="B86" t="s" s="6">
@@ -4268,13 +4072,13 @@
       <c r="C86" t="s" s="6">
         <v>234</v>
       </c>
-      <c r="D86" t="s" s="12">
+      <c r="D86" s="7">
+        <v>7500</v>
+      </c>
+      <c r="E86" t="s" s="10">
         <v>235</v>
       </c>
-      <c r="E86" s="7">
-        <v>21200</v>
-      </c>
-      <c r="F86" s="9"/>
+      <c r="F86" s="7"/>
     </row>
     <row r="87" ht="17" customHeight="1">
       <c r="A87" t="s" s="5">
@@ -4286,13 +4090,13 @@
       <c r="C87" t="s" s="6">
         <v>237</v>
       </c>
-      <c r="D87" t="s" s="6">
+      <c r="D87" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E87" t="s" s="6">
         <v>238</v>
       </c>
-      <c r="E87" s="7">
-        <v>100000</v>
-      </c>
-      <c r="F87" s="9"/>
+      <c r="F87" s="7"/>
     </row>
     <row r="88" ht="17" customHeight="1">
       <c r="A88" t="s" s="5">
@@ -4304,13 +4108,13 @@
       <c r="C88" t="s" s="6">
         <v>240</v>
       </c>
-      <c r="D88" t="s" s="6">
+      <c r="D88" s="7">
+        <v>15000</v>
+      </c>
+      <c r="E88" t="s" s="6">
         <v>241</v>
       </c>
-      <c r="E88" s="7">
-        <v>2500</v>
-      </c>
-      <c r="F88" s="9"/>
+      <c r="F88" s="7"/>
     </row>
     <row r="89" ht="17" customHeight="1">
       <c r="A89" t="s" s="5">
@@ -4322,13 +4126,13 @@
       <c r="C89" t="s" s="6">
         <v>243</v>
       </c>
-      <c r="D89" t="s" s="6">
+      <c r="D89" s="7">
+        <v>300000</v>
+      </c>
+      <c r="E89" t="s" s="6">
         <v>244</v>
       </c>
-      <c r="E89" s="7">
-        <v>84800</v>
-      </c>
-      <c r="F89" s="9"/>
+      <c r="F89" s="7"/>
     </row>
     <row r="90" ht="17" customHeight="1">
       <c r="A90" t="s" s="5">
@@ -4340,13 +4144,13 @@
       <c r="C90" t="s" s="6">
         <v>246</v>
       </c>
-      <c r="D90" t="s" s="6">
+      <c r="D90" s="7">
+        <v>7500</v>
+      </c>
+      <c r="E90" t="s" s="6">
         <v>247</v>
       </c>
-      <c r="E90" s="7">
-        <v>300000</v>
-      </c>
-      <c r="F90" s="9"/>
+      <c r="F90" s="7"/>
     </row>
     <row r="91" ht="17" customHeight="1">
       <c r="A91" t="s" s="5">
@@ -4358,13 +4162,13 @@
       <c r="C91" t="s" s="6">
         <v>249</v>
       </c>
-      <c r="D91" t="s" s="6">
+      <c r="D91" s="7">
+        <v>89500</v>
+      </c>
+      <c r="E91" t="s" s="6">
         <v>250</v>
       </c>
-      <c r="E91" s="7">
-        <v>7500</v>
-      </c>
-      <c r="F91" s="9"/>
+      <c r="F91" s="7"/>
     </row>
     <row r="92" ht="17" customHeight="1">
       <c r="A92" t="s" s="5">
@@ -4376,13 +4180,13 @@
       <c r="C92" t="s" s="6">
         <v>252</v>
       </c>
-      <c r="D92" t="s" s="6">
+      <c r="D92" s="7">
+        <v>76150</v>
+      </c>
+      <c r="E92" t="s" s="6">
         <v>253</v>
       </c>
-      <c r="E92" s="7">
-        <v>89500</v>
-      </c>
-      <c r="F92" s="9"/>
+      <c r="F92" s="7"/>
     </row>
     <row r="93" ht="17" customHeight="1">
       <c r="A93" t="s" s="5">
@@ -4394,13 +4198,13 @@
       <c r="C93" t="s" s="6">
         <v>252</v>
       </c>
-      <c r="D93" t="s" s="6">
+      <c r="D93" s="7">
+        <v>76150</v>
+      </c>
+      <c r="E93" t="s" s="6">
         <v>254</v>
       </c>
-      <c r="E93" s="7">
-        <v>76150</v>
-      </c>
-      <c r="F93" s="9"/>
+      <c r="F93" s="7"/>
     </row>
     <row r="94" ht="17" customHeight="1">
       <c r="A94" t="s" s="5">
@@ -4412,13 +4216,13 @@
       <c r="C94" t="s" s="6">
         <v>252</v>
       </c>
-      <c r="D94" t="s" s="6">
+      <c r="D94" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E94" t="s" s="6">
         <v>255</v>
       </c>
-      <c r="E94" s="7">
-        <v>76150</v>
-      </c>
-      <c r="F94" s="9"/>
+      <c r="F94" s="7"/>
     </row>
     <row r="95" ht="17" customHeight="1">
       <c r="A95" t="s" s="5">
@@ -4430,13 +4234,13 @@
       <c r="C95" t="s" s="6">
         <v>69</v>
       </c>
-      <c r="D95" t="s" s="6">
+      <c r="D95" s="7">
+        <v>20000</v>
+      </c>
+      <c r="E95" t="s" s="6">
         <v>257</v>
       </c>
-      <c r="E95" s="7">
-        <v>200000</v>
-      </c>
-      <c r="F95" s="9"/>
+      <c r="F95" s="7"/>
     </row>
     <row r="96" ht="17" customHeight="1">
       <c r="A96" t="s" s="5">
@@ -4448,13 +4252,13 @@
       <c r="C96" t="s" s="6">
         <v>69</v>
       </c>
-      <c r="D96" t="s" s="6">
+      <c r="D96" s="7">
+        <v>20000</v>
+      </c>
+      <c r="E96" t="s" s="6">
         <v>258</v>
       </c>
-      <c r="E96" s="7">
-        <v>20000</v>
-      </c>
-      <c r="F96" s="9"/>
+      <c r="F96" s="7"/>
     </row>
     <row r="97" ht="17" customHeight="1">
       <c r="A97" t="s" s="5">
@@ -4466,13 +4270,13 @@
       <c r="C97" t="s" s="6">
         <v>69</v>
       </c>
-      <c r="D97" t="s" s="6">
+      <c r="D97" s="7">
+        <v>20000</v>
+      </c>
+      <c r="E97" t="s" s="6">
         <v>259</v>
       </c>
-      <c r="E97" s="7">
-        <v>20000</v>
-      </c>
-      <c r="F97" s="9"/>
+      <c r="F97" s="7"/>
     </row>
     <row r="98" ht="17" customHeight="1">
       <c r="A98" t="s" s="5">
@@ -4484,13 +4288,13 @@
       <c r="C98" t="s" s="6">
         <v>69</v>
       </c>
-      <c r="D98" t="s" s="6">
+      <c r="D98" s="7">
+        <v>22900</v>
+      </c>
+      <c r="E98" t="s" s="6">
         <v>260</v>
       </c>
-      <c r="E98" s="7">
-        <v>20000</v>
-      </c>
-      <c r="F98" s="9"/>
+      <c r="F98" s="7"/>
     </row>
     <row r="99" ht="17" customHeight="1">
       <c r="A99" t="s" s="5">
@@ -4502,13 +4306,13 @@
       <c r="C99" t="s" s="6">
         <v>262</v>
       </c>
-      <c r="D99" t="s" s="6">
+      <c r="D99" s="7">
+        <v>84800</v>
+      </c>
+      <c r="E99" t="s" s="6">
         <v>263</v>
       </c>
-      <c r="E99" s="7">
-        <v>22900</v>
-      </c>
-      <c r="F99" s="9"/>
+      <c r="F99" s="7"/>
     </row>
     <row r="100" ht="17" customHeight="1">
       <c r="A100" t="s" s="5">
@@ -4520,13 +4324,13 @@
       <c r="C100" t="s" s="6">
         <v>264</v>
       </c>
-      <c r="D100" t="s" s="6">
+      <c r="D100" s="7">
+        <v>19100</v>
+      </c>
+      <c r="E100" t="s" s="6">
         <v>265</v>
       </c>
-      <c r="E100" s="7">
-        <v>84800</v>
-      </c>
-      <c r="F100" s="9"/>
+      <c r="F100" s="7"/>
     </row>
     <row r="101" ht="17" customHeight="1">
       <c r="A101" t="s" s="5">
@@ -4538,13 +4342,13 @@
       <c r="C101" t="s" s="6">
         <v>42</v>
       </c>
-      <c r="D101" t="s" s="6">
+      <c r="D101" s="7">
+        <v>500000</v>
+      </c>
+      <c r="E101" t="s" s="6">
         <v>267</v>
       </c>
-      <c r="E101" s="7">
-        <v>19100</v>
-      </c>
-      <c r="F101" s="9"/>
+      <c r="F101" s="7"/>
     </row>
     <row r="102" ht="17" customHeight="1">
       <c r="A102" t="s" s="5">
@@ -4556,13 +4360,13 @@
       <c r="C102" t="s" s="6">
         <v>243</v>
       </c>
-      <c r="D102" t="s" s="6">
+      <c r="D102" s="7">
+        <v>21200</v>
+      </c>
+      <c r="E102" t="s" s="6">
         <v>269</v>
       </c>
-      <c r="E102" s="7">
-        <v>500000</v>
-      </c>
-      <c r="F102" s="9"/>
+      <c r="F102" s="7"/>
     </row>
     <row r="103" ht="17" customHeight="1">
       <c r="A103" t="s" s="5">
@@ -4574,13 +4378,13 @@
       <c r="C103" t="s" s="6">
         <v>271</v>
       </c>
-      <c r="D103" t="s" s="6">
+      <c r="D103" s="7">
+        <v>100000</v>
+      </c>
+      <c r="E103" t="s" s="6">
         <v>272</v>
       </c>
-      <c r="E103" s="7">
-        <v>21200</v>
-      </c>
-      <c r="F103" s="9"/>
+      <c r="F103" s="7"/>
     </row>
     <row r="104" ht="17" customHeight="1">
       <c r="A104" t="s" s="5">
@@ -4592,13 +4396,13 @@
       <c r="C104" t="s" s="6">
         <v>273</v>
       </c>
-      <c r="D104" t="s" s="6">
+      <c r="D104" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E104" t="s" s="6">
         <v>274</v>
       </c>
-      <c r="E104" s="7">
-        <v>100000</v>
-      </c>
-      <c r="F104" s="9"/>
+      <c r="F104" s="7"/>
     </row>
     <row r="105" ht="17" customHeight="1">
       <c r="A105" t="s" s="5">
@@ -4610,13 +4414,13 @@
       <c r="C105" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="D105" t="s" s="6">
+      <c r="D105" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E105" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="E105" s="7">
-        <v>42300</v>
-      </c>
-      <c r="F105" s="9"/>
+      <c r="F105" s="7"/>
     </row>
     <row r="106" ht="17" customHeight="1">
       <c r="A106" t="s" s="5">
@@ -4628,13 +4432,13 @@
       <c r="C106" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D106" t="s" s="6">
+      <c r="D106" s="7">
+        <v>63500</v>
+      </c>
+      <c r="E106" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="E106" s="7">
-        <v>42300</v>
-      </c>
-      <c r="F106" s="9"/>
+      <c r="F106" s="7"/>
     </row>
     <row r="107" ht="17" customHeight="1">
       <c r="A107" t="s" s="5">
@@ -4646,13 +4450,13 @@
       <c r="C107" t="s" s="6">
         <v>278</v>
       </c>
-      <c r="D107" t="s" s="6">
+      <c r="D107" s="7">
+        <v>29600</v>
+      </c>
+      <c r="E107" t="s" s="6">
         <v>279</v>
       </c>
-      <c r="E107" s="7">
-        <v>63500</v>
-      </c>
-      <c r="F107" s="9"/>
+      <c r="F107" s="7"/>
     </row>
     <row r="108" ht="17" customHeight="1">
       <c r="A108" t="s" s="5">
@@ -4664,13 +4468,13 @@
       <c r="C108" t="s" s="6">
         <v>90</v>
       </c>
-      <c r="D108" t="s" s="6">
+      <c r="D108" s="7">
+        <v>2500</v>
+      </c>
+      <c r="E108" t="s" s="6">
         <v>281</v>
       </c>
-      <c r="E108" s="7">
-        <v>29600</v>
-      </c>
-      <c r="F108" s="9"/>
+      <c r="F108" s="7"/>
     </row>
     <row r="109" ht="17" customHeight="1">
       <c r="A109" t="s" s="5">
@@ -4682,13 +4486,13 @@
       <c r="C109" t="s" s="6">
         <v>283</v>
       </c>
-      <c r="D109" t="s" s="6">
+      <c r="D109" s="7">
+        <v>63500</v>
+      </c>
+      <c r="E109" t="s" s="6">
         <v>284</v>
       </c>
-      <c r="E109" s="7">
-        <v>2500</v>
-      </c>
-      <c r="F109" s="9"/>
+      <c r="F109" s="7"/>
     </row>
     <row r="110" ht="17" customHeight="1">
       <c r="A110" t="s" s="5">
@@ -4700,13 +4504,13 @@
       <c r="C110" t="s" s="6">
         <v>33</v>
       </c>
-      <c r="D110" t="s" s="6">
+      <c r="D110" s="7">
+        <v>25000</v>
+      </c>
+      <c r="E110" t="s" s="6">
         <v>34</v>
       </c>
-      <c r="E110" s="7">
-        <v>63500</v>
-      </c>
-      <c r="F110" s="9"/>
+      <c r="F110" s="7"/>
     </row>
     <row r="111" ht="17" customHeight="1">
       <c r="A111" t="s" s="5">
@@ -4718,13 +4522,13 @@
       <c r="C111" t="s" s="6">
         <v>25</v>
       </c>
-      <c r="D111" t="s" s="6">
+      <c r="D111" s="7">
+        <v>16900</v>
+      </c>
+      <c r="E111" t="s" s="6">
         <v>286</v>
       </c>
-      <c r="E111" s="7">
-        <v>25000</v>
-      </c>
-      <c r="F111" s="9"/>
+      <c r="F111" s="7"/>
     </row>
     <row r="112" ht="17" customHeight="1">
       <c r="A112" t="s" s="5">
@@ -4736,13 +4540,13 @@
       <c r="C112" t="s" s="6">
         <v>288</v>
       </c>
-      <c r="D112" t="s" s="6">
+      <c r="D112" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E112" t="s" s="6">
         <v>289</v>
       </c>
-      <c r="E112" s="7">
-        <v>16900</v>
-      </c>
-      <c r="F112" s="9"/>
+      <c r="F112" s="7"/>
     </row>
     <row r="113" ht="17" customHeight="1">
       <c r="A113" t="s" s="5">
@@ -4754,13 +4558,13 @@
       <c r="C113" t="s" s="6">
         <v>72</v>
       </c>
-      <c r="D113" t="s" s="6">
+      <c r="D113" s="7">
+        <v>25400</v>
+      </c>
+      <c r="E113" t="s" s="6">
         <v>73</v>
       </c>
-      <c r="E113" s="7">
-        <v>42300</v>
-      </c>
-      <c r="F113" s="9"/>
+      <c r="F113" s="7"/>
     </row>
     <row r="114" ht="17" customHeight="1">
       <c r="A114" t="s" s="5">
@@ -4772,13 +4576,13 @@
       <c r="C114" t="s" s="6">
         <v>220</v>
       </c>
-      <c r="D114" t="s" s="6">
+      <c r="D114" s="7">
+        <v>100000</v>
+      </c>
+      <c r="E114" t="s" s="6">
         <v>292</v>
       </c>
-      <c r="E114" s="7">
-        <v>25400</v>
-      </c>
-      <c r="F114" s="9"/>
+      <c r="F114" s="7"/>
     </row>
     <row r="115" ht="17" customHeight="1">
       <c r="A115" t="s" s="5">
@@ -4790,13 +4594,13 @@
       <c r="C115" t="s" s="6">
         <v>294</v>
       </c>
-      <c r="D115" t="s" s="6">
+      <c r="D115" s="7">
+        <v>75000</v>
+      </c>
+      <c r="E115" t="s" s="6">
         <v>295</v>
       </c>
-      <c r="E115" s="7">
-        <v>100000</v>
-      </c>
-      <c r="F115" s="9"/>
+      <c r="F115" s="7"/>
     </row>
     <row r="116" ht="17" customHeight="1">
       <c r="A116" t="s" s="5">
@@ -4808,13 +4612,13 @@
       <c r="C116" t="s" s="6">
         <v>294</v>
       </c>
-      <c r="D116" t="s" s="6">
+      <c r="D116" s="7">
+        <v>75000</v>
+      </c>
+      <c r="E116" t="s" s="6">
         <v>297</v>
       </c>
-      <c r="E116" s="7">
-        <v>75000</v>
-      </c>
-      <c r="F116" s="9"/>
+      <c r="F116" s="7"/>
     </row>
     <row r="117" ht="17" customHeight="1">
       <c r="A117" t="s" s="5">
@@ -4826,13 +4630,13 @@
       <c r="C117" t="s" s="6">
         <v>294</v>
       </c>
-      <c r="D117" t="s" s="6">
+      <c r="D117" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E117" t="s" s="6">
         <v>298</v>
       </c>
-      <c r="E117" s="7">
-        <v>75000</v>
-      </c>
-      <c r="F117" s="9"/>
+      <c r="F117" s="7"/>
     </row>
     <row r="118" ht="17" customHeight="1">
       <c r="A118" t="s" s="5">
@@ -4844,13 +4648,13 @@
       <c r="C118" t="s" s="6">
         <v>48</v>
       </c>
-      <c r="D118" t="s" s="6">
+      <c r="D118" s="7">
+        <v>7500</v>
+      </c>
+      <c r="E118" t="s" s="6">
         <v>300</v>
       </c>
-      <c r="E118" s="7">
-        <v>42300</v>
-      </c>
-      <c r="F118" s="9"/>
+      <c r="F118" s="7"/>
     </row>
     <row r="119" ht="17" customHeight="1">
       <c r="A119" t="s" s="5">
@@ -4862,13 +4666,13 @@
       <c r="C119" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D119" t="s" s="6">
+      <c r="D119" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E119" t="s" s="6">
         <v>108</v>
       </c>
-      <c r="E119" s="7">
-        <v>7500</v>
-      </c>
-      <c r="F119" s="9"/>
+      <c r="F119" s="7"/>
     </row>
     <row r="120" ht="17" customHeight="1">
       <c r="A120" t="s" s="5">
@@ -4880,13 +4684,13 @@
       <c r="C120" t="s" s="6">
         <v>301</v>
       </c>
-      <c r="D120" t="s" s="6">
+      <c r="D120" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E120" t="s" s="6">
         <v>111</v>
       </c>
-      <c r="E120" s="7">
-        <v>5000</v>
-      </c>
-      <c r="F120" s="9"/>
+      <c r="F120" s="7"/>
     </row>
     <row r="121" ht="17" customHeight="1">
       <c r="A121" t="s" s="5">
@@ -4898,13 +4702,13 @@
       <c r="C121" t="s" s="6">
         <v>116</v>
       </c>
-      <c r="D121" t="s" s="6">
+      <c r="D121" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E121" t="s" s="6">
         <v>302</v>
       </c>
-      <c r="E121" s="7">
-        <v>200000</v>
-      </c>
-      <c r="F121" s="9"/>
+      <c r="F121" s="7"/>
     </row>
     <row r="122" ht="17" customHeight="1">
       <c r="A122" t="s" s="5">
@@ -4916,13 +4720,13 @@
       <c r="C122" t="s" s="6">
         <v>118</v>
       </c>
-      <c r="D122" t="s" s="6">
+      <c r="D122" s="7">
+        <v>8500</v>
+      </c>
+      <c r="E122" t="s" s="6">
         <v>119</v>
       </c>
-      <c r="E122" s="7">
-        <v>200000</v>
-      </c>
-      <c r="F122" s="9"/>
+      <c r="F122" s="7"/>
     </row>
     <row r="123" ht="17" customHeight="1">
       <c r="A123" t="s" s="5">
@@ -4934,13 +4738,13 @@
       <c r="C123" t="s" s="6">
         <v>304</v>
       </c>
-      <c r="D123" t="s" s="6">
+      <c r="D123" s="7">
+        <v>59536.31</v>
+      </c>
+      <c r="E123" t="s" s="6">
         <v>305</v>
       </c>
-      <c r="E123" s="7">
-        <v>8500</v>
-      </c>
-      <c r="F123" s="9"/>
+      <c r="F123" s="7"/>
     </row>
     <row r="124" ht="17" customHeight="1">
       <c r="A124" t="s" s="5">
@@ -4952,13 +4756,13 @@
       <c r="C124" t="s" s="6">
         <v>200</v>
       </c>
-      <c r="D124" t="s" s="6">
+      <c r="D124" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E124" t="s" s="6">
         <v>307</v>
       </c>
-      <c r="E124" s="7">
-        <v>59536.31</v>
-      </c>
-      <c r="F124" s="9"/>
+      <c r="F124" s="7"/>
     </row>
     <row r="125" ht="17" customHeight="1">
       <c r="A125" t="s" s="5">
@@ -4970,13 +4774,13 @@
       <c r="C125" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="D125" t="s" s="6">
+      <c r="D125" s="7">
+        <v>21200</v>
+      </c>
+      <c r="E125" t="s" s="6">
         <v>138</v>
       </c>
-      <c r="E125" s="7">
-        <v>42300</v>
-      </c>
-      <c r="F125" s="9"/>
+      <c r="F125" s="7"/>
     </row>
     <row r="126" ht="17" customHeight="1">
       <c r="A126" t="s" s="5">
@@ -4988,13 +4792,13 @@
       <c r="C126" t="s" s="6">
         <v>309</v>
       </c>
-      <c r="D126" t="s" s="6">
+      <c r="D126" s="7">
+        <v>21200</v>
+      </c>
+      <c r="E126" t="s" s="6">
         <v>310</v>
       </c>
-      <c r="E126" s="7">
-        <v>21200</v>
-      </c>
-      <c r="F126" s="9"/>
+      <c r="F126" s="7"/>
     </row>
     <row r="127" ht="17" customHeight="1">
       <c r="A127" t="s" s="5">
@@ -5006,13 +4810,13 @@
       <c r="C127" t="s" s="6">
         <v>200</v>
       </c>
-      <c r="D127" t="s" s="6">
+      <c r="D127" s="7">
+        <v>2500</v>
+      </c>
+      <c r="E127" t="s" s="6">
         <v>312</v>
       </c>
-      <c r="E127" s="7">
-        <v>21200</v>
-      </c>
-      <c r="F127" s="9"/>
+      <c r="F127" s="7"/>
     </row>
     <row r="128" ht="17" customHeight="1">
       <c r="A128" t="s" s="5">
@@ -5024,13 +4828,13 @@
       <c r="C128" t="s" s="6">
         <v>146</v>
       </c>
-      <c r="D128" t="s" s="6">
+      <c r="D128" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E128" t="s" s="6">
         <v>147</v>
       </c>
-      <c r="E128" s="7">
-        <v>2500</v>
-      </c>
-      <c r="F128" s="9"/>
+      <c r="F128" s="7"/>
     </row>
     <row r="129" ht="17" customHeight="1">
       <c r="A129" t="s" s="5">
@@ -5042,13 +4846,13 @@
       <c r="C129" t="s" s="6">
         <v>142</v>
       </c>
-      <c r="D129" t="s" s="6">
+      <c r="D129" s="7">
+        <v>33900</v>
+      </c>
+      <c r="E129" t="s" s="6">
         <v>315</v>
       </c>
-      <c r="E129" s="7">
-        <v>42300</v>
-      </c>
-      <c r="F129" s="9"/>
+      <c r="F129" s="7"/>
     </row>
     <row r="130" ht="17" customHeight="1">
       <c r="A130" t="s" s="5">
@@ -5060,13 +4864,13 @@
       <c r="C130" t="s" s="6">
         <v>42</v>
       </c>
-      <c r="D130" t="s" s="6">
+      <c r="D130" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E130" t="s" s="6">
         <v>317</v>
       </c>
-      <c r="E130" s="7">
-        <v>33900</v>
-      </c>
-      <c r="F130" s="9"/>
+      <c r="F130" s="7"/>
     </row>
     <row r="131" ht="17" customHeight="1">
       <c r="A131" t="s" s="5">
@@ -5078,13 +4882,13 @@
       <c r="C131" t="s" s="6">
         <v>319</v>
       </c>
-      <c r="D131" t="s" s="6">
+      <c r="D131" s="7">
+        <v>29763.69</v>
+      </c>
+      <c r="E131" t="s" s="6">
         <v>320</v>
       </c>
-      <c r="E131" s="7">
-        <v>42300</v>
-      </c>
-      <c r="F131" s="9"/>
+      <c r="F131" s="7"/>
     </row>
     <row r="132" ht="17" customHeight="1">
       <c r="A132" t="s" s="5">
@@ -5096,13 +4900,13 @@
       <c r="C132" t="s" s="6">
         <v>322</v>
       </c>
-      <c r="D132" t="s" s="6">
+      <c r="D132" s="7">
+        <v>211700</v>
+      </c>
+      <c r="E132" t="s" s="6">
         <v>164</v>
       </c>
-      <c r="E132" s="7">
-        <v>29763.69</v>
-      </c>
-      <c r="F132" s="9"/>
+      <c r="F132" s="7"/>
     </row>
     <row r="133" ht="17" customHeight="1">
       <c r="A133" t="s" s="5">
@@ -5114,13 +4918,13 @@
       <c r="C133" t="s" s="6">
         <v>324</v>
       </c>
-      <c r="D133" t="s" s="6">
+      <c r="D133" s="7">
+        <v>70000</v>
+      </c>
+      <c r="E133" t="s" s="6">
         <v>325</v>
       </c>
-      <c r="E133" s="7">
-        <v>211700</v>
-      </c>
-      <c r="F133" s="9"/>
+      <c r="F133" s="7"/>
     </row>
     <row r="134" ht="17" customHeight="1">
       <c r="A134" t="s" s="5">
@@ -5132,13 +4936,13 @@
       <c r="C134" t="s" s="6">
         <v>151</v>
       </c>
-      <c r="D134" t="s" s="6">
+      <c r="D134" s="7">
+        <v>8500</v>
+      </c>
+      <c r="E134" t="s" s="6">
         <v>170</v>
       </c>
-      <c r="E134" s="7">
-        <v>70000</v>
-      </c>
-      <c r="F134" s="9"/>
+      <c r="F134" s="7"/>
     </row>
     <row r="135" ht="17" customHeight="1">
       <c r="A135" t="s" s="5">
@@ -5150,13 +4954,13 @@
       <c r="C135" t="s" s="6">
         <v>327</v>
       </c>
-      <c r="D135" t="s" s="6">
+      <c r="D135" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E135" t="s" s="6">
         <v>328</v>
       </c>
-      <c r="E135" s="7">
-        <v>8500</v>
-      </c>
-      <c r="F135" s="9"/>
+      <c r="F135" s="7"/>
     </row>
     <row r="136" ht="17" customHeight="1">
       <c r="A136" t="s" s="5">
@@ -5168,13 +4972,13 @@
       <c r="C136" t="s" s="6">
         <v>330</v>
       </c>
-      <c r="D136" t="s" s="6">
+      <c r="D136" s="7">
+        <v>12700</v>
+      </c>
+      <c r="E136" t="s" s="6">
         <v>179</v>
       </c>
-      <c r="E136" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F136" s="9"/>
+      <c r="F136" s="7"/>
     </row>
     <row r="137" ht="17" customHeight="1">
       <c r="A137" t="s" s="5">
@@ -5186,13 +4990,13 @@
       <c r="C137" t="s" s="6">
         <v>332</v>
       </c>
-      <c r="D137" t="s" s="6">
+      <c r="D137" s="7">
+        <v>21200</v>
+      </c>
+      <c r="E137" t="s" s="6">
         <v>333</v>
       </c>
-      <c r="E137" s="7">
-        <v>12700</v>
-      </c>
-      <c r="F137" s="9"/>
+      <c r="F137" s="7"/>
     </row>
     <row r="138" ht="17" customHeight="1">
       <c r="A138" t="s" s="5">
@@ -5204,13 +5008,13 @@
       <c r="C138" t="s" s="6">
         <v>335</v>
       </c>
-      <c r="D138" t="s" s="6">
+      <c r="D138" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E138" t="s" s="6">
         <v>336</v>
       </c>
-      <c r="E138" s="7">
-        <v>21200</v>
-      </c>
-      <c r="F138" s="9"/>
+      <c r="F138" s="7"/>
     </row>
     <row r="139" ht="17" customHeight="1">
       <c r="A139" t="s" s="5">
@@ -5222,13 +5026,13 @@
       <c r="C139" t="s" s="6">
         <v>103</v>
       </c>
-      <c r="D139" t="s" s="6">
+      <c r="D139" s="7">
+        <v>84700</v>
+      </c>
+      <c r="E139" t="s" s="6">
         <v>182</v>
       </c>
-      <c r="E139" s="7">
-        <v>42300</v>
-      </c>
-      <c r="F139" s="9"/>
+      <c r="F139" s="7"/>
     </row>
     <row r="140" ht="17" customHeight="1">
       <c r="A140" t="s" s="5">
@@ -5240,13 +5044,13 @@
       <c r="C140" t="s" s="6">
         <v>62</v>
       </c>
-      <c r="D140" t="s" s="6">
+      <c r="D140" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E140" t="s" s="6">
         <v>338</v>
       </c>
-      <c r="E140" s="7">
-        <v>84700</v>
-      </c>
-      <c r="F140" s="9"/>
+      <c r="F140" s="7"/>
     </row>
     <row r="141" ht="17" customHeight="1">
       <c r="A141" t="s" s="5">
@@ -5258,13 +5062,13 @@
       <c r="C141" t="s" s="6">
         <v>288</v>
       </c>
-      <c r="D141" t="s" s="6">
+      <c r="D141" s="7">
+        <v>16900</v>
+      </c>
+      <c r="E141" t="s" s="6">
         <v>340</v>
       </c>
-      <c r="E141" s="7">
-        <v>42300</v>
-      </c>
-      <c r="F141" s="9"/>
+      <c r="F141" s="7"/>
     </row>
     <row r="142" ht="17" customHeight="1">
       <c r="A142" t="s" s="5">
@@ -5276,13 +5080,13 @@
       <c r="C142" t="s" s="6">
         <v>192</v>
       </c>
-      <c r="D142" t="s" s="6">
+      <c r="D142" s="7">
+        <v>169400</v>
+      </c>
+      <c r="E142" t="s" s="6">
         <v>193</v>
       </c>
-      <c r="E142" s="7">
-        <v>16900</v>
-      </c>
-      <c r="F142" s="9"/>
+      <c r="F142" s="7"/>
     </row>
     <row r="143" ht="17" customHeight="1">
       <c r="A143" t="s" s="5">
@@ -5294,13 +5098,13 @@
       <c r="C143" t="s" s="6">
         <v>195</v>
       </c>
-      <c r="D143" t="s" s="6">
+      <c r="D143" s="7">
+        <v>84700</v>
+      </c>
+      <c r="E143" t="s" s="6">
         <v>196</v>
       </c>
-      <c r="E143" s="7">
-        <v>169400</v>
-      </c>
-      <c r="F143" s="9"/>
+      <c r="F143" s="7"/>
     </row>
     <row r="144" ht="17" customHeight="1">
       <c r="A144" t="s" s="5">
@@ -5312,13 +5116,13 @@
       <c r="C144" t="s" s="6">
         <v>342</v>
       </c>
-      <c r="D144" t="s" s="6">
+      <c r="D144" s="7">
+        <v>29600</v>
+      </c>
+      <c r="E144" t="s" s="6">
         <v>343</v>
       </c>
-      <c r="E144" s="7">
-        <v>84700</v>
-      </c>
-      <c r="F144" s="9"/>
+      <c r="F144" s="7"/>
     </row>
     <row r="145" ht="17" customHeight="1">
       <c r="A145" t="s" s="5">
@@ -5330,13 +5134,13 @@
       <c r="C145" t="s" s="6">
         <v>48</v>
       </c>
-      <c r="D145" t="s" s="6">
+      <c r="D145" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E145" t="s" s="6">
         <v>209</v>
       </c>
-      <c r="E145" s="7">
-        <v>29600</v>
-      </c>
-      <c r="F145" s="9"/>
+      <c r="F145" s="7"/>
     </row>
     <row r="146" ht="17" customHeight="1">
       <c r="A146" t="s" s="5">
@@ -5348,13 +5152,13 @@
       <c r="C146" t="s" s="6">
         <v>345</v>
       </c>
-      <c r="D146" t="s" s="6">
+      <c r="D146" s="7">
+        <v>21200</v>
+      </c>
+      <c r="E146" t="s" s="6">
         <v>346</v>
       </c>
-      <c r="E146" s="7">
-        <v>42300</v>
-      </c>
-      <c r="F146" s="9"/>
+      <c r="F146" s="7"/>
     </row>
     <row r="147" ht="17" customHeight="1">
       <c r="A147" t="s" s="5">
@@ -5366,13 +5170,13 @@
       <c r="C147" t="s" s="6">
         <v>348</v>
       </c>
-      <c r="D147" t="s" s="6">
+      <c r="D147" s="7">
+        <v>84700</v>
+      </c>
+      <c r="E147" t="s" s="6">
         <v>349</v>
       </c>
-      <c r="E147" s="7">
-        <v>21200</v>
-      </c>
-      <c r="F147" s="9"/>
+      <c r="F147" s="7"/>
     </row>
     <row r="148" ht="17" customHeight="1">
       <c r="A148" t="s" s="5">
@@ -5384,13 +5188,13 @@
       <c r="C148" t="s" s="6">
         <v>351</v>
       </c>
-      <c r="D148" t="s" s="6">
+      <c r="D148" s="7">
+        <v>220000</v>
+      </c>
+      <c r="E148" t="s" s="6">
         <v>352</v>
       </c>
-      <c r="E148" s="7">
-        <v>84700</v>
-      </c>
-      <c r="F148" s="9"/>
+      <c r="F148" s="7"/>
     </row>
     <row r="149" ht="17" customHeight="1">
       <c r="A149" t="s" s="5">
@@ -5402,13 +5206,13 @@
       <c r="C149" t="s" s="6">
         <v>62</v>
       </c>
-      <c r="D149" t="s" s="6">
+      <c r="D149" s="7">
+        <v>42300</v>
+      </c>
+      <c r="E149" t="s" s="6">
         <v>354</v>
       </c>
-      <c r="E149" s="7">
-        <v>220000</v>
-      </c>
-      <c r="F149" s="9"/>
+      <c r="F149" s="7"/>
     </row>
     <row r="150" ht="17" customHeight="1">
       <c r="A150" t="s" s="5">
@@ -5420,13 +5224,13 @@
       <c r="C150" t="s" s="6">
         <v>355</v>
       </c>
-      <c r="D150" t="s" s="6">
+      <c r="D150" s="7">
+        <v>7500</v>
+      </c>
+      <c r="E150" t="s" s="6">
         <v>356</v>
       </c>
-      <c r="E150" s="7">
-        <v>42300</v>
-      </c>
-      <c r="F150" s="9"/>
+      <c r="F150" s="7"/>
     </row>
     <row r="151" ht="17" customHeight="1">
       <c r="A151" t="s" s="5">
@@ -5438,13 +5242,13 @@
       <c r="C151" t="s" s="6">
         <v>228</v>
       </c>
-      <c r="D151" t="s" s="6">
+      <c r="D151" s="7">
+        <v>84700</v>
+      </c>
+      <c r="E151" t="s" s="6">
         <v>358</v>
       </c>
-      <c r="E151" s="7">
-        <v>7500</v>
-      </c>
-      <c r="F151" s="9"/>
+      <c r="F151" s="7"/>
     </row>
     <row r="152" ht="17" customHeight="1">
       <c r="A152" t="s" s="5">
@@ -5456,13 +5260,13 @@
       <c r="C152" t="s" s="6">
         <v>360</v>
       </c>
-      <c r="D152" t="s" s="6">
+      <c r="D152" s="7">
+        <v>84700</v>
+      </c>
+      <c r="E152" t="s" s="6">
         <v>361</v>
       </c>
-      <c r="E152" s="7">
-        <v>84700</v>
-      </c>
-      <c r="F152" s="9"/>
+      <c r="F152" s="7"/>
     </row>
     <row r="153" ht="17" customHeight="1">
       <c r="A153" t="s" s="5">
@@ -5474,13 +5278,13 @@
       <c r="C153" t="s" s="6">
         <v>237</v>
       </c>
-      <c r="D153" t="s" s="6">
+      <c r="D153" s="7">
+        <v>21200</v>
+      </c>
+      <c r="E153" t="s" s="6">
         <v>238</v>
       </c>
-      <c r="E153" s="7">
-        <v>84700</v>
-      </c>
-      <c r="F153" s="9"/>
+      <c r="F153" s="7"/>
     </row>
     <row r="154" ht="17" customHeight="1">
       <c r="A154" t="s" s="5">
@@ -5492,13 +5296,13 @@
       <c r="C154" t="s" s="6">
         <v>363</v>
       </c>
-      <c r="D154" t="s" s="6">
+      <c r="D154" s="7">
+        <v>21200</v>
+      </c>
+      <c r="E154" t="s" s="6">
         <v>364</v>
       </c>
-      <c r="E154" s="7">
-        <v>21200</v>
-      </c>
-      <c r="F154" s="9"/>
+      <c r="F154" s="7"/>
     </row>
     <row r="155" ht="17" customHeight="1">
       <c r="A155" t="s" s="5">
@@ -5510,13 +5314,13 @@
       <c r="C155" t="s" s="6">
         <v>366</v>
       </c>
-      <c r="D155" t="s" s="6">
+      <c r="D155" s="7">
+        <v>2500</v>
+      </c>
+      <c r="E155" t="s" s="6">
         <v>367</v>
       </c>
-      <c r="E155" s="7">
-        <v>21200</v>
-      </c>
-      <c r="F155" s="9"/>
+      <c r="F155" s="7"/>
     </row>
     <row r="156" ht="17" customHeight="1">
       <c r="A156" t="s" s="5">
@@ -5528,13 +5332,13 @@
       <c r="C156" t="s" s="6">
         <v>369</v>
       </c>
-      <c r="D156" t="s" s="6">
+      <c r="D156" s="7">
+        <v>7500</v>
+      </c>
+      <c r="E156" t="s" s="6">
         <v>370</v>
       </c>
-      <c r="E156" s="7">
-        <v>2500</v>
-      </c>
-      <c r="F156" s="9"/>
+      <c r="F156" s="7"/>
     </row>
     <row r="157" ht="17" customHeight="1">
       <c r="A157" t="s" s="5">
@@ -5546,13 +5350,13 @@
       <c r="C157" t="s" s="6">
         <v>249</v>
       </c>
-      <c r="D157" t="s" s="6">
+      <c r="D157" s="7">
+        <v>29600</v>
+      </c>
+      <c r="E157" t="s" s="6">
         <v>250</v>
       </c>
-      <c r="E157" s="7">
-        <v>7500</v>
-      </c>
-      <c r="F157" s="9"/>
+      <c r="F157" s="7"/>
     </row>
     <row r="158" ht="17" customHeight="1">
       <c r="A158" t="s" s="5">
@@ -5564,16 +5368,16 @@
       <c r="C158" t="s" s="6">
         <v>372</v>
       </c>
-      <c r="D158" t="s" s="6">
+      <c r="D158" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E158" t="s" s="6">
         <v>373</v>
       </c>
-      <c r="E158" s="7">
-        <v>29600</v>
-      </c>
-      <c r="F158" s="9"/>
+      <c r="F158" s="7"/>
     </row>
     <row r="159" ht="17" customHeight="1">
-      <c r="A159" t="s" s="10">
+      <c r="A159" t="s" s="8">
         <v>374</v>
       </c>
       <c r="B159" t="s" s="6">
@@ -5582,16 +5386,16 @@
       <c r="C159" t="s" s="6">
         <v>376</v>
       </c>
-      <c r="D159" t="s" s="6">
+      <c r="D159" s="7">
+        <v>779111</v>
+      </c>
+      <c r="E159" t="s" s="6">
         <v>377</v>
       </c>
-      <c r="E159" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F159" s="9"/>
+      <c r="F159" s="7"/>
     </row>
     <row r="160" ht="17" customHeight="1">
-      <c r="A160" t="s" s="10">
+      <c r="A160" t="s" s="8">
         <v>374</v>
       </c>
       <c r="B160" t="s" s="6">
@@ -5600,16 +5404,16 @@
       <c r="C160" t="s" s="6">
         <v>378</v>
       </c>
-      <c r="D160" t="s" s="6">
+      <c r="D160" s="7">
+        <v>1025779</v>
+      </c>
+      <c r="E160" t="s" s="6">
         <v>379</v>
       </c>
-      <c r="E160" s="7">
-        <v>779111</v>
-      </c>
-      <c r="F160" s="9"/>
+      <c r="F160" s="7"/>
     </row>
     <row r="161" ht="17" customHeight="1">
-      <c r="A161" t="s" s="10">
+      <c r="A161" t="s" s="8">
         <v>374</v>
       </c>
       <c r="B161" t="s" s="6">
@@ -5618,16 +5422,16 @@
       <c r="C161" t="s" s="6">
         <v>378</v>
       </c>
-      <c r="D161" t="s" s="6">
+      <c r="D161" s="7">
+        <v>389555</v>
+      </c>
+      <c r="E161" t="s" s="6">
         <v>380</v>
       </c>
-      <c r="E161" s="7">
-        <v>1025779</v>
-      </c>
-      <c r="F161" s="9"/>
+      <c r="F161" s="7"/>
     </row>
     <row r="162" ht="17" customHeight="1">
-      <c r="A162" t="s" s="10">
+      <c r="A162" t="s" s="8">
         <v>374</v>
       </c>
       <c r="B162" t="s" s="6">
@@ -5636,16 +5440,16 @@
       <c r="C162" t="s" s="6">
         <v>378</v>
       </c>
-      <c r="D162" t="s" s="6">
+      <c r="D162" s="7">
+        <v>389555</v>
+      </c>
+      <c r="E162" t="s" s="6">
         <v>381</v>
       </c>
-      <c r="E162" s="7">
-        <v>389555</v>
-      </c>
-      <c r="F162" s="9"/>
+      <c r="F162" s="7"/>
     </row>
     <row r="163" ht="17" customHeight="1">
-      <c r="A163" t="s" s="10">
+      <c r="A163" t="s" s="8">
         <v>374</v>
       </c>
       <c r="B163" t="s" s="6">
@@ -5654,16 +5458,16 @@
       <c r="C163" t="s" s="6">
         <v>378</v>
       </c>
-      <c r="D163" t="s" s="6">
+      <c r="D163" s="7">
+        <v>2500</v>
+      </c>
+      <c r="E163" t="s" s="6">
         <v>382</v>
       </c>
-      <c r="E163" s="7">
-        <v>389555</v>
-      </c>
-      <c r="F163" s="9"/>
+      <c r="F163" s="7"/>
     </row>
     <row r="164" ht="17" customHeight="1">
-      <c r="A164" t="s" s="10">
+      <c r="A164" t="s" s="8">
         <v>374</v>
       </c>
       <c r="B164" t="s" s="6">
@@ -5672,16 +5476,16 @@
       <c r="C164" t="s" s="6">
         <v>283</v>
       </c>
-      <c r="D164" t="s" s="6">
+      <c r="D164" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E164" t="s" s="6">
         <v>383</v>
       </c>
-      <c r="E164" s="7">
-        <v>2500</v>
-      </c>
-      <c r="F164" s="9"/>
+      <c r="F164" s="7"/>
     </row>
     <row r="165" ht="17" customHeight="1">
-      <c r="A165" t="s" s="10">
+      <c r="A165" t="s" s="8">
         <v>374</v>
       </c>
       <c r="B165" t="s" s="6">
@@ -5690,16 +5494,16 @@
       <c r="C165" t="s" s="6">
         <v>385</v>
       </c>
-      <c r="D165" t="s" s="6">
+      <c r="D165" s="7">
+        <v>7500</v>
+      </c>
+      <c r="E165" t="s" s="6">
         <v>386</v>
       </c>
-      <c r="E165" s="7">
-        <v>200000</v>
-      </c>
-      <c r="F165" s="9"/>
+      <c r="F165" s="7"/>
     </row>
     <row r="166" ht="17" customHeight="1">
-      <c r="A166" t="s" s="10">
+      <c r="A166" t="s" s="8">
         <v>374</v>
       </c>
       <c r="B166" t="s" s="6">
@@ -5708,16 +5512,16 @@
       <c r="C166" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D166" t="s" s="6">
+      <c r="D166" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E166" t="s" s="6">
         <v>108</v>
       </c>
-      <c r="E166" s="7">
-        <v>7500</v>
-      </c>
-      <c r="F166" s="9"/>
+      <c r="F166" s="7"/>
     </row>
     <row r="167" ht="17" customHeight="1">
-      <c r="A167" t="s" s="10">
+      <c r="A167" t="s" s="8">
         <v>374</v>
       </c>
       <c r="B167" t="s" s="6">
@@ -5726,16 +5530,16 @@
       <c r="C167" t="s" s="6">
         <v>110</v>
       </c>
-      <c r="D167" t="s" s="6">
+      <c r="D167" s="7">
+        <v>66169.98</v>
+      </c>
+      <c r="E167" t="s" s="6">
         <v>111</v>
       </c>
-      <c r="E167" s="7">
-        <v>5000</v>
-      </c>
-      <c r="F167" s="9"/>
+      <c r="F167" s="7"/>
     </row>
     <row r="168" ht="17" customHeight="1">
-      <c r="A168" t="s" s="10">
+      <c r="A168" t="s" s="8">
         <v>374</v>
       </c>
       <c r="B168" t="s" s="6">
@@ -5744,16 +5548,16 @@
       <c r="C168" t="s" s="6">
         <v>132</v>
       </c>
-      <c r="D168" t="s" s="6">
+      <c r="D168" s="7">
+        <v>2500</v>
+      </c>
+      <c r="E168" t="s" s="6">
         <v>133</v>
       </c>
-      <c r="E168" s="7">
-        <v>66169.98</v>
-      </c>
-      <c r="F168" s="9"/>
+      <c r="F168" s="7"/>
     </row>
     <row r="169" ht="17" customHeight="1">
-      <c r="A169" t="s" s="10">
+      <c r="A169" t="s" s="8">
         <v>374</v>
       </c>
       <c r="B169" t="s" s="6">
@@ -5762,16 +5566,16 @@
       <c r="C169" t="s" s="6">
         <v>387</v>
       </c>
-      <c r="D169" t="s" s="6">
+      <c r="D169" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E169" t="s" s="6">
         <v>147</v>
       </c>
-      <c r="E169" s="7">
-        <v>2500</v>
-      </c>
-      <c r="F169" s="9"/>
+      <c r="F169" s="7"/>
     </row>
     <row r="170" ht="17" customHeight="1">
-      <c r="A170" t="s" s="10">
+      <c r="A170" t="s" s="8">
         <v>374</v>
       </c>
       <c r="B170" t="s" s="6">
@@ -5780,16 +5584,16 @@
       <c r="C170" t="s" s="6">
         <v>389</v>
       </c>
-      <c r="D170" t="s" s="6">
+      <c r="D170" s="7">
+        <v>33080.02</v>
+      </c>
+      <c r="E170" t="s" s="6">
         <v>390</v>
       </c>
-      <c r="E170" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F170" s="9"/>
+      <c r="F170" s="7"/>
     </row>
     <row r="171" ht="17" customHeight="1">
-      <c r="A171" t="s" s="10">
+      <c r="A171" t="s" s="8">
         <v>374</v>
       </c>
       <c r="B171" t="s" s="6">
@@ -5798,16 +5602,16 @@
       <c r="C171" t="s" s="6">
         <v>391</v>
       </c>
-      <c r="D171" t="s" s="6">
+      <c r="D171" s="7">
+        <v>2000</v>
+      </c>
+      <c r="E171" t="s" s="6">
         <v>392</v>
       </c>
-      <c r="E171" s="7">
-        <v>33080.02</v>
-      </c>
-      <c r="F171" s="9"/>
+      <c r="F171" s="7"/>
     </row>
     <row r="172" ht="17" customHeight="1">
-      <c r="A172" t="s" s="10">
+      <c r="A172" t="s" s="8">
         <v>374</v>
       </c>
       <c r="B172" t="s" s="6">
@@ -5816,16 +5620,16 @@
       <c r="C172" t="s" s="6">
         <v>330</v>
       </c>
-      <c r="D172" t="s" s="6">
+      <c r="D172" s="7">
+        <v>3750</v>
+      </c>
+      <c r="E172" t="s" s="6">
         <v>179</v>
       </c>
-      <c r="E172" s="7">
-        <v>2000</v>
-      </c>
-      <c r="F172" s="9"/>
+      <c r="F172" s="7"/>
     </row>
     <row r="173" ht="17" customHeight="1">
-      <c r="A173" t="s" s="10">
+      <c r="A173" t="s" s="8">
         <v>374</v>
       </c>
       <c r="B173" t="s" s="6">
@@ -5834,16 +5638,16 @@
       <c r="C173" t="s" s="6">
         <v>203</v>
       </c>
-      <c r="D173" t="s" s="6">
+      <c r="D173" s="7">
+        <v>7500</v>
+      </c>
+      <c r="E173" t="s" s="6">
         <v>204</v>
       </c>
-      <c r="E173" s="7">
-        <v>3750</v>
-      </c>
-      <c r="F173" s="9"/>
+      <c r="F173" s="7"/>
     </row>
     <row r="174" ht="17" customHeight="1">
-      <c r="A174" t="s" s="10">
+      <c r="A174" t="s" s="8">
         <v>374</v>
       </c>
       <c r="B174" t="s" s="6">
@@ -5852,16 +5656,16 @@
       <c r="C174" t="s" s="6">
         <v>228</v>
       </c>
-      <c r="D174" t="s" s="6">
+      <c r="D174" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E174" t="s" s="6">
         <v>358</v>
       </c>
-      <c r="E174" s="7">
-        <v>7500</v>
-      </c>
-      <c r="F174" s="9"/>
+      <c r="F174" s="7"/>
     </row>
     <row r="175" ht="17" customHeight="1">
-      <c r="A175" t="s" s="10">
+      <c r="A175" t="s" s="8">
         <v>374</v>
       </c>
       <c r="B175" t="s" s="6">
@@ -5870,16 +5674,16 @@
       <c r="C175" t="s" s="6">
         <v>369</v>
       </c>
-      <c r="D175" t="s" s="6">
+      <c r="D175" s="7">
+        <v>15000</v>
+      </c>
+      <c r="E175" t="s" s="6">
         <v>370</v>
       </c>
-      <c r="E175" s="7">
-        <v>3000</v>
-      </c>
-      <c r="F175" s="9"/>
+      <c r="F175" s="7"/>
     </row>
     <row r="176" ht="17" customHeight="1">
-      <c r="A176" t="s" s="10">
+      <c r="A176" t="s" s="8">
         <v>374</v>
       </c>
       <c r="B176" t="s" s="6">
@@ -5888,309 +5692,309 @@
       <c r="C176" t="s" s="6">
         <v>249</v>
       </c>
-      <c r="D176" t="s" s="6">
+      <c r="D176" s="7">
+        <v>300000</v>
+      </c>
+      <c r="E176" t="s" s="6">
         <v>250</v>
       </c>
-      <c r="E176" s="7">
-        <v>15000</v>
-      </c>
-      <c r="F176" s="9"/>
+      <c r="F176" s="7"/>
     </row>
     <row r="177" ht="17" customHeight="1">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
-      <c r="D177" s="11"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="12"/>
     </row>
     <row r="178" ht="17" customHeight="1">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
-      <c r="D178" s="11"/>
+      <c r="D178" s="9"/>
       <c r="E178" s="6"/>
-      <c r="F178" s="9"/>
+      <c r="F178" s="13"/>
     </row>
     <row r="179" ht="17" customHeight="1">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
-      <c r="D179" s="11"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="13"/>
     </row>
     <row r="180" ht="17" customHeight="1">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
-      <c r="D180" s="11"/>
-      <c r="E180" s="13"/>
-      <c r="F180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="13"/>
     </row>
     <row r="181" ht="17" customHeight="1">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
-      <c r="D181" s="11"/>
-      <c r="E181" s="13"/>
-      <c r="F181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="13"/>
     </row>
     <row r="182" ht="17" customHeight="1">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
-      <c r="D182" s="11"/>
-      <c r="E182" s="13"/>
-      <c r="F182" s="9"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="13"/>
     </row>
     <row r="183" ht="17" customHeight="1">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
-      <c r="D183" s="11"/>
-      <c r="E183" s="13"/>
-      <c r="F183" s="9"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="13"/>
     </row>
     <row r="184" ht="17" customHeight="1">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
-      <c r="D184" s="11"/>
-      <c r="E184" s="13"/>
-      <c r="F184" s="9"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="13"/>
     </row>
     <row r="185" ht="17" customHeight="1">
       <c r="A185" s="14"/>
       <c r="B185" s="15"/>
       <c r="C185" s="15"/>
-      <c r="D185" s="11"/>
+      <c r="D185" s="9"/>
       <c r="E185" s="16"/>
-      <c r="F185" s="9"/>
+      <c r="F185" s="13"/>
     </row>
     <row r="186" ht="17" customHeight="1">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
       <c r="C186" s="15"/>
-      <c r="D186" s="11"/>
+      <c r="D186" s="9"/>
       <c r="E186" s="16"/>
-      <c r="F186" s="9"/>
+      <c r="F186" s="13"/>
     </row>
     <row r="187" ht="17" customHeight="1">
       <c r="A187" s="14"/>
       <c r="B187" s="15"/>
       <c r="C187" s="15"/>
-      <c r="D187" s="11"/>
+      <c r="D187" s="9"/>
       <c r="E187" s="16"/>
-      <c r="F187" s="9"/>
+      <c r="F187" s="13"/>
     </row>
     <row r="188" ht="17" customHeight="1">
       <c r="A188" s="14"/>
       <c r="B188" s="15"/>
       <c r="C188" s="15"/>
-      <c r="D188" s="11"/>
+      <c r="D188" s="9"/>
       <c r="E188" s="16"/>
-      <c r="F188" s="9"/>
+      <c r="F188" s="13"/>
     </row>
     <row r="189" ht="17" customHeight="1">
       <c r="A189" s="14"/>
       <c r="B189" s="15"/>
       <c r="C189" s="15"/>
-      <c r="D189" s="11"/>
+      <c r="D189" s="9"/>
       <c r="E189" s="16"/>
-      <c r="F189" s="9"/>
+      <c r="F189" s="13"/>
     </row>
     <row r="190" ht="17" customHeight="1">
       <c r="A190" s="14"/>
       <c r="B190" s="15"/>
       <c r="C190" s="15"/>
-      <c r="D190" s="11"/>
+      <c r="D190" s="9"/>
       <c r="E190" s="16"/>
-      <c r="F190" s="9"/>
+      <c r="F190" s="13"/>
     </row>
     <row r="191" ht="17" customHeight="1">
       <c r="A191" s="14"/>
       <c r="B191" s="15"/>
       <c r="C191" s="15"/>
-      <c r="D191" s="11"/>
+      <c r="D191" s="9"/>
       <c r="E191" s="16"/>
-      <c r="F191" s="9"/>
+      <c r="F191" s="13"/>
     </row>
     <row r="192" ht="17" customHeight="1">
       <c r="A192" s="14"/>
       <c r="B192" s="15"/>
       <c r="C192" s="15"/>
-      <c r="D192" s="11"/>
+      <c r="D192" s="9"/>
       <c r="E192" s="16"/>
-      <c r="F192" s="9"/>
+      <c r="F192" s="13"/>
     </row>
     <row r="193" ht="17" customHeight="1">
       <c r="A193" s="14"/>
       <c r="B193" s="15"/>
       <c r="C193" s="15"/>
-      <c r="D193" s="11"/>
+      <c r="D193" s="9"/>
       <c r="E193" s="16"/>
-      <c r="F193" s="9"/>
+      <c r="F193" s="13"/>
     </row>
     <row r="194" ht="17" customHeight="1">
       <c r="A194" s="14"/>
       <c r="B194" s="15"/>
       <c r="C194" s="15"/>
-      <c r="D194" s="11"/>
+      <c r="D194" s="9"/>
       <c r="E194" s="16"/>
-      <c r="F194" s="9"/>
+      <c r="F194" s="13"/>
     </row>
     <row r="195" ht="17" customHeight="1">
       <c r="A195" s="14"/>
       <c r="B195" s="15"/>
       <c r="C195" s="15"/>
-      <c r="D195" s="11"/>
+      <c r="D195" s="9"/>
       <c r="E195" s="16"/>
-      <c r="F195" s="9"/>
+      <c r="F195" s="13"/>
     </row>
     <row r="196" ht="17" customHeight="1">
       <c r="A196" s="14"/>
       <c r="B196" s="15"/>
       <c r="C196" s="15"/>
-      <c r="D196" s="11"/>
+      <c r="D196" s="9"/>
       <c r="E196" s="16"/>
-      <c r="F196" s="9"/>
+      <c r="F196" s="13"/>
     </row>
     <row r="197" ht="17" customHeight="1">
       <c r="A197" s="14"/>
       <c r="B197" s="15"/>
       <c r="C197" s="15"/>
-      <c r="D197" s="11"/>
+      <c r="D197" s="9"/>
       <c r="E197" s="16"/>
-      <c r="F197" s="9"/>
+      <c r="F197" s="13"/>
     </row>
     <row r="198" ht="17" customHeight="1">
       <c r="A198" s="14"/>
       <c r="B198" s="15"/>
       <c r="C198" s="15"/>
-      <c r="D198" s="11"/>
+      <c r="D198" s="9"/>
       <c r="E198" s="16"/>
-      <c r="F198" s="9"/>
+      <c r="F198" s="13"/>
     </row>
     <row r="199" ht="17" customHeight="1">
       <c r="A199" s="14"/>
       <c r="B199" s="15"/>
       <c r="C199" s="15"/>
-      <c r="D199" s="11"/>
+      <c r="D199" s="9"/>
       <c r="E199" s="16"/>
-      <c r="F199" s="9"/>
+      <c r="F199" s="13"/>
     </row>
     <row r="200" ht="17" customHeight="1">
       <c r="A200" s="14"/>
       <c r="B200" s="15"/>
       <c r="C200" s="15"/>
-      <c r="D200" s="11"/>
+      <c r="D200" s="9"/>
       <c r="E200" s="16"/>
-      <c r="F200" s="9"/>
+      <c r="F200" s="13"/>
     </row>
     <row r="201" ht="17" customHeight="1">
       <c r="A201" s="14"/>
       <c r="B201" s="15"/>
       <c r="C201" s="15"/>
-      <c r="D201" s="11"/>
+      <c r="D201" s="9"/>
       <c r="E201" s="16"/>
-      <c r="F201" s="9"/>
+      <c r="F201" s="13"/>
     </row>
     <row r="202" ht="17" customHeight="1">
       <c r="A202" s="14"/>
       <c r="B202" s="15"/>
       <c r="C202" s="15"/>
-      <c r="D202" s="11"/>
+      <c r="D202" s="9"/>
       <c r="E202" s="16"/>
-      <c r="F202" s="9"/>
+      <c r="F202" s="13"/>
     </row>
     <row r="203" ht="17" customHeight="1">
       <c r="A203" s="14"/>
       <c r="B203" s="15"/>
       <c r="C203" s="15"/>
-      <c r="D203" s="11"/>
+      <c r="D203" s="9"/>
       <c r="E203" s="16"/>
-      <c r="F203" s="9"/>
+      <c r="F203" s="13"/>
     </row>
     <row r="204" ht="17" customHeight="1">
       <c r="A204" s="14"/>
       <c r="B204" s="15"/>
       <c r="C204" s="15"/>
-      <c r="D204" s="11"/>
+      <c r="D204" s="9"/>
       <c r="E204" s="16"/>
-      <c r="F204" s="9"/>
+      <c r="F204" s="13"/>
     </row>
     <row r="205" ht="17" customHeight="1">
       <c r="A205" s="14"/>
       <c r="B205" s="15"/>
       <c r="C205" s="15"/>
-      <c r="D205" s="11"/>
+      <c r="D205" s="9"/>
       <c r="E205" s="16"/>
-      <c r="F205" s="9"/>
+      <c r="F205" s="13"/>
     </row>
     <row r="206" ht="17" customHeight="1">
       <c r="A206" s="14"/>
       <c r="B206" s="15"/>
       <c r="C206" s="15"/>
-      <c r="D206" s="11"/>
+      <c r="D206" s="9"/>
       <c r="E206" s="16"/>
-      <c r="F206" s="9"/>
+      <c r="F206" s="13"/>
     </row>
     <row r="207" ht="17" customHeight="1">
       <c r="A207" s="14"/>
       <c r="B207" s="15"/>
       <c r="C207" s="15"/>
-      <c r="D207" s="11"/>
+      <c r="D207" s="9"/>
       <c r="E207" s="16"/>
-      <c r="F207" s="9"/>
+      <c r="F207" s="13"/>
     </row>
     <row r="208" ht="17" customHeight="1">
       <c r="A208" s="14"/>
       <c r="B208" s="15"/>
       <c r="C208" s="15"/>
-      <c r="D208" s="11"/>
+      <c r="D208" s="9"/>
       <c r="E208" s="16"/>
-      <c r="F208" s="9"/>
+      <c r="F208" s="13"/>
     </row>
     <row r="209" ht="17" customHeight="1">
       <c r="A209" s="14"/>
       <c r="B209" s="15"/>
       <c r="C209" s="15"/>
-      <c r="D209" s="11"/>
+      <c r="D209" s="9"/>
       <c r="E209" s="16"/>
-      <c r="F209" s="9"/>
+      <c r="F209" s="13"/>
     </row>
     <row r="210" ht="17" customHeight="1">
       <c r="A210" s="14"/>
       <c r="B210" s="15"/>
       <c r="C210" s="15"/>
-      <c r="D210" s="11"/>
+      <c r="D210" s="9"/>
       <c r="E210" s="16"/>
-      <c r="F210" s="9"/>
+      <c r="F210" s="13"/>
     </row>
     <row r="211" ht="17" customHeight="1">
       <c r="A211" s="14"/>
       <c r="B211" s="15"/>
       <c r="C211" s="15"/>
-      <c r="D211" s="11"/>
+      <c r="D211" s="9"/>
       <c r="E211" s="16"/>
-      <c r="F211" s="9"/>
+      <c r="F211" s="13"/>
     </row>
     <row r="212" ht="17" customHeight="1">
       <c r="A212" s="14"/>
       <c r="B212" s="15"/>
       <c r="C212" s="15"/>
-      <c r="D212" s="11"/>
+      <c r="D212" s="9"/>
       <c r="E212" s="16"/>
-      <c r="F212" s="9"/>
+      <c r="F212" s="13"/>
     </row>
     <row r="213" ht="17" customHeight="1">
       <c r="A213" s="14"/>
       <c r="B213" s="15"/>
       <c r="C213" s="15"/>
-      <c r="D213" s="11"/>
+      <c r="D213" s="9"/>
       <c r="E213" s="16"/>
-      <c r="F213" s="9"/>
+      <c r="F213" s="13"/>
     </row>
     <row r="214" ht="17" customHeight="1">
       <c r="A214" s="17"/>
@@ -6991,110 +6795,4 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="15.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="5" width="16.3516" style="20" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="21">
-        <v>393</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" ht="16.55" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" ht="16.55" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" ht="16.35" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-    </row>
-    <row r="5" ht="16.35" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-    </row>
-    <row r="6" ht="16.35" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-    </row>
-    <row r="7" ht="16.35" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" ht="16.35" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" ht="16.35" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-    </row>
-    <row r="10" ht="16.35" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-    </row>
-    <row r="11" ht="16.35" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/lib/deals/Deals.xlsx
+++ b/lib/deals/Deals.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="275">
   <si>
     <t>Deal</t>
   </si>
@@ -836,360 +836,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ronald J. Yonover Revocable Trust UAD 7/31/90 </t>
-  </si>
-  <si>
-    <t>SE BOOT RANCH INVESTORS, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfini </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anderson </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doug </t>
-  </si>
-  <si>
-    <t>Douglas W. Anderson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brown </t>
-  </si>
-  <si>
-    <t>Daniel T. Brown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlson </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonathon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonathan Carlson </t>
-  </si>
-  <si>
-    <t>Chernev</t>
-  </si>
-  <si>
-    <t>C. Paul Denckla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everson </t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Palmetto LLC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaines </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilbertson </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas L. Gilbertson </t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Gold </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold </t>
-  </si>
-  <si>
-    <t>2011 David Gold Trust F/B/O Pamela Salamon</t>
-  </si>
-  <si>
-    <t>2011 David Gold Trust F/B/O Steven Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grossberg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeffrey A. Grossberg </t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>Beth Herling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janet </t>
-  </si>
-  <si>
-    <t>Janet M. Johnson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaplan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard Kaplan Revocable Trust Dated 9/21/92 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koukos II </t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Peter J. Koukos II</t>
-  </si>
-  <si>
-    <t>Kuntz</t>
-  </si>
-  <si>
-    <t>Richard M. Kuntz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leslie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Levey </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Levey Family LLC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Levin </t>
-  </si>
-  <si>
-    <t>Michael &amp; Carla Levin TIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tony </t>
-  </si>
-  <si>
-    <t>Anthony F. Martin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McCulloch </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthew </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitchell </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ben </t>
-  </si>
-  <si>
-    <t>Mitchell Living Trust 1/8/1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sue &amp; Mike </t>
-  </si>
-  <si>
-    <t xml:space="preserve">White Hart Holdings LLC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parker </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miranda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patinkin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carol </t>
-  </si>
-  <si>
-    <t>Carol S. Patinkin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pheasant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lori </t>
-  </si>
-  <si>
-    <t>Lori A. Pheasant Revocable Trust Dated 11/15/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Podris </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robert B. Podris, Jr &amp; Elizabeth B. Podris Revocable Trust </t>
-  </si>
-  <si>
-    <t>Pratt</t>
-  </si>
-  <si>
-    <t>John M. Pratt</t>
-  </si>
-  <si>
-    <t>Rosenblatt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Randi </t>
-  </si>
-  <si>
-    <t>Randi Rosenblatt</t>
-  </si>
-  <si>
-    <t>Roy Chowdhury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sujit </t>
-  </si>
-  <si>
-    <t>Midland Trust Company as Custodian FBO Sujit Roy Chowdhury #1711514</t>
-  </si>
-  <si>
-    <t>Ruffolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergio </t>
-  </si>
-  <si>
-    <t>Sergio Ruffolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sallerson </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sam </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sallerson Family Limited Partnership </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scadron </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scadron Outdoor Advertising LLC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steven </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steven Schneider </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwartz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jason Schwartz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spielman </t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Robert E. Spielman Revocable Living Trust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stevens </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gray </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morgan Gray Stevens Revocable Trust </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbara M. Stone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szatkowski </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ashley </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ashley L. Szatkowski </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welsh </t>
-  </si>
-  <si>
-    <t>Bob &amp; Joanne</t>
-  </si>
-  <si>
-    <t>Robert W. &amp; Joanne E. Welsh, jtwros</t>
-  </si>
-  <si>
-    <t>SE PROVIDENCE INVESTORS, LLC</t>
-  </si>
-  <si>
-    <t>Barrera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bibiana </t>
-  </si>
-  <si>
-    <t>Bibiana Barrera</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I. William Berger </t>
-  </si>
-  <si>
-    <t>Leslie Berger Grandchildrens Trust u/a dated 9/11/1990</t>
-  </si>
-  <si>
-    <t>Danielle B. Pariser Trust UA of Gail C. Berger dtd 4/9/2009</t>
-  </si>
-  <si>
-    <t>Allison B. Weinger Trust UA of Gail C. Berger dtd 4/9/2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonathon Carlson </t>
-  </si>
-  <si>
-    <t>Goldrich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew </t>
-  </si>
-  <si>
-    <t>LSM Associates LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terri </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ligenza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taylor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taylor Ligenza </t>
-  </si>
-  <si>
-    <t>Matthew</t>
-  </si>
-  <si>
-    <t>Matthew McCulloch</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1019,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1398,6 +1044,9 @@
     <xf numFmtId="59" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
@@ -1405,6 +1054,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1418,9 +1070,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
@@ -2524,7 +2173,7 @@
     <col min="1" max="1" width="31.6719" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.0625" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.8516" style="1" customWidth="1"/>
     <col min="6" max="6" width="32.5" style="1" customWidth="1"/>
     <col min="7" max="256" width="10.8516" style="1" customWidth="1"/>
@@ -2561,12 +2210,12 @@
         <v>8</v>
       </c>
       <c r="D2" s="7">
-        <v>300000</v>
+        <v>42400</v>
       </c>
       <c r="E2" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" ht="17" customHeight="1">
       <c r="A3" t="s" s="5">
@@ -2579,12 +2228,12 @@
         <v>10</v>
       </c>
       <c r="D3" s="7">
-        <v>7500</v>
+        <v>42400</v>
       </c>
       <c r="E3" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" ht="17" customHeight="1">
       <c r="A4" t="s" s="5">
@@ -2597,12 +2246,12 @@
         <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>89500</v>
+        <v>42400</v>
       </c>
       <c r="E4" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" ht="17" customHeight="1">
       <c r="A5" t="s" s="5">
@@ -2615,12 +2264,12 @@
         <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>76150</v>
+        <v>21200</v>
       </c>
       <c r="E5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" ht="17" customHeight="1">
       <c r="A6" t="s" s="5">
@@ -2633,12 +2282,12 @@
         <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>76150</v>
+        <v>84800</v>
       </c>
       <c r="E6" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" ht="17" customHeight="1">
       <c r="A7" t="s" s="5">
@@ -2651,12 +2300,12 @@
         <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>200000</v>
+        <v>84800</v>
       </c>
       <c r="E7" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" ht="17" customHeight="1">
       <c r="A8" t="s" s="5">
@@ -2669,12 +2318,12 @@
         <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>20000</v>
+        <v>42400</v>
       </c>
       <c r="E8" t="s" s="6">
         <v>26</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" ht="17" customHeight="1">
       <c r="A9" t="s" s="5">
@@ -2687,12 +2336,12 @@
         <v>28</v>
       </c>
       <c r="D9" s="7">
-        <v>20000</v>
+        <v>2500</v>
       </c>
       <c r="E9" t="s" s="6">
         <v>29</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" ht="17" customHeight="1">
       <c r="A10" t="s" s="5">
@@ -2705,12 +2354,12 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>20000</v>
+        <v>84800</v>
       </c>
       <c r="E10" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" ht="17" customHeight="1">
       <c r="A11" t="s" s="5">
@@ -2723,12 +2372,12 @@
         <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>22900</v>
+        <v>50900</v>
       </c>
       <c r="E11" t="s" s="6">
         <v>34</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" ht="17" customHeight="1">
       <c r="A12" t="s" s="5">
@@ -2741,12 +2390,12 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>84800</v>
+        <v>29700</v>
       </c>
       <c r="E12" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" ht="17" customHeight="1">
       <c r="A13" t="s" s="5">
@@ -2759,12 +2408,12 @@
         <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>19100</v>
+        <v>21200</v>
       </c>
       <c r="E13" t="s" s="6">
         <v>40</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" ht="17" customHeight="1">
       <c r="A14" t="s" s="5">
@@ -2777,12 +2426,12 @@
         <v>42</v>
       </c>
       <c r="D14" s="7">
-        <v>500000</v>
+        <v>84800</v>
       </c>
       <c r="E14" t="s" s="6">
         <v>43</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" ht="17" customHeight="1">
       <c r="A15" t="s" s="5">
@@ -2800,7 +2449,7 @@
       <c r="E15" t="s" s="6">
         <v>46</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" ht="17" customHeight="1">
       <c r="A16" t="s" s="5">
@@ -2813,12 +2462,12 @@
         <v>48</v>
       </c>
       <c r="D16" s="7">
-        <v>100000</v>
+        <v>101700</v>
       </c>
       <c r="E16" t="s" s="6">
         <v>49</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" ht="17" customHeight="1">
       <c r="A17" t="s" s="5">
@@ -2831,12 +2480,12 @@
         <v>48</v>
       </c>
       <c r="D17" s="7">
-        <v>42300</v>
+        <v>152600</v>
       </c>
       <c r="E17" t="s" s="6">
         <v>50</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" ht="17" customHeight="1">
       <c r="A18" t="s" s="5">
@@ -2849,12 +2498,12 @@
         <v>48</v>
       </c>
       <c r="D18" s="7">
-        <v>42300</v>
+        <v>84800</v>
       </c>
       <c r="E18" t="s" s="6">
         <v>51</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" ht="17" customHeight="1">
       <c r="A19" t="s" s="5">
@@ -2867,12 +2516,12 @@
         <v>53</v>
       </c>
       <c r="D19" s="7">
-        <v>63500</v>
+        <v>25000</v>
       </c>
       <c r="E19" t="s" s="6">
         <v>54</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" ht="17" customHeight="1">
       <c r="A20" t="s" s="5">
@@ -2885,12 +2534,12 @@
         <v>56</v>
       </c>
       <c r="D20" s="7">
-        <v>29600</v>
+        <v>84800</v>
       </c>
       <c r="E20" t="s" s="6">
         <v>57</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" ht="17" customHeight="1">
       <c r="A21" t="s" s="5">
@@ -2903,12 +2552,12 @@
         <v>59</v>
       </c>
       <c r="D21" s="7">
-        <v>2500</v>
+        <v>83000</v>
       </c>
       <c r="E21" t="s" s="6">
         <v>60</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" ht="17" customHeight="1">
       <c r="A22" t="s" s="5">
@@ -2921,15 +2570,15 @@
         <v>62</v>
       </c>
       <c r="D22" s="7">
-        <v>63500</v>
+        <v>42400</v>
       </c>
       <c r="E22" t="s" s="6">
         <v>63</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" ht="17" customHeight="1">
-      <c r="A23" t="s" s="8">
+      <c r="A23" t="s" s="9">
         <v>6</v>
       </c>
       <c r="B23" t="s" s="6">
@@ -2939,12 +2588,12 @@
         <v>65</v>
       </c>
       <c r="D23" s="7">
-        <v>25000</v>
+        <v>100000</v>
       </c>
       <c r="E23" t="s" s="6">
         <v>66</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" ht="17" customHeight="1">
       <c r="A24" t="s" s="5">
@@ -2957,12 +2606,12 @@
         <v>67</v>
       </c>
       <c r="D24" s="7">
-        <v>16900</v>
+        <v>25000</v>
       </c>
       <c r="E24" t="s" s="6">
         <v>68</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" ht="17" customHeight="1">
       <c r="A25" t="s" s="5">
@@ -2975,12 +2624,12 @@
         <v>69</v>
       </c>
       <c r="D25" s="7">
-        <v>42300</v>
+        <v>40000</v>
       </c>
       <c r="E25" t="s" s="6">
         <v>70</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" ht="17" customHeight="1">
       <c r="A26" t="s" s="5">
@@ -2998,7 +2647,7 @@
       <c r="E26" t="s" s="6">
         <v>73</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" ht="17" customHeight="1">
       <c r="A27" t="s" s="5">
@@ -3011,12 +2660,12 @@
         <v>75</v>
       </c>
       <c r="D27" s="7">
-        <v>100000</v>
+        <v>42400</v>
       </c>
       <c r="E27" t="s" s="6">
         <v>76</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" ht="17" customHeight="1">
       <c r="A28" t="s" s="5">
@@ -3029,12 +2678,12 @@
         <v>78</v>
       </c>
       <c r="D28" s="7">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="E28" t="s" s="6">
         <v>79</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" ht="17" customHeight="1">
       <c r="A29" t="s" s="5">
@@ -3047,12 +2696,12 @@
         <v>81</v>
       </c>
       <c r="D29" s="7">
-        <v>75000</v>
+        <v>27048.02</v>
       </c>
       <c r="E29" t="s" s="6">
         <v>82</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" ht="17" customHeight="1">
       <c r="A30" t="s" s="5">
@@ -3065,12 +2714,12 @@
         <v>84</v>
       </c>
       <c r="D30" s="7">
-        <v>42300</v>
+        <v>42400</v>
       </c>
       <c r="E30" t="s" s="6">
         <v>85</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" ht="17" customHeight="1">
       <c r="A31" t="s" s="5">
@@ -3083,12 +2732,12 @@
         <v>87</v>
       </c>
       <c r="D31" s="7">
-        <v>7500</v>
+        <v>42400</v>
       </c>
       <c r="E31" t="s" s="6">
         <v>88</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" ht="17" customHeight="1">
       <c r="A32" t="s" s="5">
@@ -3101,12 +2750,12 @@
         <v>90</v>
       </c>
       <c r="D32" s="7">
-        <v>5000</v>
+        <v>300000</v>
       </c>
       <c r="E32" t="s" s="6">
         <v>91</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" ht="17" customHeight="1">
       <c r="A33" t="s" s="5">
@@ -3119,12 +2768,12 @@
         <v>90</v>
       </c>
       <c r="D33" s="7">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="E33" t="s" s="6">
         <v>92</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" ht="17" customHeight="1">
       <c r="A34" t="s" s="5">
@@ -3137,12 +2786,12 @@
         <v>90</v>
       </c>
       <c r="D34" s="7">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="E34" t="s" s="6">
         <v>93</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" ht="17" customHeight="1">
       <c r="A35" t="s" s="5">
@@ -3155,12 +2804,12 @@
         <v>95</v>
       </c>
       <c r="D35" s="7">
-        <v>8500</v>
+        <v>42400</v>
       </c>
       <c r="E35" t="s" s="6">
         <v>96</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" ht="17" customHeight="1">
       <c r="A36" t="s" s="5">
@@ -3173,15 +2822,15 @@
         <v>98</v>
       </c>
       <c r="D36" s="7">
-        <v>59536.31</v>
+        <v>35000</v>
       </c>
       <c r="E36" t="s" s="6">
         <v>99</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" ht="17" customHeight="1">
-      <c r="A37" t="s" s="8">
+      <c r="A37" t="s" s="9">
         <v>6</v>
       </c>
       <c r="B37" t="s" s="6">
@@ -3191,15 +2840,15 @@
         <v>101</v>
       </c>
       <c r="D37" s="7">
-        <v>42300</v>
+        <v>84800</v>
       </c>
       <c r="E37" t="s" s="6">
         <v>102</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" ht="17" customHeight="1">
-      <c r="A38" t="s" s="8">
+      <c r="A38" t="s" s="9">
         <v>6</v>
       </c>
       <c r="B38" t="s" s="6">
@@ -3209,15 +2858,15 @@
         <v>103</v>
       </c>
       <c r="D38" s="7">
-        <v>21200</v>
+        <v>84800</v>
       </c>
       <c r="E38" t="s" s="6">
         <v>104</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="8"/>
     </row>
     <row r="39" ht="17" customHeight="1">
-      <c r="A39" t="s" s="8">
+      <c r="A39" t="s" s="9">
         <v>6</v>
       </c>
       <c r="B39" t="s" s="6">
@@ -3227,15 +2876,15 @@
         <v>105</v>
       </c>
       <c r="D39" s="7">
-        <v>21200</v>
+        <v>42400</v>
       </c>
       <c r="E39" t="s" s="6">
         <v>106</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" ht="17" customHeight="1">
-      <c r="A40" t="s" s="8">
+      <c r="A40" t="s" s="9">
         <v>6</v>
       </c>
       <c r="B40" t="s" s="6">
@@ -3245,15 +2894,15 @@
         <v>10</v>
       </c>
       <c r="D40" s="7">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="E40" t="s" s="6">
         <v>108</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="8"/>
     </row>
     <row r="41" ht="17" customHeight="1">
-      <c r="A41" t="s" s="8">
+      <c r="A41" t="s" s="9">
         <v>6</v>
       </c>
       <c r="B41" t="s" s="6">
@@ -3263,12 +2912,12 @@
         <v>110</v>
       </c>
       <c r="D41" s="7">
-        <v>42300</v>
+        <v>5000</v>
       </c>
       <c r="E41" t="s" s="6">
         <v>111</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="8"/>
     </row>
     <row r="42" ht="17" customHeight="1">
       <c r="A42" t="s" s="5">
@@ -3281,12 +2930,12 @@
         <v>113</v>
       </c>
       <c r="D42" s="7">
-        <v>33900</v>
+        <v>42400</v>
       </c>
       <c r="E42" t="s" s="6">
         <v>114</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" ht="17" customHeight="1">
       <c r="A43" t="s" s="5">
@@ -3299,12 +2948,12 @@
         <v>116</v>
       </c>
       <c r="D43" s="7">
-        <v>42300</v>
+        <v>200000</v>
       </c>
       <c r="E43" t="s" s="6">
         <v>117</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" ht="17" customHeight="1">
       <c r="A44" t="s" s="5">
@@ -3317,15 +2966,15 @@
         <v>118</v>
       </c>
       <c r="D44" s="7">
-        <v>29763.69</v>
+        <v>200000</v>
       </c>
       <c r="E44" t="s" s="6">
         <v>119</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" ht="17" customHeight="1">
-      <c r="A45" t="s" s="8">
+      <c r="A45" t="s" s="9">
         <v>6</v>
       </c>
       <c r="B45" t="s" s="6">
@@ -3335,12 +2984,12 @@
         <v>121</v>
       </c>
       <c r="D45" s="7">
-        <v>211700</v>
+        <v>21200</v>
       </c>
       <c r="E45" t="s" s="6">
         <v>122</v>
       </c>
-      <c r="F45" s="7"/>
+      <c r="F45" s="8"/>
     </row>
     <row r="46" ht="17" customHeight="1">
       <c r="A46" t="s" s="5">
@@ -3353,15 +3002,15 @@
         <v>113</v>
       </c>
       <c r="D46" s="7">
-        <v>70000</v>
+        <v>33900</v>
       </c>
       <c r="E46" t="s" s="6">
         <v>124</v>
       </c>
-      <c r="F46" s="7"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" ht="17" customHeight="1">
-      <c r="A47" t="s" s="8">
+      <c r="A47" t="s" s="9">
         <v>6</v>
       </c>
       <c r="B47" t="s" s="6">
@@ -3371,12 +3020,12 @@
         <v>126</v>
       </c>
       <c r="D47" s="7">
-        <v>8500</v>
+        <v>12700</v>
       </c>
       <c r="E47" t="s" s="6">
         <v>127</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" ht="17" customHeight="1">
       <c r="A48" t="s" s="5">
@@ -3389,12 +3038,12 @@
         <v>129</v>
       </c>
       <c r="D48" s="7">
-        <v>1000</v>
+        <v>50900</v>
       </c>
       <c r="E48" t="s" s="6">
         <v>130</v>
       </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" ht="17" customHeight="1">
       <c r="A49" t="s" s="5">
@@ -3407,12 +3056,12 @@
         <v>132</v>
       </c>
       <c r="D49" s="7">
-        <v>12700</v>
+        <v>27048.02</v>
       </c>
       <c r="E49" t="s" s="6">
         <v>133</v>
       </c>
-      <c r="F49" s="7"/>
+      <c r="F49" s="8"/>
     </row>
     <row r="50" ht="17" customHeight="1">
       <c r="A50" t="s" s="5">
@@ -3425,12 +3074,12 @@
         <v>135</v>
       </c>
       <c r="D50" s="7">
-        <v>21200</v>
+        <v>33900</v>
       </c>
       <c r="E50" t="s" s="6">
         <v>136</v>
       </c>
-      <c r="F50" s="7"/>
+      <c r="F50" s="8"/>
     </row>
     <row r="51" ht="17" customHeight="1">
       <c r="A51" t="s" s="5">
@@ -3443,12 +3092,12 @@
         <v>13</v>
       </c>
       <c r="D51" s="7">
-        <v>42300</v>
+        <v>50000</v>
       </c>
       <c r="E51" t="s" s="6">
         <v>138</v>
       </c>
-      <c r="F51" s="7"/>
+      <c r="F51" s="8"/>
     </row>
     <row r="52" ht="17" customHeight="1">
       <c r="A52" t="s" s="5">
@@ -3461,12 +3110,12 @@
         <v>140</v>
       </c>
       <c r="D52" s="7">
-        <v>84700</v>
+        <v>42400</v>
       </c>
       <c r="E52" t="s" s="6">
         <v>141</v>
       </c>
-      <c r="F52" s="7"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" ht="17" customHeight="1">
       <c r="A53" t="s" s="5">
@@ -3479,12 +3128,12 @@
         <v>143</v>
       </c>
       <c r="D53" s="7">
-        <v>42300</v>
+        <v>169600</v>
       </c>
       <c r="E53" t="s" s="6">
         <v>144</v>
       </c>
-      <c r="F53" s="7"/>
+      <c r="F53" s="8"/>
     </row>
     <row r="54" ht="17" customHeight="1">
       <c r="A54" t="s" s="5">
@@ -3497,12 +3146,12 @@
         <v>146</v>
       </c>
       <c r="D54" s="7">
-        <v>16900</v>
+        <v>2500</v>
       </c>
       <c r="E54" t="s" s="6">
         <v>147</v>
       </c>
-      <c r="F54" s="7"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="55" ht="17" customHeight="1">
       <c r="A55" t="s" s="5">
@@ -3515,12 +3164,12 @@
         <v>149</v>
       </c>
       <c r="D55" s="7">
-        <v>169400</v>
+        <v>63600</v>
       </c>
       <c r="E55" t="s" s="6">
         <v>150</v>
       </c>
-      <c r="F55" s="7"/>
+      <c r="F55" s="8"/>
     </row>
     <row r="56" ht="17" customHeight="1">
       <c r="A56" t="s" s="5">
@@ -3533,12 +3182,12 @@
         <v>151</v>
       </c>
       <c r="D56" s="7">
-        <v>84700</v>
+        <v>21200</v>
       </c>
       <c r="E56" t="s" s="6">
         <v>152</v>
       </c>
-      <c r="F56" s="7"/>
+      <c r="F56" s="8"/>
     </row>
     <row r="57" ht="17" customHeight="1">
       <c r="A57" t="s" s="5">
@@ -3551,12 +3200,12 @@
         <v>154</v>
       </c>
       <c r="D57" s="7">
-        <v>29600</v>
+        <v>21200</v>
       </c>
       <c r="E57" t="s" s="6">
         <v>155</v>
       </c>
-      <c r="F57" s="7"/>
+      <c r="F57" s="8"/>
     </row>
     <row r="58" ht="17" customHeight="1">
       <c r="A58" t="s" s="5">
@@ -3569,12 +3218,12 @@
         <v>157</v>
       </c>
       <c r="D58" s="7">
-        <v>42300</v>
+        <v>50000</v>
       </c>
       <c r="E58" t="s" s="6">
         <v>158</v>
       </c>
-      <c r="F58" s="7"/>
+      <c r="F58" s="8"/>
     </row>
     <row r="59" ht="17" customHeight="1">
       <c r="A59" t="s" s="5">
@@ -3587,12 +3236,12 @@
         <v>160</v>
       </c>
       <c r="D59" s="7">
-        <v>21200</v>
+        <v>20300</v>
       </c>
       <c r="E59" t="s" s="6">
         <v>161</v>
       </c>
-      <c r="F59" s="7"/>
+      <c r="F59" s="8"/>
     </row>
     <row r="60" ht="17" customHeight="1">
       <c r="A60" t="s" s="5">
@@ -3605,12 +3254,12 @@
         <v>163</v>
       </c>
       <c r="D60" s="7">
-        <v>84700</v>
+        <v>27043.96</v>
       </c>
       <c r="E60" t="s" s="6">
         <v>164</v>
       </c>
-      <c r="F60" s="7"/>
+      <c r="F60" s="8"/>
     </row>
     <row r="61" ht="17" customHeight="1">
       <c r="A61" t="s" s="5">
@@ -3623,12 +3272,12 @@
         <v>166</v>
       </c>
       <c r="D61" s="7">
-        <v>220000</v>
+        <v>63600</v>
       </c>
       <c r="E61" t="s" s="6">
         <v>167</v>
       </c>
-      <c r="F61" s="7"/>
+      <c r="F61" s="8"/>
     </row>
     <row r="62" ht="17" customHeight="1">
       <c r="A62" t="s" s="5">
@@ -3641,15 +3290,15 @@
         <v>169</v>
       </c>
       <c r="D62" s="7">
-        <v>42300</v>
+        <v>59300</v>
       </c>
       <c r="E62" t="s" s="6">
         <v>170</v>
       </c>
-      <c r="F62" s="7"/>
+      <c r="F62" s="8"/>
     </row>
     <row r="63" ht="17" customHeight="1">
-      <c r="A63" t="s" s="8">
+      <c r="A63" t="s" s="9">
         <v>6</v>
       </c>
       <c r="B63" t="s" s="6">
@@ -3659,12 +3308,12 @@
         <v>172</v>
       </c>
       <c r="D63" s="7">
-        <v>7500</v>
+        <v>84800</v>
       </c>
       <c r="E63" t="s" s="6">
         <v>173</v>
       </c>
-      <c r="F63" s="7"/>
+      <c r="F63" s="8"/>
     </row>
     <row r="64" ht="17" customHeight="1">
       <c r="A64" t="s" s="5">
@@ -3677,12 +3326,12 @@
         <v>175</v>
       </c>
       <c r="D64" s="7">
-        <v>84700</v>
+        <v>42400</v>
       </c>
       <c r="E64" t="s" s="6">
         <v>176</v>
       </c>
-      <c r="F64" s="7"/>
+      <c r="F64" s="8"/>
     </row>
     <row r="65" ht="17" customHeight="1">
       <c r="A65" t="s" s="5">
@@ -3695,12 +3344,12 @@
         <v>178</v>
       </c>
       <c r="D65" s="7">
-        <v>84700</v>
+        <v>1000</v>
       </c>
       <c r="E65" t="s" s="6">
         <v>179</v>
       </c>
-      <c r="F65" s="7"/>
+      <c r="F65" s="8"/>
     </row>
     <row r="66" ht="17" customHeight="1">
       <c r="A66" t="s" s="5">
@@ -3713,12 +3362,12 @@
         <v>181</v>
       </c>
       <c r="D66" s="7">
-        <v>21200</v>
+        <v>42400</v>
       </c>
       <c r="E66" t="s" s="6">
         <v>182</v>
       </c>
-      <c r="F66" s="7"/>
+      <c r="F66" s="8"/>
     </row>
     <row r="67" ht="17" customHeight="1">
       <c r="A67" t="s" s="5">
@@ -3731,12 +3380,12 @@
         <v>184</v>
       </c>
       <c r="D67" s="7">
-        <v>21200</v>
+        <v>12700</v>
       </c>
       <c r="E67" t="s" s="6">
         <v>185</v>
       </c>
-      <c r="F67" s="7"/>
+      <c r="F67" s="8"/>
     </row>
     <row r="68" ht="17" customHeight="1">
       <c r="A68" t="s" s="5">
@@ -3749,12 +3398,12 @@
         <v>103</v>
       </c>
       <c r="D68" s="7">
-        <v>2500</v>
+        <v>42400</v>
       </c>
       <c r="E68" t="s" s="6">
         <v>187</v>
       </c>
-      <c r="F68" s="7"/>
+      <c r="F68" s="8"/>
     </row>
     <row r="69" ht="17" customHeight="1">
       <c r="A69" t="s" s="5">
@@ -3767,12 +3416,12 @@
         <v>189</v>
       </c>
       <c r="D69" s="7">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="E69" t="s" s="6">
         <v>190</v>
       </c>
-      <c r="F69" s="7"/>
+      <c r="F69" s="8"/>
     </row>
     <row r="70" ht="17" customHeight="1">
       <c r="A70" t="s" s="5">
@@ -3785,12 +3434,12 @@
         <v>192</v>
       </c>
       <c r="D70" s="7">
-        <v>29600</v>
+        <v>17000</v>
       </c>
       <c r="E70" t="s" s="6">
         <v>193</v>
       </c>
-      <c r="F70" s="7"/>
+      <c r="F70" s="8"/>
     </row>
     <row r="71" ht="17" customHeight="1">
       <c r="A71" t="s" s="5">
@@ -3803,12 +3452,12 @@
         <v>195</v>
       </c>
       <c r="D71" s="7">
-        <v>1000</v>
+        <v>190800</v>
       </c>
       <c r="E71" t="s" s="6">
         <v>196</v>
       </c>
-      <c r="F71" s="7"/>
+      <c r="F71" s="8"/>
     </row>
     <row r="72" ht="17" customHeight="1">
       <c r="A72" t="s" s="5">
@@ -3821,12 +3470,12 @@
         <v>198</v>
       </c>
       <c r="D72" s="7">
-        <v>779111</v>
+        <v>33900</v>
       </c>
       <c r="E72" t="s" s="6">
         <v>199</v>
       </c>
-      <c r="F72" s="7"/>
+      <c r="F72" s="8"/>
     </row>
     <row r="73" ht="17" customHeight="1">
       <c r="A73" t="s" s="5">
@@ -3838,13 +3487,13 @@
       <c r="C73" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D73" s="7">
-        <v>1025779</v>
+      <c r="D73" s="10">
+        <v>21200</v>
       </c>
       <c r="E73" t="s" s="6">
         <v>201</v>
       </c>
-      <c r="F73" s="9"/>
+      <c r="F73" s="8"/>
     </row>
     <row r="74" ht="17" customHeight="1">
       <c r="A74" t="s" s="5">
@@ -3856,13 +3505,13 @@
       <c r="C74" t="s" s="6">
         <v>203</v>
       </c>
-      <c r="D74" s="7">
-        <v>389555</v>
+      <c r="D74" s="10">
+        <v>7500</v>
       </c>
       <c r="E74" t="s" s="6">
         <v>204</v>
       </c>
-      <c r="F74" s="9"/>
+      <c r="F74" s="8"/>
     </row>
     <row r="75" ht="17" customHeight="1">
       <c r="A75" t="s" s="5">
@@ -3875,12 +3524,12 @@
         <v>206</v>
       </c>
       <c r="D75" s="7">
-        <v>389555</v>
+        <v>42400</v>
       </c>
       <c r="E75" t="s" s="6">
         <v>207</v>
       </c>
-      <c r="F75" s="7"/>
+      <c r="F75" s="8"/>
     </row>
     <row r="76" ht="17" customHeight="1">
       <c r="A76" t="s" s="5">
@@ -3893,12 +3542,12 @@
         <v>48</v>
       </c>
       <c r="D76" s="7">
-        <v>2500</v>
+        <v>21200</v>
       </c>
       <c r="E76" t="s" s="6">
         <v>209</v>
       </c>
-      <c r="F76" s="7"/>
+      <c r="F76" s="8"/>
     </row>
     <row r="77" ht="17" customHeight="1">
       <c r="A77" t="s" s="5">
@@ -3911,12 +3560,12 @@
         <v>211</v>
       </c>
       <c r="D77" s="7">
-        <v>200000</v>
+        <v>42400</v>
       </c>
       <c r="E77" t="s" s="6">
         <v>212</v>
       </c>
-      <c r="F77" s="7"/>
+      <c r="F77" s="8"/>
     </row>
     <row r="78" ht="17" customHeight="1">
       <c r="A78" t="s" s="5">
@@ -3929,12 +3578,12 @@
         <v>214</v>
       </c>
       <c r="D78" s="7">
-        <v>7500</v>
+        <v>84800</v>
       </c>
       <c r="E78" t="s" s="6">
         <v>215</v>
       </c>
-      <c r="F78" s="7"/>
+      <c r="F78" s="8"/>
     </row>
     <row r="79" ht="17" customHeight="1">
       <c r="A79" t="s" s="5">
@@ -3947,12 +3596,12 @@
         <v>217</v>
       </c>
       <c r="D79" s="7">
-        <v>5000</v>
+        <v>42400</v>
       </c>
       <c r="E79" t="s" s="6">
         <v>218</v>
       </c>
-      <c r="F79" s="7"/>
+      <c r="F79" s="8"/>
     </row>
     <row r="80" ht="17" customHeight="1">
       <c r="A80" t="s" s="5">
@@ -3965,15 +3614,15 @@
         <v>220</v>
       </c>
       <c r="D80" s="7">
-        <v>66169.98</v>
+        <v>84800</v>
       </c>
       <c r="E80" t="s" s="6">
         <v>221</v>
       </c>
-      <c r="F80" s="7"/>
+      <c r="F80" s="8"/>
     </row>
     <row r="81" ht="17" customHeight="1">
-      <c r="A81" t="s" s="8">
+      <c r="A81" t="s" s="9">
         <v>6</v>
       </c>
       <c r="B81" t="s" s="6">
@@ -3983,12 +3632,12 @@
         <v>220</v>
       </c>
       <c r="D81" s="7">
-        <v>2500</v>
+        <v>25400</v>
       </c>
       <c r="E81" t="s" s="6">
         <v>223</v>
       </c>
-      <c r="F81" s="7"/>
+      <c r="F81" s="8"/>
     </row>
     <row r="82" ht="17" customHeight="1">
       <c r="A82" t="s" s="5">
@@ -4001,12 +3650,12 @@
         <v>225</v>
       </c>
       <c r="D82" s="7">
-        <v>1000</v>
+        <v>63600</v>
       </c>
       <c r="E82" t="s" s="6">
         <v>226</v>
       </c>
-      <c r="F82" s="7"/>
+      <c r="F82" s="8"/>
     </row>
     <row r="83" ht="17" customHeight="1">
       <c r="A83" t="s" s="5">
@@ -4019,12 +3668,12 @@
         <v>228</v>
       </c>
       <c r="D83" s="7">
-        <v>33080.02</v>
+        <v>7500</v>
       </c>
       <c r="E83" t="s" s="6">
         <v>229</v>
       </c>
-      <c r="F83" s="7"/>
+      <c r="F83" s="8"/>
     </row>
     <row r="84" ht="17" customHeight="1">
       <c r="A84" t="s" s="5">
@@ -4037,12 +3686,12 @@
         <v>225</v>
       </c>
       <c r="D84" s="7">
-        <v>2000</v>
+        <v>42400</v>
       </c>
       <c r="E84" t="s" s="6">
         <v>231</v>
       </c>
-      <c r="F84" s="7"/>
+      <c r="F84" s="8"/>
     </row>
     <row r="85" ht="17" customHeight="1">
       <c r="A85" t="s" s="5">
@@ -4055,15 +3704,15 @@
         <v>13</v>
       </c>
       <c r="D85" s="7">
-        <v>3750</v>
+        <v>42400</v>
       </c>
       <c r="E85" t="s" s="6">
         <v>232</v>
       </c>
-      <c r="F85" s="7"/>
+      <c r="F85" s="8"/>
     </row>
     <row r="86" ht="17" customHeight="1">
-      <c r="A86" t="s" s="8">
+      <c r="A86" t="s" s="9">
         <v>6</v>
       </c>
       <c r="B86" t="s" s="6">
@@ -4073,12 +3722,12 @@
         <v>234</v>
       </c>
       <c r="D86" s="7">
-        <v>7500</v>
-      </c>
-      <c r="E86" t="s" s="10">
+        <v>21200</v>
+      </c>
+      <c r="E86" t="s" s="11">
         <v>235</v>
       </c>
-      <c r="F86" s="7"/>
+      <c r="F86" s="12"/>
     </row>
     <row r="87" ht="17" customHeight="1">
       <c r="A87" t="s" s="5">
@@ -4091,12 +3740,12 @@
         <v>237</v>
       </c>
       <c r="D87" s="7">
-        <v>3000</v>
+        <v>100000</v>
       </c>
       <c r="E87" t="s" s="6">
         <v>238</v>
       </c>
-      <c r="F87" s="7"/>
+      <c r="F87" s="8"/>
     </row>
     <row r="88" ht="17" customHeight="1">
       <c r="A88" t="s" s="5">
@@ -4109,12 +3758,12 @@
         <v>240</v>
       </c>
       <c r="D88" s="7">
-        <v>15000</v>
+        <v>2500</v>
       </c>
       <c r="E88" t="s" s="6">
         <v>241</v>
       </c>
-      <c r="F88" s="7"/>
+      <c r="F88" s="8"/>
     </row>
     <row r="89" ht="17" customHeight="1">
       <c r="A89" t="s" s="5">
@@ -4127,12 +3776,12 @@
         <v>243</v>
       </c>
       <c r="D89" s="7">
-        <v>300000</v>
+        <v>84800</v>
       </c>
       <c r="E89" t="s" s="6">
         <v>244</v>
       </c>
-      <c r="F89" s="7"/>
+      <c r="F89" s="8"/>
     </row>
     <row r="90" ht="17" customHeight="1">
       <c r="A90" t="s" s="5">
@@ -4145,12 +3794,12 @@
         <v>246</v>
       </c>
       <c r="D90" s="7">
-        <v>7500</v>
+        <v>300000</v>
       </c>
       <c r="E90" t="s" s="6">
         <v>247</v>
       </c>
-      <c r="F90" s="7"/>
+      <c r="F90" s="8"/>
     </row>
     <row r="91" ht="17" customHeight="1">
       <c r="A91" t="s" s="5">
@@ -4163,12 +3812,12 @@
         <v>249</v>
       </c>
       <c r="D91" s="7">
-        <v>89500</v>
+        <v>7500</v>
       </c>
       <c r="E91" t="s" s="6">
         <v>250</v>
       </c>
-      <c r="F91" s="7"/>
+      <c r="F91" s="8"/>
     </row>
     <row r="92" ht="17" customHeight="1">
       <c r="A92" t="s" s="5">
@@ -4181,12 +3830,12 @@
         <v>252</v>
       </c>
       <c r="D92" s="7">
-        <v>76150</v>
+        <v>89500</v>
       </c>
       <c r="E92" t="s" s="6">
         <v>253</v>
       </c>
-      <c r="F92" s="7"/>
+      <c r="F92" s="8"/>
     </row>
     <row r="93" ht="17" customHeight="1">
       <c r="A93" t="s" s="5">
@@ -4204,7 +3853,7 @@
       <c r="E93" t="s" s="6">
         <v>254</v>
       </c>
-      <c r="F93" s="7"/>
+      <c r="F93" s="8"/>
     </row>
     <row r="94" ht="17" customHeight="1">
       <c r="A94" t="s" s="5">
@@ -4217,12 +3866,12 @@
         <v>252</v>
       </c>
       <c r="D94" s="7">
-        <v>200000</v>
+        <v>76150</v>
       </c>
       <c r="E94" t="s" s="6">
         <v>255</v>
       </c>
-      <c r="F94" s="7"/>
+      <c r="F94" s="8"/>
     </row>
     <row r="95" ht="17" customHeight="1">
       <c r="A95" t="s" s="5">
@@ -4235,12 +3884,12 @@
         <v>69</v>
       </c>
       <c r="D95" s="7">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="E95" t="s" s="6">
         <v>257</v>
       </c>
-      <c r="F95" s="7"/>
+      <c r="F95" s="8"/>
     </row>
     <row r="96" ht="17" customHeight="1">
       <c r="A96" t="s" s="5">
@@ -4258,7 +3907,7 @@
       <c r="E96" t="s" s="6">
         <v>258</v>
       </c>
-      <c r="F96" s="7"/>
+      <c r="F96" s="8"/>
     </row>
     <row r="97" ht="17" customHeight="1">
       <c r="A97" t="s" s="5">
@@ -4276,7 +3925,7 @@
       <c r="E97" t="s" s="6">
         <v>259</v>
       </c>
-      <c r="F97" s="7"/>
+      <c r="F97" s="8"/>
     </row>
     <row r="98" ht="17" customHeight="1">
       <c r="A98" t="s" s="5">
@@ -4289,12 +3938,12 @@
         <v>69</v>
       </c>
       <c r="D98" s="7">
-        <v>22900</v>
+        <v>20000</v>
       </c>
       <c r="E98" t="s" s="6">
         <v>260</v>
       </c>
-      <c r="F98" s="7"/>
+      <c r="F98" s="8"/>
     </row>
     <row r="99" ht="17" customHeight="1">
       <c r="A99" t="s" s="5">
@@ -4307,12 +3956,12 @@
         <v>262</v>
       </c>
       <c r="D99" s="7">
-        <v>84800</v>
+        <v>22900</v>
       </c>
       <c r="E99" t="s" s="6">
         <v>263</v>
       </c>
-      <c r="F99" s="7"/>
+      <c r="F99" s="8"/>
     </row>
     <row r="100" ht="17" customHeight="1">
       <c r="A100" t="s" s="5">
@@ -4325,12 +3974,12 @@
         <v>264</v>
       </c>
       <c r="D100" s="7">
-        <v>19100</v>
+        <v>84800</v>
       </c>
       <c r="E100" t="s" s="6">
         <v>265</v>
       </c>
-      <c r="F100" s="7"/>
+      <c r="F100" s="8"/>
     </row>
     <row r="101" ht="17" customHeight="1">
       <c r="A101" t="s" s="5">
@@ -4343,12 +3992,12 @@
         <v>42</v>
       </c>
       <c r="D101" s="7">
-        <v>500000</v>
+        <v>19100</v>
       </c>
       <c r="E101" t="s" s="6">
         <v>267</v>
       </c>
-      <c r="F101" s="7"/>
+      <c r="F101" s="8"/>
     </row>
     <row r="102" ht="17" customHeight="1">
       <c r="A102" t="s" s="5">
@@ -4361,12 +4010,12 @@
         <v>243</v>
       </c>
       <c r="D102" s="7">
-        <v>21200</v>
+        <v>500000</v>
       </c>
       <c r="E102" t="s" s="6">
         <v>269</v>
       </c>
-      <c r="F102" s="7"/>
+      <c r="F102" s="8"/>
     </row>
     <row r="103" ht="17" customHeight="1">
       <c r="A103" t="s" s="5">
@@ -4379,12 +4028,12 @@
         <v>271</v>
       </c>
       <c r="D103" s="7">
-        <v>100000</v>
+        <v>21200</v>
       </c>
       <c r="E103" t="s" s="6">
         <v>272</v>
       </c>
-      <c r="F103" s="7"/>
+      <c r="F103" s="8"/>
     </row>
     <row r="104" ht="17" customHeight="1">
       <c r="A104" t="s" s="5">
@@ -4397,2396 +4046,1676 @@
         <v>273</v>
       </c>
       <c r="D104" s="7">
-        <v>42300</v>
+        <v>100000</v>
       </c>
       <c r="E104" t="s" s="6">
         <v>274</v>
       </c>
-      <c r="F104" s="7"/>
+      <c r="F104" s="8"/>
     </row>
     <row r="105" ht="17" customHeight="1">
-      <c r="A105" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B105" t="s" s="6">
-        <v>276</v>
-      </c>
-      <c r="C105" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D105" s="7">
-        <v>42300</v>
-      </c>
-      <c r="E105" t="s" s="6">
-        <v>9</v>
-      </c>
+      <c r="A105" s="5"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="6"/>
       <c r="F105" s="7"/>
     </row>
     <row r="106" ht="17" customHeight="1">
-      <c r="A106" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B106" t="s" s="6">
-        <v>276</v>
-      </c>
-      <c r="C106" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D106" s="7">
-        <v>63500</v>
-      </c>
-      <c r="E106" t="s" s="6">
-        <v>11</v>
-      </c>
+      <c r="A106" s="5"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="6"/>
       <c r="F106" s="7"/>
     </row>
     <row r="107" ht="17" customHeight="1">
-      <c r="A107" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B107" t="s" s="6">
-        <v>277</v>
-      </c>
-      <c r="C107" t="s" s="6">
-        <v>278</v>
-      </c>
-      <c r="D107" s="7">
-        <v>29600</v>
-      </c>
-      <c r="E107" t="s" s="6">
-        <v>279</v>
-      </c>
+      <c r="A107" s="5"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="6"/>
       <c r="F107" s="7"/>
     </row>
     <row r="108" ht="17" customHeight="1">
-      <c r="A108" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B108" t="s" s="6">
-        <v>280</v>
-      </c>
-      <c r="C108" t="s" s="6">
-        <v>90</v>
-      </c>
-      <c r="D108" s="7">
-        <v>2500</v>
-      </c>
-      <c r="E108" t="s" s="6">
-        <v>281</v>
-      </c>
+      <c r="A108" s="5"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="6"/>
       <c r="F108" s="7"/>
     </row>
     <row r="109" ht="17" customHeight="1">
-      <c r="A109" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B109" t="s" s="6">
-        <v>282</v>
-      </c>
-      <c r="C109" t="s" s="6">
-        <v>283</v>
-      </c>
-      <c r="D109" s="7">
-        <v>63500</v>
-      </c>
-      <c r="E109" t="s" s="6">
-        <v>284</v>
-      </c>
+      <c r="A109" s="5"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="6"/>
       <c r="F109" s="7"/>
     </row>
     <row r="110" ht="17" customHeight="1">
-      <c r="A110" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B110" t="s" s="6">
-        <v>285</v>
-      </c>
-      <c r="C110" t="s" s="6">
-        <v>33</v>
-      </c>
-      <c r="D110" s="7">
-        <v>25000</v>
-      </c>
-      <c r="E110" t="s" s="6">
-        <v>34</v>
-      </c>
+      <c r="A110" s="5"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="6"/>
       <c r="F110" s="7"/>
     </row>
     <row r="111" ht="17" customHeight="1">
-      <c r="A111" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B111" t="s" s="6">
-        <v>52</v>
-      </c>
-      <c r="C111" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="D111" s="7">
-        <v>16900</v>
-      </c>
-      <c r="E111" t="s" s="6">
-        <v>286</v>
-      </c>
+      <c r="A111" s="5"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="6"/>
       <c r="F111" s="7"/>
     </row>
     <row r="112" ht="17" customHeight="1">
-      <c r="A112" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B112" t="s" s="6">
-        <v>287</v>
-      </c>
-      <c r="C112" t="s" s="6">
-        <v>288</v>
-      </c>
-      <c r="D112" s="7">
-        <v>42300</v>
-      </c>
-      <c r="E112" t="s" s="6">
-        <v>289</v>
-      </c>
+      <c r="A112" s="5"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="6"/>
       <c r="F112" s="7"/>
     </row>
     <row r="113" ht="17" customHeight="1">
-      <c r="A113" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B113" t="s" s="6">
-        <v>290</v>
-      </c>
-      <c r="C113" t="s" s="6">
-        <v>72</v>
-      </c>
-      <c r="D113" s="7">
-        <v>25400</v>
-      </c>
-      <c r="E113" t="s" s="6">
-        <v>73</v>
-      </c>
+      <c r="A113" s="5"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="6"/>
       <c r="F113" s="7"/>
     </row>
     <row r="114" ht="17" customHeight="1">
-      <c r="A114" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B114" t="s" s="6">
-        <v>291</v>
-      </c>
-      <c r="C114" t="s" s="6">
-        <v>220</v>
-      </c>
-      <c r="D114" s="7">
-        <v>100000</v>
-      </c>
-      <c r="E114" t="s" s="6">
-        <v>292</v>
-      </c>
+      <c r="A114" s="5"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="6"/>
       <c r="F114" s="7"/>
     </row>
     <row r="115" ht="17" customHeight="1">
-      <c r="A115" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B115" t="s" s="6">
-        <v>293</v>
-      </c>
-      <c r="C115" t="s" s="6">
-        <v>294</v>
-      </c>
-      <c r="D115" s="7">
-        <v>75000</v>
-      </c>
-      <c r="E115" t="s" s="6">
-        <v>295</v>
-      </c>
+      <c r="A115" s="5"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="6"/>
       <c r="F115" s="7"/>
     </row>
     <row r="116" ht="17" customHeight="1">
-      <c r="A116" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B116" t="s" s="6">
-        <v>296</v>
-      </c>
-      <c r="C116" t="s" s="6">
-        <v>294</v>
-      </c>
-      <c r="D116" s="7">
-        <v>75000</v>
-      </c>
-      <c r="E116" t="s" s="6">
-        <v>297</v>
-      </c>
+      <c r="A116" s="5"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="6"/>
       <c r="F116" s="7"/>
     </row>
     <row r="117" ht="17" customHeight="1">
-      <c r="A117" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B117" t="s" s="6">
-        <v>296</v>
-      </c>
-      <c r="C117" t="s" s="6">
-        <v>294</v>
-      </c>
-      <c r="D117" s="7">
-        <v>42300</v>
-      </c>
-      <c r="E117" t="s" s="6">
-        <v>298</v>
-      </c>
+      <c r="A117" s="5"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="6"/>
       <c r="F117" s="7"/>
     </row>
     <row r="118" ht="17" customHeight="1">
-      <c r="A118" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B118" t="s" s="6">
-        <v>299</v>
-      </c>
-      <c r="C118" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="D118" s="7">
-        <v>7500</v>
-      </c>
-      <c r="E118" t="s" s="6">
-        <v>300</v>
-      </c>
+      <c r="A118" s="5"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="6"/>
       <c r="F118" s="7"/>
     </row>
     <row r="119" ht="17" customHeight="1">
-      <c r="A119" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B119" t="s" s="6">
-        <v>107</v>
-      </c>
-      <c r="C119" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D119" s="7">
-        <v>5000</v>
-      </c>
-      <c r="E119" t="s" s="6">
-        <v>108</v>
-      </c>
+      <c r="A119" s="5"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="6"/>
       <c r="F119" s="7"/>
     </row>
     <row r="120" ht="17" customHeight="1">
-      <c r="A120" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B120" t="s" s="6">
-        <v>109</v>
-      </c>
-      <c r="C120" t="s" s="6">
-        <v>301</v>
-      </c>
-      <c r="D120" s="7">
-        <v>200000</v>
-      </c>
-      <c r="E120" t="s" s="6">
-        <v>111</v>
-      </c>
+      <c r="A120" s="5"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="6"/>
       <c r="F120" s="7"/>
     </row>
     <row r="121" ht="17" customHeight="1">
-      <c r="A121" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B121" t="s" s="6">
-        <v>115</v>
-      </c>
-      <c r="C121" t="s" s="6">
-        <v>116</v>
-      </c>
-      <c r="D121" s="7">
-        <v>200000</v>
-      </c>
-      <c r="E121" t="s" s="6">
-        <v>302</v>
-      </c>
+      <c r="A121" s="5"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="6"/>
       <c r="F121" s="7"/>
     </row>
     <row r="122" ht="17" customHeight="1">
-      <c r="A122" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B122" t="s" s="6">
-        <v>115</v>
-      </c>
-      <c r="C122" t="s" s="6">
-        <v>118</v>
-      </c>
-      <c r="D122" s="7">
-        <v>8500</v>
-      </c>
-      <c r="E122" t="s" s="6">
-        <v>119</v>
-      </c>
+      <c r="A122" s="5"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="6"/>
       <c r="F122" s="7"/>
     </row>
     <row r="123" ht="17" customHeight="1">
-      <c r="A123" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B123" t="s" s="6">
-        <v>303</v>
-      </c>
-      <c r="C123" t="s" s="6">
-        <v>304</v>
-      </c>
-      <c r="D123" s="7">
-        <v>59536.31</v>
-      </c>
-      <c r="E123" t="s" s="6">
-        <v>305</v>
-      </c>
+      <c r="A123" s="5"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="6"/>
       <c r="F123" s="7"/>
     </row>
     <row r="124" ht="17" customHeight="1">
-      <c r="A124" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B124" t="s" s="6">
-        <v>306</v>
-      </c>
-      <c r="C124" t="s" s="6">
-        <v>200</v>
-      </c>
-      <c r="D124" s="7">
-        <v>42300</v>
-      </c>
-      <c r="E124" t="s" s="6">
-        <v>307</v>
-      </c>
+      <c r="A124" s="5"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="6"/>
       <c r="F124" s="7"/>
     </row>
     <row r="125" ht="17" customHeight="1">
-      <c r="A125" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B125" t="s" s="6">
-        <v>137</v>
-      </c>
-      <c r="C125" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D125" s="7">
-        <v>21200</v>
-      </c>
-      <c r="E125" t="s" s="6">
-        <v>138</v>
-      </c>
+      <c r="A125" s="5"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="6"/>
       <c r="F125" s="7"/>
     </row>
     <row r="126" ht="17" customHeight="1">
-      <c r="A126" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B126" t="s" s="6">
-        <v>308</v>
-      </c>
-      <c r="C126" t="s" s="6">
-        <v>309</v>
-      </c>
-      <c r="D126" s="7">
-        <v>21200</v>
-      </c>
-      <c r="E126" t="s" s="6">
-        <v>310</v>
-      </c>
+      <c r="A126" s="5"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="6"/>
       <c r="F126" s="7"/>
     </row>
     <row r="127" ht="17" customHeight="1">
-      <c r="A127" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B127" t="s" s="6">
-        <v>311</v>
-      </c>
-      <c r="C127" t="s" s="6">
-        <v>200</v>
-      </c>
-      <c r="D127" s="7">
-        <v>2500</v>
-      </c>
-      <c r="E127" t="s" s="6">
-        <v>312</v>
-      </c>
+      <c r="A127" s="5"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="6"/>
       <c r="F127" s="7"/>
     </row>
     <row r="128" ht="17" customHeight="1">
-      <c r="A128" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B128" t="s" s="6">
-        <v>313</v>
-      </c>
-      <c r="C128" t="s" s="6">
-        <v>146</v>
-      </c>
-      <c r="D128" s="7">
-        <v>42300</v>
-      </c>
-      <c r="E128" t="s" s="6">
-        <v>147</v>
-      </c>
+      <c r="A128" s="5"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="6"/>
       <c r="F128" s="7"/>
     </row>
     <row r="129" ht="17" customHeight="1">
-      <c r="A129" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B129" t="s" s="6">
-        <v>314</v>
-      </c>
-      <c r="C129" t="s" s="6">
-        <v>142</v>
-      </c>
-      <c r="D129" s="7">
-        <v>33900</v>
-      </c>
-      <c r="E129" t="s" s="6">
-        <v>315</v>
-      </c>
+      <c r="A129" s="5"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="6"/>
       <c r="F129" s="7"/>
     </row>
     <row r="130" ht="17" customHeight="1">
-      <c r="A130" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B130" t="s" s="6">
-        <v>316</v>
-      </c>
-      <c r="C130" t="s" s="6">
-        <v>42</v>
-      </c>
-      <c r="D130" s="7">
-        <v>42300</v>
-      </c>
-      <c r="E130" t="s" s="6">
-        <v>317</v>
-      </c>
+      <c r="A130" s="5"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="6"/>
       <c r="F130" s="7"/>
     </row>
     <row r="131" ht="17" customHeight="1">
-      <c r="A131" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B131" t="s" s="6">
-        <v>318</v>
-      </c>
-      <c r="C131" t="s" s="6">
-        <v>319</v>
-      </c>
-      <c r="D131" s="7">
-        <v>29763.69</v>
-      </c>
-      <c r="E131" t="s" s="6">
-        <v>320</v>
-      </c>
+      <c r="A131" s="5"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="6"/>
       <c r="F131" s="7"/>
     </row>
     <row r="132" ht="17" customHeight="1">
-      <c r="A132" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B132" t="s" s="6">
-        <v>321</v>
-      </c>
-      <c r="C132" t="s" s="6">
-        <v>322</v>
-      </c>
-      <c r="D132" s="7">
-        <v>211700</v>
-      </c>
-      <c r="E132" t="s" s="6">
-        <v>164</v>
-      </c>
+      <c r="A132" s="5"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="6"/>
       <c r="F132" s="7"/>
     </row>
     <row r="133" ht="17" customHeight="1">
-      <c r="A133" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B133" t="s" s="6">
-        <v>323</v>
-      </c>
-      <c r="C133" t="s" s="6">
-        <v>324</v>
-      </c>
-      <c r="D133" s="7">
-        <v>70000</v>
-      </c>
-      <c r="E133" t="s" s="6">
-        <v>325</v>
-      </c>
+      <c r="A133" s="5"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="6"/>
       <c r="F133" s="7"/>
     </row>
     <row r="134" ht="17" customHeight="1">
-      <c r="A134" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B134" t="s" s="6">
-        <v>168</v>
-      </c>
-      <c r="C134" t="s" s="6">
-        <v>151</v>
-      </c>
-      <c r="D134" s="7">
-        <v>8500</v>
-      </c>
-      <c r="E134" t="s" s="6">
-        <v>170</v>
-      </c>
+      <c r="A134" s="5"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="6"/>
       <c r="F134" s="7"/>
     </row>
     <row r="135" ht="17" customHeight="1">
-      <c r="A135" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B135" t="s" s="6">
-        <v>326</v>
-      </c>
-      <c r="C135" t="s" s="6">
-        <v>327</v>
-      </c>
-      <c r="D135" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E135" t="s" s="6">
-        <v>328</v>
-      </c>
+      <c r="A135" s="5"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="6"/>
       <c r="F135" s="7"/>
     </row>
     <row r="136" ht="17" customHeight="1">
-      <c r="A136" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B136" t="s" s="6">
-        <v>329</v>
-      </c>
-      <c r="C136" t="s" s="6">
-        <v>330</v>
-      </c>
-      <c r="D136" s="7">
-        <v>12700</v>
-      </c>
-      <c r="E136" t="s" s="6">
-        <v>179</v>
-      </c>
+      <c r="A136" s="5"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="6"/>
       <c r="F136" s="7"/>
     </row>
     <row r="137" ht="17" customHeight="1">
-      <c r="A137" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B137" t="s" s="6">
-        <v>331</v>
-      </c>
-      <c r="C137" t="s" s="6">
-        <v>332</v>
-      </c>
-      <c r="D137" s="7">
-        <v>21200</v>
-      </c>
-      <c r="E137" t="s" s="6">
-        <v>333</v>
-      </c>
+      <c r="A137" s="5"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="6"/>
       <c r="F137" s="7"/>
     </row>
     <row r="138" ht="17" customHeight="1">
-      <c r="A138" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B138" t="s" s="6">
-        <v>334</v>
-      </c>
-      <c r="C138" t="s" s="6">
-        <v>335</v>
-      </c>
-      <c r="D138" s="7">
-        <v>42300</v>
-      </c>
-      <c r="E138" t="s" s="6">
-        <v>336</v>
-      </c>
+      <c r="A138" s="5"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="6"/>
       <c r="F138" s="7"/>
     </row>
     <row r="139" ht="17" customHeight="1">
-      <c r="A139" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B139" t="s" s="6">
-        <v>180</v>
-      </c>
-      <c r="C139" t="s" s="6">
-        <v>103</v>
-      </c>
-      <c r="D139" s="7">
-        <v>84700</v>
-      </c>
-      <c r="E139" t="s" s="6">
-        <v>182</v>
-      </c>
+      <c r="A139" s="5"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="6"/>
       <c r="F139" s="7"/>
     </row>
     <row r="140" ht="17" customHeight="1">
-      <c r="A140" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B140" t="s" s="6">
-        <v>337</v>
-      </c>
-      <c r="C140" t="s" s="6">
-        <v>62</v>
-      </c>
-      <c r="D140" s="7">
-        <v>42300</v>
-      </c>
-      <c r="E140" t="s" s="6">
-        <v>338</v>
-      </c>
+      <c r="A140" s="5"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="6"/>
       <c r="F140" s="7"/>
     </row>
     <row r="141" ht="17" customHeight="1">
-      <c r="A141" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B141" t="s" s="6">
-        <v>339</v>
-      </c>
-      <c r="C141" t="s" s="6">
-        <v>288</v>
-      </c>
-      <c r="D141" s="7">
-        <v>16900</v>
-      </c>
-      <c r="E141" t="s" s="6">
-        <v>340</v>
-      </c>
+      <c r="A141" s="5"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="6"/>
       <c r="F141" s="7"/>
     </row>
     <row r="142" ht="17" customHeight="1">
-      <c r="A142" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B142" t="s" s="6">
-        <v>191</v>
-      </c>
-      <c r="C142" t="s" s="6">
-        <v>192</v>
-      </c>
-      <c r="D142" s="7">
-        <v>169400</v>
-      </c>
-      <c r="E142" t="s" s="6">
-        <v>193</v>
-      </c>
+      <c r="A142" s="5"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="6"/>
       <c r="F142" s="7"/>
     </row>
     <row r="143" ht="17" customHeight="1">
-      <c r="A143" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B143" t="s" s="6">
-        <v>194</v>
-      </c>
-      <c r="C143" t="s" s="6">
-        <v>195</v>
-      </c>
-      <c r="D143" s="7">
-        <v>84700</v>
-      </c>
-      <c r="E143" t="s" s="6">
-        <v>196</v>
-      </c>
+      <c r="A143" s="5"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="6"/>
       <c r="F143" s="7"/>
     </row>
     <row r="144" ht="17" customHeight="1">
-      <c r="A144" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B144" t="s" s="6">
-        <v>341</v>
-      </c>
-      <c r="C144" t="s" s="6">
-        <v>342</v>
-      </c>
-      <c r="D144" s="7">
-        <v>29600</v>
-      </c>
-      <c r="E144" t="s" s="6">
-        <v>343</v>
-      </c>
+      <c r="A144" s="5"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="6"/>
       <c r="F144" s="7"/>
     </row>
     <row r="145" ht="17" customHeight="1">
-      <c r="A145" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B145" t="s" s="6">
-        <v>208</v>
-      </c>
-      <c r="C145" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="D145" s="7">
-        <v>42300</v>
-      </c>
-      <c r="E145" t="s" s="6">
-        <v>209</v>
-      </c>
+      <c r="A145" s="5"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="6"/>
       <c r="F145" s="7"/>
     </row>
     <row r="146" ht="17" customHeight="1">
-      <c r="A146" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B146" t="s" s="6">
-        <v>344</v>
-      </c>
-      <c r="C146" t="s" s="6">
-        <v>345</v>
-      </c>
-      <c r="D146" s="7">
-        <v>21200</v>
-      </c>
-      <c r="E146" t="s" s="6">
-        <v>346</v>
-      </c>
+      <c r="A146" s="5"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="6"/>
       <c r="F146" s="7"/>
     </row>
     <row r="147" ht="17" customHeight="1">
-      <c r="A147" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B147" t="s" s="6">
-        <v>347</v>
-      </c>
-      <c r="C147" t="s" s="6">
-        <v>348</v>
-      </c>
-      <c r="D147" s="7">
-        <v>84700</v>
-      </c>
-      <c r="E147" t="s" s="6">
-        <v>349</v>
-      </c>
+      <c r="A147" s="5"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="6"/>
       <c r="F147" s="7"/>
     </row>
     <row r="148" ht="17" customHeight="1">
-      <c r="A148" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B148" t="s" s="6">
-        <v>350</v>
-      </c>
-      <c r="C148" t="s" s="6">
-        <v>351</v>
-      </c>
-      <c r="D148" s="7">
-        <v>220000</v>
-      </c>
-      <c r="E148" t="s" s="6">
-        <v>352</v>
-      </c>
+      <c r="A148" s="5"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="6"/>
       <c r="F148" s="7"/>
     </row>
     <row r="149" ht="17" customHeight="1">
-      <c r="A149" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B149" t="s" s="6">
-        <v>353</v>
-      </c>
-      <c r="C149" t="s" s="6">
-        <v>62</v>
-      </c>
-      <c r="D149" s="7">
-        <v>42300</v>
-      </c>
-      <c r="E149" t="s" s="6">
-        <v>354</v>
-      </c>
+      <c r="A149" s="5"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="6"/>
       <c r="F149" s="7"/>
     </row>
     <row r="150" ht="17" customHeight="1">
-      <c r="A150" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B150" t="s" s="6">
-        <v>224</v>
-      </c>
-      <c r="C150" t="s" s="6">
-        <v>355</v>
-      </c>
-      <c r="D150" s="7">
-        <v>7500</v>
-      </c>
-      <c r="E150" t="s" s="6">
-        <v>356</v>
-      </c>
+      <c r="A150" s="5"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="6"/>
       <c r="F150" s="7"/>
     </row>
     <row r="151" ht="17" customHeight="1">
-      <c r="A151" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B151" t="s" s="6">
-        <v>357</v>
-      </c>
-      <c r="C151" t="s" s="6">
-        <v>228</v>
-      </c>
-      <c r="D151" s="7">
-        <v>84700</v>
-      </c>
-      <c r="E151" t="s" s="6">
-        <v>358</v>
-      </c>
+      <c r="A151" s="5"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="6"/>
       <c r="F151" s="7"/>
     </row>
     <row r="152" ht="17" customHeight="1">
-      <c r="A152" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B152" t="s" s="6">
-        <v>359</v>
-      </c>
-      <c r="C152" t="s" s="6">
-        <v>360</v>
-      </c>
-      <c r="D152" s="7">
-        <v>84700</v>
-      </c>
-      <c r="E152" t="s" s="6">
-        <v>361</v>
-      </c>
+      <c r="A152" s="5"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="6"/>
       <c r="F152" s="7"/>
     </row>
     <row r="153" ht="17" customHeight="1">
-      <c r="A153" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B153" t="s" s="6">
-        <v>236</v>
-      </c>
-      <c r="C153" t="s" s="6">
-        <v>237</v>
-      </c>
-      <c r="D153" s="7">
-        <v>21200</v>
-      </c>
-      <c r="E153" t="s" s="6">
-        <v>238</v>
-      </c>
+      <c r="A153" s="5"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="6"/>
       <c r="F153" s="7"/>
     </row>
     <row r="154" ht="17" customHeight="1">
-      <c r="A154" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B154" t="s" s="6">
-        <v>362</v>
-      </c>
-      <c r="C154" t="s" s="6">
-        <v>363</v>
-      </c>
-      <c r="D154" s="7">
-        <v>21200</v>
-      </c>
-      <c r="E154" t="s" s="6">
-        <v>364</v>
-      </c>
+      <c r="A154" s="5"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="6"/>
       <c r="F154" s="7"/>
     </row>
     <row r="155" ht="17" customHeight="1">
-      <c r="A155" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B155" t="s" s="6">
-        <v>365</v>
-      </c>
-      <c r="C155" t="s" s="6">
-        <v>366</v>
-      </c>
-      <c r="D155" s="7">
-        <v>2500</v>
-      </c>
-      <c r="E155" t="s" s="6">
-        <v>367</v>
-      </c>
+      <c r="A155" s="5"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="6"/>
       <c r="F155" s="7"/>
     </row>
     <row r="156" ht="17" customHeight="1">
-      <c r="A156" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B156" t="s" s="6">
-        <v>368</v>
-      </c>
-      <c r="C156" t="s" s="6">
-        <v>369</v>
-      </c>
-      <c r="D156" s="7">
-        <v>7500</v>
-      </c>
-      <c r="E156" t="s" s="6">
-        <v>370</v>
-      </c>
+      <c r="A156" s="5"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="6"/>
       <c r="F156" s="7"/>
     </row>
     <row r="157" ht="17" customHeight="1">
-      <c r="A157" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B157" t="s" s="6">
-        <v>248</v>
-      </c>
-      <c r="C157" t="s" s="6">
-        <v>249</v>
-      </c>
-      <c r="D157" s="7">
-        <v>29600</v>
-      </c>
-      <c r="E157" t="s" s="6">
-        <v>250</v>
-      </c>
+      <c r="A157" s="5"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="6"/>
       <c r="F157" s="7"/>
     </row>
     <row r="158" ht="17" customHeight="1">
-      <c r="A158" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="B158" t="s" s="6">
-        <v>371</v>
-      </c>
-      <c r="C158" t="s" s="6">
-        <v>372</v>
-      </c>
-      <c r="D158" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E158" t="s" s="6">
-        <v>373</v>
-      </c>
+      <c r="A158" s="5"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="6"/>
       <c r="F158" s="7"/>
     </row>
     <row r="159" ht="17" customHeight="1">
-      <c r="A159" t="s" s="8">
-        <v>374</v>
-      </c>
-      <c r="B159" t="s" s="6">
-        <v>375</v>
-      </c>
-      <c r="C159" t="s" s="6">
-        <v>376</v>
-      </c>
-      <c r="D159" s="7">
-        <v>779111</v>
-      </c>
-      <c r="E159" t="s" s="6">
-        <v>377</v>
-      </c>
+      <c r="A159" s="9"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="6"/>
       <c r="F159" s="7"/>
     </row>
     <row r="160" ht="17" customHeight="1">
-      <c r="A160" t="s" s="8">
-        <v>374</v>
-      </c>
-      <c r="B160" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="C160" t="s" s="6">
-        <v>378</v>
-      </c>
-      <c r="D160" s="7">
-        <v>1025779</v>
-      </c>
-      <c r="E160" t="s" s="6">
-        <v>379</v>
-      </c>
+      <c r="A160" s="9"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="6"/>
       <c r="F160" s="7"/>
     </row>
     <row r="161" ht="17" customHeight="1">
-      <c r="A161" t="s" s="8">
-        <v>374</v>
-      </c>
-      <c r="B161" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="C161" t="s" s="6">
-        <v>378</v>
-      </c>
-      <c r="D161" s="7">
-        <v>389555</v>
-      </c>
-      <c r="E161" t="s" s="6">
-        <v>380</v>
-      </c>
+      <c r="A161" s="9"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="6"/>
       <c r="F161" s="7"/>
     </row>
     <row r="162" ht="17" customHeight="1">
-      <c r="A162" t="s" s="8">
-        <v>374</v>
-      </c>
-      <c r="B162" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="C162" t="s" s="6">
-        <v>378</v>
-      </c>
-      <c r="D162" s="7">
-        <v>389555</v>
-      </c>
-      <c r="E162" t="s" s="6">
-        <v>381</v>
-      </c>
+      <c r="A162" s="9"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="6"/>
       <c r="F162" s="7"/>
     </row>
     <row r="163" ht="17" customHeight="1">
-      <c r="A163" t="s" s="8">
-        <v>374</v>
-      </c>
-      <c r="B163" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="C163" t="s" s="6">
-        <v>378</v>
-      </c>
-      <c r="D163" s="7">
-        <v>2500</v>
-      </c>
-      <c r="E163" t="s" s="6">
-        <v>382</v>
-      </c>
+      <c r="A163" s="9"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="6"/>
       <c r="F163" s="7"/>
     </row>
     <row r="164" ht="17" customHeight="1">
-      <c r="A164" t="s" s="8">
-        <v>374</v>
-      </c>
-      <c r="B164" t="s" s="6">
-        <v>282</v>
-      </c>
-      <c r="C164" t="s" s="6">
-        <v>283</v>
-      </c>
-      <c r="D164" s="7">
-        <v>200000</v>
-      </c>
-      <c r="E164" t="s" s="6">
-        <v>383</v>
-      </c>
+      <c r="A164" s="9"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="6"/>
       <c r="F164" s="7"/>
     </row>
     <row r="165" ht="17" customHeight="1">
-      <c r="A165" t="s" s="8">
-        <v>374</v>
-      </c>
-      <c r="B165" t="s" s="6">
-        <v>384</v>
-      </c>
-      <c r="C165" t="s" s="6">
-        <v>385</v>
-      </c>
-      <c r="D165" s="7">
-        <v>7500</v>
-      </c>
-      <c r="E165" t="s" s="6">
-        <v>386</v>
-      </c>
+      <c r="A165" s="9"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="6"/>
       <c r="F165" s="7"/>
     </row>
     <row r="166" ht="17" customHeight="1">
-      <c r="A166" t="s" s="8">
-        <v>374</v>
-      </c>
-      <c r="B166" t="s" s="6">
-        <v>107</v>
-      </c>
-      <c r="C166" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D166" s="7">
-        <v>5000</v>
-      </c>
-      <c r="E166" t="s" s="6">
-        <v>108</v>
-      </c>
+      <c r="A166" s="9"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="6"/>
       <c r="F166" s="7"/>
     </row>
     <row r="167" ht="17" customHeight="1">
-      <c r="A167" t="s" s="8">
-        <v>374</v>
-      </c>
-      <c r="B167" t="s" s="6">
-        <v>109</v>
-      </c>
-      <c r="C167" t="s" s="6">
-        <v>110</v>
-      </c>
-      <c r="D167" s="7">
-        <v>66169.98</v>
-      </c>
-      <c r="E167" t="s" s="6">
-        <v>111</v>
-      </c>
+      <c r="A167" s="9"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="6"/>
       <c r="F167" s="7"/>
     </row>
     <row r="168" ht="17" customHeight="1">
-      <c r="A168" t="s" s="8">
-        <v>374</v>
-      </c>
-      <c r="B168" t="s" s="6">
-        <v>306</v>
-      </c>
-      <c r="C168" t="s" s="6">
-        <v>132</v>
-      </c>
-      <c r="D168" s="7">
-        <v>2500</v>
-      </c>
-      <c r="E168" t="s" s="6">
-        <v>133</v>
-      </c>
+      <c r="A168" s="9"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="6"/>
       <c r="F168" s="7"/>
     </row>
     <row r="169" ht="17" customHeight="1">
-      <c r="A169" t="s" s="8">
-        <v>374</v>
-      </c>
-      <c r="B169" t="s" s="6">
-        <v>313</v>
-      </c>
-      <c r="C169" t="s" s="6">
-        <v>387</v>
-      </c>
-      <c r="D169" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E169" t="s" s="6">
-        <v>147</v>
-      </c>
+      <c r="A169" s="9"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="6"/>
       <c r="F169" s="7"/>
     </row>
     <row r="170" ht="17" customHeight="1">
-      <c r="A170" t="s" s="8">
-        <v>374</v>
-      </c>
-      <c r="B170" t="s" s="6">
-        <v>388</v>
-      </c>
-      <c r="C170" t="s" s="6">
-        <v>389</v>
-      </c>
-      <c r="D170" s="7">
-        <v>33080.02</v>
-      </c>
-      <c r="E170" t="s" s="6">
-        <v>390</v>
-      </c>
+      <c r="A170" s="9"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="6"/>
       <c r="F170" s="7"/>
     </row>
     <row r="171" ht="17" customHeight="1">
-      <c r="A171" t="s" s="8">
-        <v>374</v>
-      </c>
-      <c r="B171" t="s" s="6">
-        <v>321</v>
-      </c>
-      <c r="C171" t="s" s="6">
-        <v>391</v>
-      </c>
-      <c r="D171" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E171" t="s" s="6">
-        <v>392</v>
-      </c>
+      <c r="A171" s="9"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="6"/>
       <c r="F171" s="7"/>
     </row>
     <row r="172" ht="17" customHeight="1">
-      <c r="A172" t="s" s="8">
-        <v>374</v>
-      </c>
-      <c r="B172" t="s" s="6">
-        <v>329</v>
-      </c>
-      <c r="C172" t="s" s="6">
-        <v>330</v>
-      </c>
-      <c r="D172" s="7">
-        <v>3750</v>
-      </c>
-      <c r="E172" t="s" s="6">
-        <v>179</v>
-      </c>
+      <c r="A172" s="9"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="6"/>
       <c r="F172" s="7"/>
     </row>
     <row r="173" ht="17" customHeight="1">
-      <c r="A173" t="s" s="8">
-        <v>374</v>
-      </c>
-      <c r="B173" t="s" s="6">
-        <v>202</v>
-      </c>
-      <c r="C173" t="s" s="6">
-        <v>203</v>
-      </c>
-      <c r="D173" s="7">
-        <v>7500</v>
-      </c>
-      <c r="E173" t="s" s="6">
-        <v>204</v>
-      </c>
+      <c r="A173" s="9"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="6"/>
       <c r="F173" s="7"/>
     </row>
     <row r="174" ht="17" customHeight="1">
-      <c r="A174" t="s" s="8">
-        <v>374</v>
-      </c>
-      <c r="B174" t="s" s="6">
-        <v>357</v>
-      </c>
-      <c r="C174" t="s" s="6">
-        <v>228</v>
-      </c>
-      <c r="D174" s="7">
-        <v>3000</v>
-      </c>
-      <c r="E174" t="s" s="6">
-        <v>358</v>
-      </c>
+      <c r="A174" s="9"/>
+      <c r="B174" s="6"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="6"/>
       <c r="F174" s="7"/>
     </row>
     <row r="175" ht="17" customHeight="1">
-      <c r="A175" t="s" s="8">
-        <v>374</v>
-      </c>
-      <c r="B175" t="s" s="6">
-        <v>368</v>
-      </c>
-      <c r="C175" t="s" s="6">
-        <v>369</v>
-      </c>
-      <c r="D175" s="7">
-        <v>15000</v>
-      </c>
-      <c r="E175" t="s" s="6">
-        <v>370</v>
-      </c>
+      <c r="A175" s="9"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="6"/>
       <c r="F175" s="7"/>
     </row>
     <row r="176" ht="17" customHeight="1">
-      <c r="A176" t="s" s="8">
-        <v>374</v>
-      </c>
-      <c r="B176" t="s" s="6">
-        <v>248</v>
-      </c>
-      <c r="C176" t="s" s="6">
-        <v>249</v>
-      </c>
-      <c r="D176" s="7">
-        <v>300000</v>
-      </c>
-      <c r="E176" t="s" s="6">
-        <v>250</v>
-      </c>
+      <c r="A176" s="9"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="6"/>
       <c r="F176" s="7"/>
     </row>
     <row r="177" ht="17" customHeight="1">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
-      <c r="D177" s="9"/>
-      <c r="E177" s="11"/>
-      <c r="F177" s="12"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="14"/>
     </row>
     <row r="178" ht="17" customHeight="1">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
-      <c r="D178" s="9"/>
+      <c r="D178" s="10"/>
       <c r="E178" s="6"/>
-      <c r="F178" s="13"/>
+      <c r="F178" s="15"/>
     </row>
     <row r="179" ht="17" customHeight="1">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
-      <c r="D179" s="9"/>
-      <c r="E179" s="11"/>
-      <c r="F179" s="13"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="15"/>
     </row>
     <row r="180" ht="17" customHeight="1">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
-      <c r="D180" s="9"/>
-      <c r="E180" s="11"/>
-      <c r="F180" s="13"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="15"/>
     </row>
     <row r="181" ht="17" customHeight="1">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
-      <c r="D181" s="9"/>
-      <c r="E181" s="11"/>
-      <c r="F181" s="13"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="15"/>
     </row>
     <row r="182" ht="17" customHeight="1">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
-      <c r="D182" s="9"/>
-      <c r="E182" s="11"/>
-      <c r="F182" s="13"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="15"/>
     </row>
     <row r="183" ht="17" customHeight="1">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
-      <c r="D183" s="9"/>
-      <c r="E183" s="11"/>
-      <c r="F183" s="13"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="13"/>
+      <c r="F183" s="15"/>
     </row>
     <row r="184" ht="17" customHeight="1">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
-      <c r="D184" s="9"/>
-      <c r="E184" s="11"/>
-      <c r="F184" s="13"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="15"/>
     </row>
     <row r="185" ht="17" customHeight="1">
-      <c r="A185" s="14"/>
-      <c r="B185" s="15"/>
-      <c r="C185" s="15"/>
-      <c r="D185" s="9"/>
-      <c r="E185" s="16"/>
-      <c r="F185" s="13"/>
+      <c r="A185" s="16"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="17"/>
+      <c r="F185" s="15"/>
     </row>
     <row r="186" ht="17" customHeight="1">
-      <c r="A186" s="14"/>
-      <c r="B186" s="15"/>
-      <c r="C186" s="15"/>
-      <c r="D186" s="9"/>
-      <c r="E186" s="16"/>
-      <c r="F186" s="13"/>
+      <c r="A186" s="16"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="15"/>
     </row>
     <row r="187" ht="17" customHeight="1">
-      <c r="A187" s="14"/>
-      <c r="B187" s="15"/>
-      <c r="C187" s="15"/>
-      <c r="D187" s="9"/>
-      <c r="E187" s="16"/>
-      <c r="F187" s="13"/>
+      <c r="A187" s="16"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="17"/>
+      <c r="F187" s="15"/>
     </row>
     <row r="188" ht="17" customHeight="1">
-      <c r="A188" s="14"/>
-      <c r="B188" s="15"/>
-      <c r="C188" s="15"/>
-      <c r="D188" s="9"/>
-      <c r="E188" s="16"/>
-      <c r="F188" s="13"/>
+      <c r="A188" s="16"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="17"/>
+      <c r="F188" s="15"/>
     </row>
     <row r="189" ht="17" customHeight="1">
-      <c r="A189" s="14"/>
-      <c r="B189" s="15"/>
-      <c r="C189" s="15"/>
-      <c r="D189" s="9"/>
-      <c r="E189" s="16"/>
-      <c r="F189" s="13"/>
+      <c r="A189" s="16"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="17"/>
+      <c r="F189" s="15"/>
     </row>
     <row r="190" ht="17" customHeight="1">
-      <c r="A190" s="14"/>
-      <c r="B190" s="15"/>
-      <c r="C190" s="15"/>
-      <c r="D190" s="9"/>
-      <c r="E190" s="16"/>
-      <c r="F190" s="13"/>
+      <c r="A190" s="16"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="17"/>
+      <c r="F190" s="15"/>
     </row>
     <row r="191" ht="17" customHeight="1">
-      <c r="A191" s="14"/>
-      <c r="B191" s="15"/>
-      <c r="C191" s="15"/>
-      <c r="D191" s="9"/>
-      <c r="E191" s="16"/>
-      <c r="F191" s="13"/>
+      <c r="A191" s="16"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="17"/>
+      <c r="F191" s="15"/>
     </row>
     <row r="192" ht="17" customHeight="1">
-      <c r="A192" s="14"/>
-      <c r="B192" s="15"/>
-      <c r="C192" s="15"/>
-      <c r="D192" s="9"/>
-      <c r="E192" s="16"/>
-      <c r="F192" s="13"/>
+      <c r="A192" s="16"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="17"/>
+      <c r="F192" s="15"/>
     </row>
     <row r="193" ht="17" customHeight="1">
-      <c r="A193" s="14"/>
-      <c r="B193" s="15"/>
-      <c r="C193" s="15"/>
-      <c r="D193" s="9"/>
-      <c r="E193" s="16"/>
-      <c r="F193" s="13"/>
+      <c r="A193" s="16"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="17"/>
+      <c r="F193" s="15"/>
     </row>
     <row r="194" ht="17" customHeight="1">
-      <c r="A194" s="14"/>
-      <c r="B194" s="15"/>
-      <c r="C194" s="15"/>
-      <c r="D194" s="9"/>
-      <c r="E194" s="16"/>
-      <c r="F194" s="13"/>
+      <c r="A194" s="16"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="8"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="17"/>
+      <c r="F194" s="15"/>
     </row>
     <row r="195" ht="17" customHeight="1">
-      <c r="A195" s="14"/>
-      <c r="B195" s="15"/>
-      <c r="C195" s="15"/>
-      <c r="D195" s="9"/>
-      <c r="E195" s="16"/>
-      <c r="F195" s="13"/>
+      <c r="A195" s="16"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="8"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="17"/>
+      <c r="F195" s="15"/>
     </row>
     <row r="196" ht="17" customHeight="1">
-      <c r="A196" s="14"/>
-      <c r="B196" s="15"/>
-      <c r="C196" s="15"/>
-      <c r="D196" s="9"/>
-      <c r="E196" s="16"/>
-      <c r="F196" s="13"/>
+      <c r="A196" s="16"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="17"/>
+      <c r="F196" s="15"/>
     </row>
     <row r="197" ht="17" customHeight="1">
-      <c r="A197" s="14"/>
-      <c r="B197" s="15"/>
-      <c r="C197" s="15"/>
-      <c r="D197" s="9"/>
-      <c r="E197" s="16"/>
-      <c r="F197" s="13"/>
+      <c r="A197" s="16"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="8"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="17"/>
+      <c r="F197" s="15"/>
     </row>
     <row r="198" ht="17" customHeight="1">
-      <c r="A198" s="14"/>
-      <c r="B198" s="15"/>
-      <c r="C198" s="15"/>
-      <c r="D198" s="9"/>
-      <c r="E198" s="16"/>
-      <c r="F198" s="13"/>
+      <c r="A198" s="16"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="17"/>
+      <c r="F198" s="15"/>
     </row>
     <row r="199" ht="17" customHeight="1">
-      <c r="A199" s="14"/>
-      <c r="B199" s="15"/>
-      <c r="C199" s="15"/>
-      <c r="D199" s="9"/>
-      <c r="E199" s="16"/>
-      <c r="F199" s="13"/>
+      <c r="A199" s="16"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="8"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="15"/>
     </row>
     <row r="200" ht="17" customHeight="1">
-      <c r="A200" s="14"/>
-      <c r="B200" s="15"/>
-      <c r="C200" s="15"/>
-      <c r="D200" s="9"/>
-      <c r="E200" s="16"/>
-      <c r="F200" s="13"/>
+      <c r="A200" s="16"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="8"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="17"/>
+      <c r="F200" s="15"/>
     </row>
     <row r="201" ht="17" customHeight="1">
-      <c r="A201" s="14"/>
-      <c r="B201" s="15"/>
-      <c r="C201" s="15"/>
-      <c r="D201" s="9"/>
-      <c r="E201" s="16"/>
-      <c r="F201" s="13"/>
+      <c r="A201" s="16"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="8"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="17"/>
+      <c r="F201" s="15"/>
     </row>
     <row r="202" ht="17" customHeight="1">
-      <c r="A202" s="14"/>
-      <c r="B202" s="15"/>
-      <c r="C202" s="15"/>
-      <c r="D202" s="9"/>
-      <c r="E202" s="16"/>
-      <c r="F202" s="13"/>
+      <c r="A202" s="16"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="17"/>
+      <c r="F202" s="15"/>
     </row>
     <row r="203" ht="17" customHeight="1">
-      <c r="A203" s="14"/>
-      <c r="B203" s="15"/>
-      <c r="C203" s="15"/>
-      <c r="D203" s="9"/>
-      <c r="E203" s="16"/>
-      <c r="F203" s="13"/>
+      <c r="A203" s="16"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="8"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="17"/>
+      <c r="F203" s="15"/>
     </row>
     <row r="204" ht="17" customHeight="1">
-      <c r="A204" s="14"/>
-      <c r="B204" s="15"/>
-      <c r="C204" s="15"/>
-      <c r="D204" s="9"/>
-      <c r="E204" s="16"/>
-      <c r="F204" s="13"/>
+      <c r="A204" s="16"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="8"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="17"/>
+      <c r="F204" s="15"/>
     </row>
     <row r="205" ht="17" customHeight="1">
-      <c r="A205" s="14"/>
-      <c r="B205" s="15"/>
-      <c r="C205" s="15"/>
-      <c r="D205" s="9"/>
-      <c r="E205" s="16"/>
-      <c r="F205" s="13"/>
+      <c r="A205" s="16"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="8"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="17"/>
+      <c r="F205" s="15"/>
     </row>
     <row r="206" ht="17" customHeight="1">
-      <c r="A206" s="14"/>
-      <c r="B206" s="15"/>
-      <c r="C206" s="15"/>
-      <c r="D206" s="9"/>
-      <c r="E206" s="16"/>
-      <c r="F206" s="13"/>
+      <c r="A206" s="16"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="8"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="17"/>
+      <c r="F206" s="15"/>
     </row>
     <row r="207" ht="17" customHeight="1">
-      <c r="A207" s="14"/>
-      <c r="B207" s="15"/>
-      <c r="C207" s="15"/>
-      <c r="D207" s="9"/>
-      <c r="E207" s="16"/>
-      <c r="F207" s="13"/>
+      <c r="A207" s="16"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="8"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="17"/>
+      <c r="F207" s="15"/>
     </row>
     <row r="208" ht="17" customHeight="1">
-      <c r="A208" s="14"/>
-      <c r="B208" s="15"/>
-      <c r="C208" s="15"/>
-      <c r="D208" s="9"/>
-      <c r="E208" s="16"/>
-      <c r="F208" s="13"/>
+      <c r="A208" s="16"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="17"/>
+      <c r="F208" s="15"/>
     </row>
     <row r="209" ht="17" customHeight="1">
-      <c r="A209" s="14"/>
-      <c r="B209" s="15"/>
-      <c r="C209" s="15"/>
-      <c r="D209" s="9"/>
-      <c r="E209" s="16"/>
-      <c r="F209" s="13"/>
+      <c r="A209" s="16"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="17"/>
+      <c r="F209" s="15"/>
     </row>
     <row r="210" ht="17" customHeight="1">
-      <c r="A210" s="14"/>
-      <c r="B210" s="15"/>
-      <c r="C210" s="15"/>
-      <c r="D210" s="9"/>
-      <c r="E210" s="16"/>
-      <c r="F210" s="13"/>
+      <c r="A210" s="16"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="8"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="17"/>
+      <c r="F210" s="15"/>
     </row>
     <row r="211" ht="17" customHeight="1">
-      <c r="A211" s="14"/>
-      <c r="B211" s="15"/>
-      <c r="C211" s="15"/>
-      <c r="D211" s="9"/>
-      <c r="E211" s="16"/>
-      <c r="F211" s="13"/>
+      <c r="A211" s="16"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="17"/>
+      <c r="F211" s="15"/>
     </row>
     <row r="212" ht="17" customHeight="1">
-      <c r="A212" s="14"/>
-      <c r="B212" s="15"/>
-      <c r="C212" s="15"/>
-      <c r="D212" s="9"/>
-      <c r="E212" s="16"/>
-      <c r="F212" s="13"/>
+      <c r="A212" s="16"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="8"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="17"/>
+      <c r="F212" s="15"/>
     </row>
     <row r="213" ht="17" customHeight="1">
-      <c r="A213" s="14"/>
-      <c r="B213" s="15"/>
-      <c r="C213" s="15"/>
-      <c r="D213" s="9"/>
-      <c r="E213" s="16"/>
-      <c r="F213" s="13"/>
+      <c r="A213" s="16"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="8"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="17"/>
+      <c r="F213" s="15"/>
     </row>
     <row r="214" ht="17" customHeight="1">
-      <c r="A214" s="17"/>
-      <c r="B214" s="17"/>
-      <c r="C214" s="17"/>
-      <c r="D214" s="17"/>
-      <c r="E214" s="17"/>
-      <c r="F214" s="18"/>
+      <c r="A214" s="18"/>
+      <c r="B214" s="18"/>
+      <c r="C214" s="18"/>
+      <c r="D214" s="18"/>
+      <c r="E214" s="18"/>
+      <c r="F214" s="19"/>
     </row>
     <row r="215" ht="17" customHeight="1">
-      <c r="A215" s="19"/>
-      <c r="B215" s="19"/>
-      <c r="C215" s="19"/>
-      <c r="D215" s="19"/>
-      <c r="E215" s="19"/>
-      <c r="F215" s="18"/>
+      <c r="A215" s="20"/>
+      <c r="B215" s="20"/>
+      <c r="C215" s="20"/>
+      <c r="D215" s="20"/>
+      <c r="E215" s="20"/>
+      <c r="F215" s="19"/>
     </row>
     <row r="216" ht="17" customHeight="1">
-      <c r="A216" s="19"/>
-      <c r="B216" s="19"/>
-      <c r="C216" s="19"/>
-      <c r="D216" s="19"/>
-      <c r="E216" s="19"/>
-      <c r="F216" s="18"/>
+      <c r="A216" s="20"/>
+      <c r="B216" s="20"/>
+      <c r="C216" s="20"/>
+      <c r="D216" s="20"/>
+      <c r="E216" s="20"/>
+      <c r="F216" s="19"/>
     </row>
     <row r="217" ht="17" customHeight="1">
-      <c r="A217" s="19"/>
-      <c r="B217" s="19"/>
-      <c r="C217" s="19"/>
-      <c r="D217" s="19"/>
-      <c r="E217" s="19"/>
-      <c r="F217" s="18"/>
+      <c r="A217" s="20"/>
+      <c r="B217" s="20"/>
+      <c r="C217" s="20"/>
+      <c r="D217" s="20"/>
+      <c r="E217" s="20"/>
+      <c r="F217" s="19"/>
     </row>
     <row r="218" ht="17" customHeight="1">
-      <c r="A218" s="19"/>
-      <c r="B218" s="19"/>
-      <c r="C218" s="19"/>
-      <c r="D218" s="19"/>
-      <c r="E218" s="19"/>
-      <c r="F218" s="18"/>
+      <c r="A218" s="20"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="20"/>
+      <c r="D218" s="20"/>
+      <c r="E218" s="20"/>
+      <c r="F218" s="19"/>
     </row>
     <row r="219" ht="17" customHeight="1">
-      <c r="A219" s="19"/>
-      <c r="B219" s="19"/>
-      <c r="C219" s="19"/>
-      <c r="D219" s="19"/>
-      <c r="E219" s="19"/>
-      <c r="F219" s="18"/>
+      <c r="A219" s="20"/>
+      <c r="B219" s="20"/>
+      <c r="C219" s="20"/>
+      <c r="D219" s="20"/>
+      <c r="E219" s="20"/>
+      <c r="F219" s="19"/>
     </row>
     <row r="220" ht="17" customHeight="1">
-      <c r="A220" s="19"/>
-      <c r="B220" s="19"/>
-      <c r="C220" s="19"/>
-      <c r="D220" s="19"/>
-      <c r="E220" s="19"/>
-      <c r="F220" s="18"/>
+      <c r="A220" s="20"/>
+      <c r="B220" s="20"/>
+      <c r="C220" s="20"/>
+      <c r="D220" s="20"/>
+      <c r="E220" s="20"/>
+      <c r="F220" s="19"/>
     </row>
     <row r="221" ht="17" customHeight="1">
-      <c r="A221" s="19"/>
-      <c r="B221" s="19"/>
-      <c r="C221" s="19"/>
-      <c r="D221" s="19"/>
-      <c r="E221" s="19"/>
-      <c r="F221" s="18"/>
+      <c r="A221" s="20"/>
+      <c r="B221" s="20"/>
+      <c r="C221" s="20"/>
+      <c r="D221" s="20"/>
+      <c r="E221" s="20"/>
+      <c r="F221" s="19"/>
     </row>
     <row r="222" ht="17" customHeight="1">
-      <c r="A222" s="19"/>
-      <c r="B222" s="19"/>
-      <c r="C222" s="19"/>
-      <c r="D222" s="19"/>
-      <c r="E222" s="19"/>
-      <c r="F222" s="18"/>
+      <c r="A222" s="20"/>
+      <c r="B222" s="20"/>
+      <c r="C222" s="20"/>
+      <c r="D222" s="20"/>
+      <c r="E222" s="20"/>
+      <c r="F222" s="19"/>
     </row>
     <row r="223" ht="17" customHeight="1">
-      <c r="A223" s="19"/>
-      <c r="B223" s="19"/>
-      <c r="C223" s="19"/>
-      <c r="D223" s="19"/>
-      <c r="E223" s="19"/>
-      <c r="F223" s="18"/>
+      <c r="A223" s="20"/>
+      <c r="B223" s="20"/>
+      <c r="C223" s="20"/>
+      <c r="D223" s="20"/>
+      <c r="E223" s="20"/>
+      <c r="F223" s="19"/>
     </row>
     <row r="224" ht="17" customHeight="1">
-      <c r="A224" s="19"/>
-      <c r="B224" s="19"/>
-      <c r="C224" s="19"/>
-      <c r="D224" s="19"/>
-      <c r="E224" s="19"/>
-      <c r="F224" s="18"/>
+      <c r="A224" s="20"/>
+      <c r="B224" s="20"/>
+      <c r="C224" s="20"/>
+      <c r="D224" s="20"/>
+      <c r="E224" s="20"/>
+      <c r="F224" s="19"/>
     </row>
     <row r="225" ht="17" customHeight="1">
-      <c r="A225" s="19"/>
-      <c r="B225" s="19"/>
-      <c r="C225" s="19"/>
-      <c r="D225" s="19"/>
-      <c r="E225" s="19"/>
-      <c r="F225" s="18"/>
+      <c r="A225" s="20"/>
+      <c r="B225" s="20"/>
+      <c r="C225" s="20"/>
+      <c r="D225" s="20"/>
+      <c r="E225" s="20"/>
+      <c r="F225" s="19"/>
     </row>
     <row r="226" ht="17" customHeight="1">
-      <c r="A226" s="19"/>
-      <c r="B226" s="19"/>
-      <c r="C226" s="19"/>
-      <c r="D226" s="19"/>
-      <c r="E226" s="19"/>
-      <c r="F226" s="18"/>
+      <c r="A226" s="20"/>
+      <c r="B226" s="20"/>
+      <c r="C226" s="20"/>
+      <c r="D226" s="20"/>
+      <c r="E226" s="20"/>
+      <c r="F226" s="19"/>
     </row>
     <row r="227" ht="17" customHeight="1">
-      <c r="A227" s="19"/>
-      <c r="B227" s="19"/>
-      <c r="C227" s="19"/>
-      <c r="D227" s="19"/>
-      <c r="E227" s="19"/>
-      <c r="F227" s="18"/>
+      <c r="A227" s="20"/>
+      <c r="B227" s="20"/>
+      <c r="C227" s="20"/>
+      <c r="D227" s="20"/>
+      <c r="E227" s="20"/>
+      <c r="F227" s="19"/>
     </row>
     <row r="228" ht="17" customHeight="1">
-      <c r="A228" s="19"/>
-      <c r="B228" s="19"/>
-      <c r="C228" s="19"/>
-      <c r="D228" s="19"/>
-      <c r="E228" s="19"/>
-      <c r="F228" s="18"/>
+      <c r="A228" s="20"/>
+      <c r="B228" s="20"/>
+      <c r="C228" s="20"/>
+      <c r="D228" s="20"/>
+      <c r="E228" s="20"/>
+      <c r="F228" s="19"/>
     </row>
     <row r="229" ht="17" customHeight="1">
-      <c r="A229" s="19"/>
-      <c r="B229" s="19"/>
-      <c r="C229" s="19"/>
-      <c r="D229" s="19"/>
-      <c r="E229" s="19"/>
-      <c r="F229" s="18"/>
+      <c r="A229" s="20"/>
+      <c r="B229" s="20"/>
+      <c r="C229" s="20"/>
+      <c r="D229" s="20"/>
+      <c r="E229" s="20"/>
+      <c r="F229" s="19"/>
     </row>
     <row r="230" ht="17" customHeight="1">
-      <c r="A230" s="19"/>
-      <c r="B230" s="19"/>
-      <c r="C230" s="19"/>
-      <c r="D230" s="19"/>
-      <c r="E230" s="19"/>
-      <c r="F230" s="18"/>
+      <c r="A230" s="20"/>
+      <c r="B230" s="20"/>
+      <c r="C230" s="20"/>
+      <c r="D230" s="20"/>
+      <c r="E230" s="20"/>
+      <c r="F230" s="19"/>
     </row>
     <row r="231" ht="17" customHeight="1">
-      <c r="A231" s="19"/>
-      <c r="B231" s="19"/>
-      <c r="C231" s="19"/>
-      <c r="D231" s="19"/>
-      <c r="E231" s="19"/>
-      <c r="F231" s="18"/>
+      <c r="A231" s="20"/>
+      <c r="B231" s="20"/>
+      <c r="C231" s="20"/>
+      <c r="D231" s="20"/>
+      <c r="E231" s="20"/>
+      <c r="F231" s="19"/>
     </row>
     <row r="232" ht="17" customHeight="1">
-      <c r="A232" s="19"/>
-      <c r="B232" s="19"/>
-      <c r="C232" s="19"/>
-      <c r="D232" s="19"/>
-      <c r="E232" s="19"/>
-      <c r="F232" s="18"/>
+      <c r="A232" s="20"/>
+      <c r="B232" s="20"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="20"/>
+      <c r="E232" s="20"/>
+      <c r="F232" s="19"/>
     </row>
     <row r="233" ht="17" customHeight="1">
-      <c r="A233" s="19"/>
-      <c r="B233" s="19"/>
-      <c r="C233" s="19"/>
-      <c r="D233" s="19"/>
-      <c r="E233" s="19"/>
-      <c r="F233" s="18"/>
+      <c r="A233" s="20"/>
+      <c r="B233" s="20"/>
+      <c r="C233" s="20"/>
+      <c r="D233" s="20"/>
+      <c r="E233" s="20"/>
+      <c r="F233" s="19"/>
     </row>
     <row r="234" ht="17" customHeight="1">
-      <c r="A234" s="19"/>
-      <c r="B234" s="19"/>
-      <c r="C234" s="19"/>
-      <c r="D234" s="19"/>
-      <c r="E234" s="19"/>
-      <c r="F234" s="18"/>
+      <c r="A234" s="20"/>
+      <c r="B234" s="20"/>
+      <c r="C234" s="20"/>
+      <c r="D234" s="20"/>
+      <c r="E234" s="20"/>
+      <c r="F234" s="19"/>
     </row>
     <row r="235" ht="17" customHeight="1">
-      <c r="A235" s="19"/>
-      <c r="B235" s="19"/>
-      <c r="C235" s="19"/>
-      <c r="D235" s="19"/>
-      <c r="E235" s="19"/>
-      <c r="F235" s="18"/>
+      <c r="A235" s="20"/>
+      <c r="B235" s="20"/>
+      <c r="C235" s="20"/>
+      <c r="D235" s="20"/>
+      <c r="E235" s="20"/>
+      <c r="F235" s="19"/>
     </row>
     <row r="236" ht="17" customHeight="1">
-      <c r="A236" s="19"/>
-      <c r="B236" s="19"/>
-      <c r="C236" s="19"/>
-      <c r="D236" s="19"/>
-      <c r="E236" s="19"/>
-      <c r="F236" s="18"/>
+      <c r="A236" s="20"/>
+      <c r="B236" s="20"/>
+      <c r="C236" s="20"/>
+      <c r="D236" s="20"/>
+      <c r="E236" s="20"/>
+      <c r="F236" s="19"/>
     </row>
     <row r="237" ht="17" customHeight="1">
-      <c r="A237" s="19"/>
-      <c r="B237" s="19"/>
-      <c r="C237" s="19"/>
-      <c r="D237" s="19"/>
-      <c r="E237" s="19"/>
-      <c r="F237" s="18"/>
+      <c r="A237" s="20"/>
+      <c r="B237" s="20"/>
+      <c r="C237" s="20"/>
+      <c r="D237" s="20"/>
+      <c r="E237" s="20"/>
+      <c r="F237" s="19"/>
     </row>
     <row r="238" ht="17" customHeight="1">
-      <c r="A238" s="19"/>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
-      <c r="D238" s="19"/>
-      <c r="E238" s="19"/>
-      <c r="F238" s="18"/>
+      <c r="A238" s="20"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
+      <c r="D238" s="20"/>
+      <c r="E238" s="20"/>
+      <c r="F238" s="19"/>
     </row>
     <row r="239" ht="17" customHeight="1">
-      <c r="A239" s="19"/>
-      <c r="B239" s="19"/>
-      <c r="C239" s="19"/>
-      <c r="D239" s="19"/>
-      <c r="E239" s="19"/>
-      <c r="F239" s="18"/>
+      <c r="A239" s="20"/>
+      <c r="B239" s="20"/>
+      <c r="C239" s="20"/>
+      <c r="D239" s="20"/>
+      <c r="E239" s="20"/>
+      <c r="F239" s="19"/>
     </row>
     <row r="240" ht="17" customHeight="1">
-      <c r="A240" s="19"/>
-      <c r="B240" s="19"/>
-      <c r="C240" s="19"/>
-      <c r="D240" s="19"/>
-      <c r="E240" s="19"/>
-      <c r="F240" s="18"/>
+      <c r="A240" s="20"/>
+      <c r="B240" s="20"/>
+      <c r="C240" s="20"/>
+      <c r="D240" s="20"/>
+      <c r="E240" s="20"/>
+      <c r="F240" s="19"/>
     </row>
     <row r="241" ht="17" customHeight="1">
-      <c r="A241" s="19"/>
-      <c r="B241" s="19"/>
-      <c r="C241" s="19"/>
-      <c r="D241" s="19"/>
-      <c r="E241" s="19"/>
-      <c r="F241" s="18"/>
+      <c r="A241" s="20"/>
+      <c r="B241" s="20"/>
+      <c r="C241" s="20"/>
+      <c r="D241" s="20"/>
+      <c r="E241" s="20"/>
+      <c r="F241" s="19"/>
     </row>
     <row r="242" ht="17" customHeight="1">
-      <c r="A242" s="19"/>
-      <c r="B242" s="19"/>
-      <c r="C242" s="19"/>
-      <c r="D242" s="19"/>
-      <c r="E242" s="19"/>
-      <c r="F242" s="18"/>
+      <c r="A242" s="20"/>
+      <c r="B242" s="20"/>
+      <c r="C242" s="20"/>
+      <c r="D242" s="20"/>
+      <c r="E242" s="20"/>
+      <c r="F242" s="19"/>
     </row>
     <row r="243" ht="17" customHeight="1">
-      <c r="A243" s="19"/>
-      <c r="B243" s="19"/>
-      <c r="C243" s="19"/>
-      <c r="D243" s="19"/>
-      <c r="E243" s="19"/>
-      <c r="F243" s="18"/>
+      <c r="A243" s="20"/>
+      <c r="B243" s="20"/>
+      <c r="C243" s="20"/>
+      <c r="D243" s="20"/>
+      <c r="E243" s="20"/>
+      <c r="F243" s="19"/>
     </row>
     <row r="244" ht="17" customHeight="1">
-      <c r="A244" s="19"/>
-      <c r="B244" s="19"/>
-      <c r="C244" s="19"/>
-      <c r="D244" s="19"/>
-      <c r="E244" s="19"/>
-      <c r="F244" s="18"/>
+      <c r="A244" s="20"/>
+      <c r="B244" s="20"/>
+      <c r="C244" s="20"/>
+      <c r="D244" s="20"/>
+      <c r="E244" s="20"/>
+      <c r="F244" s="19"/>
     </row>
     <row r="245" ht="17" customHeight="1">
-      <c r="A245" s="19"/>
-      <c r="B245" s="19"/>
-      <c r="C245" s="19"/>
-      <c r="D245" s="19"/>
-      <c r="E245" s="19"/>
-      <c r="F245" s="18"/>
+      <c r="A245" s="20"/>
+      <c r="B245" s="20"/>
+      <c r="C245" s="20"/>
+      <c r="D245" s="20"/>
+      <c r="E245" s="20"/>
+      <c r="F245" s="19"/>
     </row>
     <row r="246" ht="17" customHeight="1">
-      <c r="A246" s="19"/>
-      <c r="B246" s="19"/>
-      <c r="C246" s="19"/>
-      <c r="D246" s="19"/>
-      <c r="E246" s="19"/>
-      <c r="F246" s="18"/>
+      <c r="A246" s="20"/>
+      <c r="B246" s="20"/>
+      <c r="C246" s="20"/>
+      <c r="D246" s="20"/>
+      <c r="E246" s="20"/>
+      <c r="F246" s="19"/>
     </row>
     <row r="247" ht="17" customHeight="1">
-      <c r="A247" s="19"/>
-      <c r="B247" s="19"/>
-      <c r="C247" s="19"/>
-      <c r="D247" s="19"/>
-      <c r="E247" s="19"/>
-      <c r="F247" s="18"/>
+      <c r="A247" s="20"/>
+      <c r="B247" s="20"/>
+      <c r="C247" s="20"/>
+      <c r="D247" s="20"/>
+      <c r="E247" s="20"/>
+      <c r="F247" s="19"/>
     </row>
     <row r="248" ht="17" customHeight="1">
-      <c r="A248" s="19"/>
-      <c r="B248" s="19"/>
-      <c r="C248" s="19"/>
-      <c r="D248" s="19"/>
-      <c r="E248" s="19"/>
-      <c r="F248" s="18"/>
+      <c r="A248" s="20"/>
+      <c r="B248" s="20"/>
+      <c r="C248" s="20"/>
+      <c r="D248" s="20"/>
+      <c r="E248" s="20"/>
+      <c r="F248" s="19"/>
     </row>
     <row r="249" ht="17" customHeight="1">
-      <c r="A249" s="19"/>
-      <c r="B249" s="19"/>
-      <c r="C249" s="19"/>
-      <c r="D249" s="19"/>
-      <c r="E249" s="19"/>
-      <c r="F249" s="18"/>
+      <c r="A249" s="20"/>
+      <c r="B249" s="20"/>
+      <c r="C249" s="20"/>
+      <c r="D249" s="20"/>
+      <c r="E249" s="20"/>
+      <c r="F249" s="19"/>
     </row>
     <row r="250" ht="17" customHeight="1">
-      <c r="A250" s="19"/>
-      <c r="B250" s="19"/>
-      <c r="C250" s="19"/>
-      <c r="D250" s="19"/>
-      <c r="E250" s="19"/>
-      <c r="F250" s="18"/>
+      <c r="A250" s="20"/>
+      <c r="B250" s="20"/>
+      <c r="C250" s="20"/>
+      <c r="D250" s="20"/>
+      <c r="E250" s="20"/>
+      <c r="F250" s="19"/>
     </row>
     <row r="251" ht="17" customHeight="1">
-      <c r="A251" s="19"/>
-      <c r="B251" s="19"/>
-      <c r="C251" s="19"/>
-      <c r="D251" s="19"/>
-      <c r="E251" s="19"/>
-      <c r="F251" s="18"/>
+      <c r="A251" s="20"/>
+      <c r="B251" s="20"/>
+      <c r="C251" s="20"/>
+      <c r="D251" s="20"/>
+      <c r="E251" s="20"/>
+      <c r="F251" s="19"/>
     </row>
     <row r="252" ht="17" customHeight="1">
-      <c r="A252" s="19"/>
-      <c r="B252" s="19"/>
-      <c r="C252" s="19"/>
-      <c r="D252" s="19"/>
-      <c r="E252" s="19"/>
-      <c r="F252" s="18"/>
+      <c r="A252" s="20"/>
+      <c r="B252" s="20"/>
+      <c r="C252" s="20"/>
+      <c r="D252" s="20"/>
+      <c r="E252" s="20"/>
+      <c r="F252" s="19"/>
     </row>
     <row r="253" ht="17" customHeight="1">
-      <c r="A253" s="19"/>
-      <c r="B253" s="19"/>
-      <c r="C253" s="19"/>
-      <c r="D253" s="19"/>
-      <c r="E253" s="19"/>
-      <c r="F253" s="18"/>
+      <c r="A253" s="20"/>
+      <c r="B253" s="20"/>
+      <c r="C253" s="20"/>
+      <c r="D253" s="20"/>
+      <c r="E253" s="20"/>
+      <c r="F253" s="19"/>
     </row>
     <row r="254" ht="17" customHeight="1">
-      <c r="A254" s="19"/>
-      <c r="B254" s="19"/>
-      <c r="C254" s="19"/>
-      <c r="D254" s="19"/>
-      <c r="E254" s="19"/>
-      <c r="F254" s="18"/>
+      <c r="A254" s="20"/>
+      <c r="B254" s="20"/>
+      <c r="C254" s="20"/>
+      <c r="D254" s="20"/>
+      <c r="E254" s="20"/>
+      <c r="F254" s="19"/>
     </row>
     <row r="255" ht="17" customHeight="1">
-      <c r="A255" s="19"/>
-      <c r="B255" s="19"/>
-      <c r="C255" s="19"/>
-      <c r="D255" s="19"/>
-      <c r="E255" s="19"/>
-      <c r="F255" s="18"/>
+      <c r="A255" s="20"/>
+      <c r="B255" s="20"/>
+      <c r="C255" s="20"/>
+      <c r="D255" s="20"/>
+      <c r="E255" s="20"/>
+      <c r="F255" s="19"/>
     </row>
     <row r="256" ht="17" customHeight="1">
-      <c r="A256" s="19"/>
-      <c r="B256" s="19"/>
-      <c r="C256" s="19"/>
-      <c r="D256" s="19"/>
-      <c r="E256" s="19"/>
-      <c r="F256" s="18"/>
+      <c r="A256" s="20"/>
+      <c r="B256" s="20"/>
+      <c r="C256" s="20"/>
+      <c r="D256" s="20"/>
+      <c r="E256" s="20"/>
+      <c r="F256" s="19"/>
     </row>
     <row r="257" ht="17" customHeight="1">
-      <c r="A257" s="19"/>
-      <c r="B257" s="19"/>
-      <c r="C257" s="19"/>
-      <c r="D257" s="19"/>
-      <c r="E257" s="19"/>
-      <c r="F257" s="18"/>
+      <c r="A257" s="20"/>
+      <c r="B257" s="20"/>
+      <c r="C257" s="20"/>
+      <c r="D257" s="20"/>
+      <c r="E257" s="20"/>
+      <c r="F257" s="19"/>
     </row>
     <row r="258" ht="17" customHeight="1">
-      <c r="A258" s="19"/>
-      <c r="B258" s="19"/>
-      <c r="C258" s="19"/>
-      <c r="D258" s="19"/>
-      <c r="E258" s="19"/>
-      <c r="F258" s="18"/>
+      <c r="A258" s="20"/>
+      <c r="B258" s="20"/>
+      <c r="C258" s="20"/>
+      <c r="D258" s="20"/>
+      <c r="E258" s="20"/>
+      <c r="F258" s="19"/>
     </row>
     <row r="259" ht="17" customHeight="1">
-      <c r="A259" s="19"/>
-      <c r="B259" s="19"/>
-      <c r="C259" s="19"/>
-      <c r="D259" s="19"/>
-      <c r="E259" s="19"/>
-      <c r="F259" s="18"/>
+      <c r="A259" s="20"/>
+      <c r="B259" s="20"/>
+      <c r="C259" s="20"/>
+      <c r="D259" s="20"/>
+      <c r="E259" s="20"/>
+      <c r="F259" s="19"/>
     </row>
     <row r="260" ht="17" customHeight="1">
-      <c r="A260" s="19"/>
-      <c r="B260" s="19"/>
-      <c r="C260" s="19"/>
-      <c r="D260" s="19"/>
-      <c r="E260" s="19"/>
-      <c r="F260" s="18"/>
+      <c r="A260" s="20"/>
+      <c r="B260" s="20"/>
+      <c r="C260" s="20"/>
+      <c r="D260" s="20"/>
+      <c r="E260" s="20"/>
+      <c r="F260" s="19"/>
     </row>
     <row r="261" ht="17" customHeight="1">
-      <c r="A261" s="19"/>
-      <c r="B261" s="19"/>
-      <c r="C261" s="19"/>
-      <c r="D261" s="19"/>
-      <c r="E261" s="19"/>
-      <c r="F261" s="18"/>
+      <c r="A261" s="20"/>
+      <c r="B261" s="20"/>
+      <c r="C261" s="20"/>
+      <c r="D261" s="20"/>
+      <c r="E261" s="20"/>
+      <c r="F261" s="19"/>
     </row>
     <row r="262" ht="17" customHeight="1">
-      <c r="A262" s="19"/>
-      <c r="B262" s="19"/>
-      <c r="C262" s="19"/>
-      <c r="D262" s="19"/>
-      <c r="E262" s="19"/>
-      <c r="F262" s="18"/>
+      <c r="A262" s="20"/>
+      <c r="B262" s="20"/>
+      <c r="C262" s="20"/>
+      <c r="D262" s="20"/>
+      <c r="E262" s="20"/>
+      <c r="F262" s="19"/>
     </row>
     <row r="263" ht="17" customHeight="1">
-      <c r="A263" s="19"/>
-      <c r="B263" s="19"/>
-      <c r="C263" s="19"/>
-      <c r="D263" s="19"/>
-      <c r="E263" s="19"/>
-      <c r="F263" s="18"/>
+      <c r="A263" s="20"/>
+      <c r="B263" s="20"/>
+      <c r="C263" s="20"/>
+      <c r="D263" s="20"/>
+      <c r="E263" s="20"/>
+      <c r="F263" s="19"/>
     </row>
     <row r="264" ht="17" customHeight="1">
-      <c r="A264" s="19"/>
-      <c r="B264" s="19"/>
-      <c r="C264" s="19"/>
-      <c r="D264" s="19"/>
-      <c r="E264" s="19"/>
-      <c r="F264" s="18"/>
+      <c r="A264" s="20"/>
+      <c r="B264" s="20"/>
+      <c r="C264" s="20"/>
+      <c r="D264" s="20"/>
+      <c r="E264" s="20"/>
+      <c r="F264" s="19"/>
     </row>
     <row r="265" ht="17" customHeight="1">
-      <c r="A265" s="19"/>
-      <c r="B265" s="19"/>
-      <c r="C265" s="19"/>
-      <c r="D265" s="19"/>
-      <c r="E265" s="19"/>
-      <c r="F265" s="18"/>
+      <c r="A265" s="20"/>
+      <c r="B265" s="20"/>
+      <c r="C265" s="20"/>
+      <c r="D265" s="20"/>
+      <c r="E265" s="20"/>
+      <c r="F265" s="19"/>
     </row>
     <row r="266" ht="17" customHeight="1">
-      <c r="A266" s="19"/>
-      <c r="B266" s="19"/>
-      <c r="C266" s="19"/>
-      <c r="D266" s="19"/>
-      <c r="E266" s="19"/>
-      <c r="F266" s="18"/>
+      <c r="A266" s="20"/>
+      <c r="B266" s="20"/>
+      <c r="C266" s="20"/>
+      <c r="D266" s="20"/>
+      <c r="E266" s="20"/>
+      <c r="F266" s="19"/>
     </row>
     <row r="267" ht="17" customHeight="1">
-      <c r="A267" s="19"/>
-      <c r="B267" s="19"/>
-      <c r="C267" s="19"/>
-      <c r="D267" s="19"/>
-      <c r="E267" s="19"/>
-      <c r="F267" s="18"/>
+      <c r="A267" s="20"/>
+      <c r="B267" s="20"/>
+      <c r="C267" s="20"/>
+      <c r="D267" s="20"/>
+      <c r="E267" s="20"/>
+      <c r="F267" s="19"/>
     </row>
     <row r="268" ht="17" customHeight="1">
-      <c r="A268" s="19"/>
-      <c r="B268" s="19"/>
-      <c r="C268" s="19"/>
-      <c r="D268" s="19"/>
-      <c r="E268" s="19"/>
-      <c r="F268" s="18"/>
+      <c r="A268" s="20"/>
+      <c r="B268" s="20"/>
+      <c r="C268" s="20"/>
+      <c r="D268" s="20"/>
+      <c r="E268" s="20"/>
+      <c r="F268" s="19"/>
     </row>
     <row r="269" ht="17" customHeight="1">
-      <c r="A269" s="19"/>
-      <c r="B269" s="19"/>
-      <c r="C269" s="19"/>
-      <c r="D269" s="19"/>
-      <c r="E269" s="19"/>
-      <c r="F269" s="18"/>
+      <c r="A269" s="20"/>
+      <c r="B269" s="20"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="20"/>
+      <c r="E269" s="20"/>
+      <c r="F269" s="19"/>
     </row>
     <row r="270" ht="17" customHeight="1">
-      <c r="A270" s="19"/>
-      <c r="B270" s="19"/>
-      <c r="C270" s="19"/>
-      <c r="D270" s="19"/>
-      <c r="E270" s="19"/>
-      <c r="F270" s="18"/>
+      <c r="A270" s="20"/>
+      <c r="B270" s="20"/>
+      <c r="C270" s="20"/>
+      <c r="D270" s="20"/>
+      <c r="E270" s="20"/>
+      <c r="F270" s="19"/>
     </row>
     <row r="271" ht="17" customHeight="1">
-      <c r="A271" s="19"/>
-      <c r="B271" s="19"/>
-      <c r="C271" s="19"/>
-      <c r="D271" s="19"/>
-      <c r="E271" s="19"/>
-      <c r="F271" s="18"/>
+      <c r="A271" s="20"/>
+      <c r="B271" s="20"/>
+      <c r="C271" s="20"/>
+      <c r="D271" s="20"/>
+      <c r="E271" s="20"/>
+      <c r="F271" s="19"/>
     </row>
     <row r="272" ht="17" customHeight="1">
-      <c r="A272" s="19"/>
-      <c r="B272" s="19"/>
-      <c r="C272" s="19"/>
-      <c r="D272" s="19"/>
-      <c r="E272" s="19"/>
-      <c r="F272" s="18"/>
+      <c r="A272" s="20"/>
+      <c r="B272" s="20"/>
+      <c r="C272" s="20"/>
+      <c r="D272" s="20"/>
+      <c r="E272" s="20"/>
+      <c r="F272" s="19"/>
     </row>
     <row r="273" ht="17" customHeight="1">
-      <c r="A273" s="19"/>
-      <c r="B273" s="19"/>
-      <c r="C273" s="19"/>
-      <c r="D273" s="19"/>
-      <c r="E273" s="19"/>
-      <c r="F273" s="18"/>
+      <c r="A273" s="20"/>
+      <c r="B273" s="20"/>
+      <c r="C273" s="20"/>
+      <c r="D273" s="20"/>
+      <c r="E273" s="20"/>
+      <c r="F273" s="19"/>
     </row>
     <row r="274" ht="17" customHeight="1">
-      <c r="A274" s="19"/>
-      <c r="B274" s="19"/>
-      <c r="C274" s="19"/>
-      <c r="D274" s="19"/>
-      <c r="E274" s="19"/>
-      <c r="F274" s="18"/>
+      <c r="A274" s="20"/>
+      <c r="B274" s="20"/>
+      <c r="C274" s="20"/>
+      <c r="D274" s="20"/>
+      <c r="E274" s="20"/>
+      <c r="F274" s="19"/>
     </row>
     <row r="275" ht="17" customHeight="1">
-      <c r="A275" s="19"/>
-      <c r="B275" s="19"/>
-      <c r="C275" s="19"/>
-      <c r="D275" s="19"/>
-      <c r="E275" s="19"/>
-      <c r="F275" s="18"/>
+      <c r="A275" s="20"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
+      <c r="D275" s="20"/>
+      <c r="E275" s="20"/>
+      <c r="F275" s="19"/>
     </row>
     <row r="276" ht="17" customHeight="1">
-      <c r="A276" s="19"/>
-      <c r="B276" s="19"/>
-      <c r="C276" s="19"/>
-      <c r="D276" s="19"/>
-      <c r="E276" s="19"/>
-      <c r="F276" s="18"/>
+      <c r="A276" s="20"/>
+      <c r="B276" s="20"/>
+      <c r="C276" s="20"/>
+      <c r="D276" s="20"/>
+      <c r="E276" s="20"/>
+      <c r="F276" s="19"/>
     </row>
     <row r="277" ht="17" customHeight="1">
-      <c r="A277" s="19"/>
-      <c r="B277" s="19"/>
-      <c r="C277" s="19"/>
-      <c r="D277" s="19"/>
-      <c r="E277" s="19"/>
-      <c r="F277" s="18"/>
+      <c r="A277" s="20"/>
+      <c r="B277" s="20"/>
+      <c r="C277" s="20"/>
+      <c r="D277" s="20"/>
+      <c r="E277" s="20"/>
+      <c r="F277" s="19"/>
     </row>
     <row r="278" ht="17" customHeight="1">
-      <c r="A278" s="19"/>
-      <c r="B278" s="19"/>
-      <c r="C278" s="19"/>
-      <c r="D278" s="19"/>
-      <c r="E278" s="19"/>
-      <c r="F278" s="18"/>
+      <c r="A278" s="20"/>
+      <c r="B278" s="20"/>
+      <c r="C278" s="20"/>
+      <c r="D278" s="20"/>
+      <c r="E278" s="20"/>
+      <c r="F278" s="19"/>
     </row>
     <row r="279" ht="17" customHeight="1">
-      <c r="A279" s="19"/>
-      <c r="B279" s="19"/>
-      <c r="C279" s="19"/>
-      <c r="D279" s="19"/>
-      <c r="E279" s="19"/>
-      <c r="F279" s="18"/>
+      <c r="A279" s="20"/>
+      <c r="B279" s="20"/>
+      <c r="C279" s="20"/>
+      <c r="D279" s="20"/>
+      <c r="E279" s="20"/>
+      <c r="F279" s="19"/>
     </row>
     <row r="280" ht="17" customHeight="1">
-      <c r="A280" s="19"/>
-      <c r="B280" s="19"/>
-      <c r="C280" s="19"/>
-      <c r="D280" s="19"/>
-      <c r="E280" s="19"/>
-      <c r="F280" s="18"/>
+      <c r="A280" s="20"/>
+      <c r="B280" s="20"/>
+      <c r="C280" s="20"/>
+      <c r="D280" s="20"/>
+      <c r="E280" s="20"/>
+      <c r="F280" s="19"/>
     </row>
     <row r="281" ht="17" customHeight="1">
-      <c r="A281" s="19"/>
-      <c r="B281" s="19"/>
-      <c r="C281" s="19"/>
-      <c r="D281" s="19"/>
-      <c r="E281" s="19"/>
-      <c r="F281" s="18"/>
+      <c r="A281" s="20"/>
+      <c r="B281" s="20"/>
+      <c r="C281" s="20"/>
+      <c r="D281" s="20"/>
+      <c r="E281" s="20"/>
+      <c r="F281" s="19"/>
     </row>
     <row r="282" ht="17" customHeight="1">
-      <c r="A282" s="19"/>
-      <c r="B282" s="19"/>
-      <c r="C282" s="19"/>
-      <c r="D282" s="19"/>
-      <c r="E282" s="19"/>
-      <c r="F282" s="18"/>
+      <c r="A282" s="20"/>
+      <c r="B282" s="20"/>
+      <c r="C282" s="20"/>
+      <c r="D282" s="20"/>
+      <c r="E282" s="20"/>
+      <c r="F282" s="19"/>
     </row>
     <row r="283" ht="17" customHeight="1">
-      <c r="A283" s="19"/>
-      <c r="B283" s="19"/>
-      <c r="C283" s="19"/>
-      <c r="D283" s="19"/>
-      <c r="E283" s="19"/>
-      <c r="F283" s="18"/>
+      <c r="A283" s="20"/>
+      <c r="B283" s="20"/>
+      <c r="C283" s="20"/>
+      <c r="D283" s="20"/>
+      <c r="E283" s="20"/>
+      <c r="F283" s="19"/>
     </row>
     <row r="284" ht="17" customHeight="1">
-      <c r="A284" s="19"/>
-      <c r="B284" s="19"/>
-      <c r="C284" s="19"/>
-      <c r="D284" s="19"/>
-      <c r="E284" s="19"/>
-      <c r="F284" s="18"/>
+      <c r="A284" s="20"/>
+      <c r="B284" s="20"/>
+      <c r="C284" s="20"/>
+      <c r="D284" s="20"/>
+      <c r="E284" s="20"/>
+      <c r="F284" s="19"/>
     </row>
     <row r="285" ht="17" customHeight="1">
-      <c r="A285" s="19"/>
-      <c r="B285" s="19"/>
-      <c r="C285" s="19"/>
-      <c r="D285" s="19"/>
-      <c r="E285" s="19"/>
-      <c r="F285" s="18"/>
+      <c r="A285" s="20"/>
+      <c r="B285" s="20"/>
+      <c r="C285" s="20"/>
+      <c r="D285" s="20"/>
+      <c r="E285" s="20"/>
+      <c r="F285" s="19"/>
     </row>
     <row r="286" ht="17" customHeight="1">
-      <c r="A286" s="19"/>
-      <c r="B286" s="19"/>
-      <c r="C286" s="19"/>
-      <c r="D286" s="19"/>
-      <c r="E286" s="19"/>
-      <c r="F286" s="18"/>
+      <c r="A286" s="20"/>
+      <c r="B286" s="20"/>
+      <c r="C286" s="20"/>
+      <c r="D286" s="20"/>
+      <c r="E286" s="20"/>
+      <c r="F286" s="19"/>
     </row>
     <row r="287" ht="17" customHeight="1">
-      <c r="A287" s="19"/>
-      <c r="B287" s="19"/>
-      <c r="C287" s="19"/>
-      <c r="D287" s="19"/>
-      <c r="E287" s="19"/>
-      <c r="F287" s="18"/>
+      <c r="A287" s="20"/>
+      <c r="B287" s="20"/>
+      <c r="C287" s="20"/>
+      <c r="D287" s="20"/>
+      <c r="E287" s="20"/>
+      <c r="F287" s="19"/>
     </row>
     <row r="288" ht="17" customHeight="1">
-      <c r="A288" s="19"/>
-      <c r="B288" s="19"/>
-      <c r="C288" s="19"/>
-      <c r="D288" s="19"/>
-      <c r="E288" s="19"/>
-      <c r="F288" s="18"/>
+      <c r="A288" s="20"/>
+      <c r="B288" s="20"/>
+      <c r="C288" s="20"/>
+      <c r="D288" s="20"/>
+      <c r="E288" s="20"/>
+      <c r="F288" s="19"/>
     </row>
     <row r="289" ht="17" customHeight="1">
-      <c r="A289" s="19"/>
-      <c r="B289" s="19"/>
-      <c r="C289" s="19"/>
-      <c r="D289" s="19"/>
-      <c r="E289" s="19"/>
-      <c r="F289" s="18"/>
+      <c r="A289" s="20"/>
+      <c r="B289" s="20"/>
+      <c r="C289" s="20"/>
+      <c r="D289" s="20"/>
+      <c r="E289" s="20"/>
+      <c r="F289" s="19"/>
     </row>
     <row r="290" ht="17" customHeight="1">
-      <c r="A290" s="19"/>
-      <c r="B290" s="19"/>
-      <c r="C290" s="19"/>
-      <c r="D290" s="19"/>
-      <c r="E290" s="19"/>
-      <c r="F290" s="18"/>
+      <c r="A290" s="20"/>
+      <c r="B290" s="20"/>
+      <c r="C290" s="20"/>
+      <c r="D290" s="20"/>
+      <c r="E290" s="20"/>
+      <c r="F290" s="19"/>
     </row>
     <row r="291" ht="17" customHeight="1">
-      <c r="A291" s="19"/>
-      <c r="B291" s="19"/>
-      <c r="C291" s="19"/>
-      <c r="D291" s="19"/>
-      <c r="E291" s="19"/>
-      <c r="F291" s="18"/>
+      <c r="A291" s="20"/>
+      <c r="B291" s="20"/>
+      <c r="C291" s="20"/>
+      <c r="D291" s="20"/>
+      <c r="E291" s="20"/>
+      <c r="F291" s="19"/>
     </row>
     <row r="292" ht="17" customHeight="1">
-      <c r="A292" s="19"/>
-      <c r="B292" s="19"/>
-      <c r="C292" s="19"/>
-      <c r="D292" s="19"/>
-      <c r="E292" s="19"/>
-      <c r="F292" s="18"/>
+      <c r="A292" s="20"/>
+      <c r="B292" s="20"/>
+      <c r="C292" s="20"/>
+      <c r="D292" s="20"/>
+      <c r="E292" s="20"/>
+      <c r="F292" s="19"/>
     </row>
     <row r="293" ht="17" customHeight="1">
-      <c r="A293" s="19"/>
-      <c r="B293" s="19"/>
-      <c r="C293" s="19"/>
-      <c r="D293" s="19"/>
-      <c r="E293" s="19"/>
-      <c r="F293" s="18"/>
+      <c r="A293" s="20"/>
+      <c r="B293" s="20"/>
+      <c r="C293" s="20"/>
+      <c r="D293" s="20"/>
+      <c r="E293" s="20"/>
+      <c r="F293" s="19"/>
     </row>
     <row r="294" ht="17" customHeight="1">
-      <c r="A294" s="19"/>
-      <c r="B294" s="19"/>
-      <c r="C294" s="19"/>
-      <c r="D294" s="19"/>
-      <c r="E294" s="19"/>
-      <c r="F294" s="18"/>
+      <c r="A294" s="20"/>
+      <c r="B294" s="20"/>
+      <c r="C294" s="20"/>
+      <c r="D294" s="20"/>
+      <c r="E294" s="20"/>
+      <c r="F294" s="19"/>
     </row>
     <row r="295" ht="17" customHeight="1">
-      <c r="A295" s="19"/>
-      <c r="B295" s="19"/>
-      <c r="C295" s="19"/>
-      <c r="D295" s="19"/>
-      <c r="E295" s="19"/>
-      <c r="F295" s="18"/>
+      <c r="A295" s="20"/>
+      <c r="B295" s="20"/>
+      <c r="C295" s="20"/>
+      <c r="D295" s="20"/>
+      <c r="E295" s="20"/>
+      <c r="F295" s="19"/>
     </row>
     <row r="296" ht="17" customHeight="1">
-      <c r="A296" s="19"/>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
-      <c r="D296" s="19"/>
-      <c r="E296" s="19"/>
-      <c r="F296" s="18"/>
+      <c r="A296" s="20"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
+      <c r="D296" s="20"/>
+      <c r="E296" s="20"/>
+      <c r="F296" s="19"/>
     </row>
     <row r="297" ht="17" customHeight="1">
-      <c r="A297" s="19"/>
-      <c r="B297" s="19"/>
-      <c r="C297" s="19"/>
-      <c r="D297" s="19"/>
-      <c r="E297" s="19"/>
-      <c r="F297" s="18"/>
+      <c r="A297" s="20"/>
+      <c r="B297" s="20"/>
+      <c r="C297" s="20"/>
+      <c r="D297" s="20"/>
+      <c r="E297" s="20"/>
+      <c r="F297" s="19"/>
     </row>
     <row r="298" ht="17" customHeight="1">
-      <c r="A298" s="19"/>
-      <c r="B298" s="19"/>
-      <c r="C298" s="19"/>
-      <c r="D298" s="19"/>
-      <c r="E298" s="19"/>
-      <c r="F298" s="18"/>
+      <c r="A298" s="20"/>
+      <c r="B298" s="20"/>
+      <c r="C298" s="20"/>
+      <c r="D298" s="20"/>
+      <c r="E298" s="20"/>
+      <c r="F298" s="19"/>
     </row>
     <row r="299" ht="17" customHeight="1">
-      <c r="A299" s="19"/>
-      <c r="B299" s="19"/>
-      <c r="C299" s="19"/>
-      <c r="D299" s="19"/>
-      <c r="E299" s="19"/>
-      <c r="F299" s="18"/>
+      <c r="A299" s="20"/>
+      <c r="B299" s="20"/>
+      <c r="C299" s="20"/>
+      <c r="D299" s="20"/>
+      <c r="E299" s="20"/>
+      <c r="F299" s="19"/>
     </row>
     <row r="300" ht="17" customHeight="1">
-      <c r="A300" s="19"/>
-      <c r="B300" s="19"/>
-      <c r="C300" s="19"/>
-      <c r="D300" s="19"/>
-      <c r="E300" s="19"/>
-      <c r="F300" s="18"/>
+      <c r="A300" s="20"/>
+      <c r="B300" s="20"/>
+      <c r="C300" s="20"/>
+      <c r="D300" s="20"/>
+      <c r="E300" s="20"/>
+      <c r="F300" s="19"/>
     </row>
     <row r="301" ht="17" customHeight="1">
-      <c r="A301" s="19"/>
-      <c r="B301" s="19"/>
-      <c r="C301" s="19"/>
-      <c r="D301" s="19"/>
-      <c r="E301" s="19"/>
-      <c r="F301" s="18"/>
+      <c r="A301" s="20"/>
+      <c r="B301" s="20"/>
+      <c r="C301" s="20"/>
+      <c r="D301" s="20"/>
+      <c r="E301" s="20"/>
+      <c r="F301" s="19"/>
     </row>
     <row r="302" ht="17" customHeight="1">
-      <c r="A302" s="19"/>
-      <c r="B302" s="19"/>
-      <c r="C302" s="19"/>
-      <c r="D302" s="19"/>
-      <c r="E302" s="19"/>
-      <c r="F302" s="18"/>
+      <c r="A302" s="20"/>
+      <c r="B302" s="20"/>
+      <c r="C302" s="20"/>
+      <c r="D302" s="20"/>
+      <c r="E302" s="20"/>
+      <c r="F302" s="19"/>
     </row>
     <row r="303" ht="17" customHeight="1">
-      <c r="A303" s="19"/>
-      <c r="B303" s="19"/>
-      <c r="C303" s="19"/>
-      <c r="D303" s="19"/>
-      <c r="E303" s="19"/>
-      <c r="F303" s="18"/>
+      <c r="A303" s="20"/>
+      <c r="B303" s="20"/>
+      <c r="C303" s="20"/>
+      <c r="D303" s="20"/>
+      <c r="E303" s="20"/>
+      <c r="F303" s="19"/>
     </row>
     <row r="304" ht="17" customHeight="1">
-      <c r="A304" s="19"/>
-      <c r="B304" s="19"/>
-      <c r="C304" s="19"/>
-      <c r="D304" s="19"/>
-      <c r="E304" s="19"/>
-      <c r="F304" s="18"/>
+      <c r="A304" s="20"/>
+      <c r="B304" s="20"/>
+      <c r="C304" s="20"/>
+      <c r="D304" s="20"/>
+      <c r="E304" s="20"/>
+      <c r="F304" s="19"/>
     </row>
     <row r="305" ht="17" customHeight="1">
-      <c r="A305" s="19"/>
-      <c r="B305" s="19"/>
-      <c r="C305" s="19"/>
-      <c r="D305" s="19"/>
-      <c r="E305" s="19"/>
-      <c r="F305" s="18"/>
+      <c r="A305" s="20"/>
+      <c r="B305" s="20"/>
+      <c r="C305" s="20"/>
+      <c r="D305" s="20"/>
+      <c r="E305" s="20"/>
+      <c r="F305" s="19"/>
     </row>
     <row r="306" ht="17" customHeight="1">
-      <c r="A306" s="19"/>
-      <c r="B306" s="19"/>
-      <c r="C306" s="19"/>
-      <c r="D306" s="19"/>
-      <c r="E306" s="19"/>
-      <c r="F306" s="18"/>
+      <c r="A306" s="20"/>
+      <c r="B306" s="20"/>
+      <c r="C306" s="20"/>
+      <c r="D306" s="20"/>
+      <c r="E306" s="20"/>
+      <c r="F306" s="19"/>
     </row>
     <row r="307" ht="17" customHeight="1">
-      <c r="A307" s="19"/>
-      <c r="B307" s="19"/>
-      <c r="C307" s="19"/>
-      <c r="D307" s="19"/>
-      <c r="E307" s="19"/>
-      <c r="F307" s="18"/>
+      <c r="A307" s="20"/>
+      <c r="B307" s="20"/>
+      <c r="C307" s="20"/>
+      <c r="D307" s="20"/>
+      <c r="E307" s="20"/>
+      <c r="F307" s="19"/>
     </row>
     <row r="308" ht="17" customHeight="1">
-      <c r="A308" s="19"/>
-      <c r="B308" s="19"/>
-      <c r="C308" s="19"/>
-      <c r="D308" s="19"/>
-      <c r="E308" s="19"/>
-      <c r="F308" s="18"/>
+      <c r="A308" s="20"/>
+      <c r="B308" s="20"/>
+      <c r="C308" s="20"/>
+      <c r="D308" s="20"/>
+      <c r="E308" s="20"/>
+      <c r="F308" s="19"/>
     </row>
     <row r="309" ht="17" customHeight="1">
-      <c r="A309" s="19"/>
-      <c r="B309" s="19"/>
-      <c r="C309" s="19"/>
-      <c r="D309" s="19"/>
-      <c r="E309" s="19"/>
-      <c r="F309" s="18"/>
+      <c r="A309" s="20"/>
+      <c r="B309" s="20"/>
+      <c r="C309" s="20"/>
+      <c r="D309" s="20"/>
+      <c r="E309" s="20"/>
+      <c r="F309" s="19"/>
     </row>
     <row r="310" ht="17" customHeight="1">
-      <c r="A310" s="19"/>
-      <c r="B310" s="19"/>
-      <c r="C310" s="19"/>
-      <c r="D310" s="19"/>
-      <c r="E310" s="19"/>
-      <c r="F310" s="18"/>
+      <c r="A310" s="20"/>
+      <c r="B310" s="20"/>
+      <c r="C310" s="20"/>
+      <c r="D310" s="20"/>
+      <c r="E310" s="20"/>
+      <c r="F310" s="19"/>
     </row>
     <row r="311" ht="17" customHeight="1">
-      <c r="A311" s="19"/>
-      <c r="B311" s="19"/>
-      <c r="C311" s="19"/>
-      <c r="D311" s="19"/>
-      <c r="E311" s="19"/>
-      <c r="F311" s="18"/>
+      <c r="A311" s="20"/>
+      <c r="B311" s="20"/>
+      <c r="C311" s="20"/>
+      <c r="D311" s="20"/>
+      <c r="E311" s="20"/>
+      <c r="F311" s="19"/>
     </row>
     <row r="312" ht="17" customHeight="1">
-      <c r="A312" s="19"/>
-      <c r="B312" s="19"/>
-      <c r="C312" s="19"/>
-      <c r="D312" s="19"/>
-      <c r="E312" s="19"/>
-      <c r="F312" s="18"/>
+      <c r="A312" s="20"/>
+      <c r="B312" s="20"/>
+      <c r="C312" s="20"/>
+      <c r="D312" s="20"/>
+      <c r="E312" s="20"/>
+      <c r="F312" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
